--- a/AAII_Financials/Quarterly/TEVA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TEVA_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>TEVA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,208 +665,233 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4357000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3991000</v>
+      </c>
+      <c r="F8" s="3">
         <v>4264000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>4337000</v>
       </c>
-      <c r="F8" s="3">
-        <v>4295000</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
+        <v>4149000</v>
+      </c>
+      <c r="I8" s="3">
         <v>4559000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>4529000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>4701000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>5065000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>5398000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>5617000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>5720000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>5650000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>6492000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>5563000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2279000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2033000</v>
+      </c>
+      <c r="F9" s="3">
         <v>2435000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>2443000</v>
       </c>
-      <c r="F9" s="3">
-        <v>2440000</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
+        <v>2258000</v>
+      </c>
+      <c r="I9" s="3">
         <v>2693000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>2552000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>2668000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>2750000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>3127000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>2967000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>2865000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>2811000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>3102000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>2762000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2078000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1958000</v>
+      </c>
+      <c r="F10" s="3">
         <v>1829000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>1894000</v>
       </c>
-      <c r="F10" s="3">
-        <v>1855000</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
+        <v>1891000</v>
+      </c>
+      <c r="I10" s="3">
         <v>1866000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>1977000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>2033000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>2315000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>2271000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>2650000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>2855000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>2839000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>3390000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>2801000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -883,52 +908,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>221000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>232000</v>
+      </c>
+      <c r="F12" s="3">
         <v>240000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>276000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>261000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>295000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>311000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>290000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>317000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>346000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>531000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>469000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>432000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>684000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>663000</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -971,52 +1004,64 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>764000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>561000</v>
+      </c>
+      <c r="F14" s="3">
         <v>803000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>1299000</v>
       </c>
-      <c r="F14" s="3">
-        <v>527000</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
+        <v>561000</v>
+      </c>
+      <c r="I14" s="3">
         <v>3804000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>1165000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>855000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-417000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>13850000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>520000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>6842000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>205000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>1508000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>720000</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1024,43 +1069,49 @@
         <v>35000</v>
       </c>
       <c r="E15" s="3">
-        <v>35000</v>
+        <v>34000</v>
       </c>
       <c r="F15" s="3">
         <v>35000</v>
       </c>
       <c r="G15" s="3">
+        <v>35000</v>
+      </c>
+      <c r="H15" s="3">
+        <v>35000</v>
+      </c>
+      <c r="I15" s="3">
         <v>24000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>51000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>41000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>46000</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>11</v>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1074,96 +1125,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4166000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3843000</v>
+      </c>
+      <c r="F17" s="3">
         <v>4345000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>4981000</v>
       </c>
-      <c r="F17" s="3">
-        <v>4161000</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>4015000</v>
+      </c>
+      <c r="I17" s="3">
         <v>7709000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>4513000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>4715000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>3607000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>18415000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>5239000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>11462000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>4755000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>6629000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>4798000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>191000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>148000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-81000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-644000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>134000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-3150000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>16000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-14000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1458000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-13017000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>378000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-5742000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>895000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-137000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>765000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1180,228 +1245,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>22000</v>
+      </c>
+      <c r="F20" s="3">
         <v>7000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>21000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>9000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-6000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>11000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-5000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>14000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>30000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-40000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>290000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-56000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-777000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-150000</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>607000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>586000</v>
+      </c>
+      <c r="F21" s="3">
         <v>339000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-173000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>586000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-2774000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>501000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>460000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1979000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-12459000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>865000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-4875000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>1319000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-582000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>1192000</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>241000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>209000</v>
+      </c>
+      <c r="F22" s="3">
         <v>218000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>227000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>227000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>231000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>240000</v>
       </c>
       <c r="I22" s="3">
         <v>231000</v>
       </c>
       <c r="J22" s="3">
+        <v>240000</v>
+      </c>
+      <c r="K22" s="3">
+        <v>231000</v>
+      </c>
+      <c r="L22" s="3">
         <v>218000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>221000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>219000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>526000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>151000</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="Q22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="R22" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-39000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-292000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-850000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-84000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-3387000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-213000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-250000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1254000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-13208000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>119000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-5978000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>688000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-914000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>615000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-119000</v>
+      </c>
+      <c r="F24" s="3">
         <v>11000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-179000</v>
       </c>
-      <c r="F24" s="3">
-        <v>70000</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
+        <v>9000</v>
+      </c>
+      <c r="I24" s="3">
         <v>-236000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-26000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-76000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>46000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-410000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-494000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-22000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>54000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>57000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>207000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1444,96 +1541,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>80000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-303000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-671000</v>
       </c>
-      <c r="F26" s="3">
-        <v>-154000</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>-93000</v>
+      </c>
+      <c r="I26" s="3">
         <v>-3151000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-187000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-174000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1208000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-12798000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>613000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-5956000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>634000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-971000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>408000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>69000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>109000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-314000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-689000</v>
       </c>
-      <c r="F27" s="3">
-        <v>-166000</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>-105000</v>
+      </c>
+      <c r="I27" s="3">
         <v>-2843000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-283000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-241000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>1055000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-12661000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>530000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-6035000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>580000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1038000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1576,40 +1691,46 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>61000</v>
-      </c>
-      <c r="G29" s="3">
-        <v>-97000</v>
+      <c r="D29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>11</v>
+      <c r="I29" s="3">
+        <v>-97000</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K29" s="3">
-        <v>1061000</v>
+      <c r="K29" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>11</v>
+      <c r="M29" s="3">
+        <v>1061000</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>11</v>
@@ -1620,8 +1741,14 @@
       <c r="P29" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1664,8 +1791,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1708,96 +1841,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-7000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-21000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-9000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>6000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-11000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>5000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-14000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-30000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>40000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-290000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>56000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>777000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>150000</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>69000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>109000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-314000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-689000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-105000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-2940000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-283000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-241000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1055000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-11600000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>530000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-6035000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>580000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1038000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1840,101 +1991,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>69000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>109000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-314000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-689000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-105000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-2940000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-283000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-241000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1055000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-11600000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>530000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-6035000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>580000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1038000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1951,8 +2120,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1969,52 +2140,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1804000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1975000</v>
+      </c>
+      <c r="F41" s="3">
         <v>1241000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>2165000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1973000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1782000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1875000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1861000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1418000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>963000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>680000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>599000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>900000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>988000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1557000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2057,184 +2236,214 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5189000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>5676000</v>
+      </c>
+      <c r="F43" s="3">
         <v>5254000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>5260000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>5108000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>5822000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>5665000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>6061000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>6289000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>7128000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>7424000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>7320000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>7264000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>7523000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>8071000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4290000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>4422000</v>
+      </c>
+      <c r="F44" s="3">
         <v>4636000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>4850000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>4782000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>4731000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>4866000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>4971000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>5113000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>4924000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>5060000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>5132000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>4999000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>4954000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>5349000</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1601000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1391000</v>
+      </c>
+      <c r="F45" s="3">
         <v>1411000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1530000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1568000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1459000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1475000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1818000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1867000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>2367000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>3062000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1544000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1672000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>3763000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>2409000</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12884000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>13464000</v>
+      </c>
+      <c r="F46" s="3">
         <v>12542000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>13805000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>13431000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>13794000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>13881000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>14711000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>14687000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>15382000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>16226000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>14595000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>14835000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>17228000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>17386000</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2277,96 +2486,114 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6710000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>6950000</v>
+      </c>
+      <c r="F48" s="3">
         <v>7111000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>7232000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>7302000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>6868000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>7101000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>7213000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>7420000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>7673000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>8001000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>8043000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>8160000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>8073000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>8379000</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>34746000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>36078000</v>
+      </c>
+      <c r="F49" s="3">
         <v>36535000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>37348000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>38013000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>38922000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>42930000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>43860000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>45779000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>46054000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>60270000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>61699000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>66215000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>65896000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>69853000</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2409,8 +2636,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2453,52 +2686,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>990000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>978000</v>
+      </c>
+      <c r="F52" s="3">
         <v>1058000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>1039000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>1108000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>1099000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>1149000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>1246000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1295000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1506000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1585000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>2018000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>2066000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>1860000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>3129000</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2541,52 +2786,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>55330000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>57470000</v>
+      </c>
+      <c r="F54" s="3">
         <v>57246000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>59424000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>59854000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>60683000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>65061000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>67030000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>69181000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>70615000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>86082000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>86355000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>91276000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>93057000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>98747000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2603,8 +2860,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2621,272 +2880,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1710000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1718000</v>
+      </c>
+      <c r="F57" s="3">
         <v>1688000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1806000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1763000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1853000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1626000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1779000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1929000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2069000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2370000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2278000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>2378000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>2157000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>4953000</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1630000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2345000</v>
+      </c>
+      <c r="F58" s="3">
         <v>3130000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>2771000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>2790000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>2216000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>2673000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1272000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1302000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>3646000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>2731000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1246000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1942000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>3276000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>3676000</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8982000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>9611000</v>
+      </c>
+      <c r="F59" s="3">
         <v>9289000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>9875000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>9475000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>10253000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>10531000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>11164000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>11525000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>12206000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>11842000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>11933000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>11583000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>13055000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>10657000</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12322000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>13674000</v>
+      </c>
+      <c r="F60" s="3">
         <v>14107000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>14452000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>14028000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>14322000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>14830000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>14215000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>14756000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>17921000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>16943000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>15457000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>15903000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>18488000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>19286000</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>24473000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>24562000</v>
+      </c>
+      <c r="F61" s="3">
         <v>23812000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>25955000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>25828000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>26691000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>26792000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>28949000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>29434000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>28827000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>31970500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>33806000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>32691000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>32522000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>33179000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3947000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>4171000</v>
+      </c>
+      <c r="F62" s="3">
         <v>4402000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>3766000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>4177000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>3876000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>4305000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>4498000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>4889000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>5122000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>6873500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>7484000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>6937000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>7054000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>9254000</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2929,8 +3226,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2973,8 +3276,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3017,52 +3326,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>41799000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>43498000</v>
+      </c>
+      <c r="F66" s="3">
         <v>43455000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>45301000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>45122000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>45976000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>47331000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>49092000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>50560000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>53256000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>57411000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>58361000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>57253000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>59720000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>63618000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3079,8 +3400,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3123,8 +3446,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3167,8 +3496,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3185,22 +3520,22 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>3825000</v>
       </c>
-      <c r="I70" s="3">
+      <c r="K70" s="3">
         <v>3760000</v>
       </c>
-      <c r="J70" s="3">
+      <c r="L70" s="3">
         <v>3696000</v>
       </c>
-      <c r="K70" s="3">
+      <c r="M70" s="3">
         <v>3631000</v>
-      </c>
-      <c r="L70" s="3">
-        <v>3620000</v>
-      </c>
-      <c r="M70" s="3">
-        <v>3620000</v>
       </c>
       <c r="N70" s="3">
         <v>3620000</v>
@@ -3211,8 +3546,14 @@
       <c r="P70" s="3">
         <v>3620000</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>3620000</v>
+      </c>
+      <c r="R70" s="3">
+        <v>3620000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3255,52 +3596,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6887000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-6956000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-7066000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-6752000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-6063000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-5958000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-3072000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-2864000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-2688000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-3803000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>7873000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>7430000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>13809000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>13607000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>14991000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3343,8 +3696,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3387,8 +3746,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3431,52 +3796,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>13531000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>13972000</v>
+      </c>
+      <c r="F76" s="3">
         <v>13791000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>14123000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>14732000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>14707000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>13905000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>14178000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>14925000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>13728000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>25051000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>24374000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>30403000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>29717000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>31509000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3519,101 +3896,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>69000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>109000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-314000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-689000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-105000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-2940000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-283000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-241000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1055000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-11600000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>530000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-6035000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>580000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1038000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3630,52 +4025,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>399000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>416000</v>
+      </c>
+      <c r="F83" s="3">
         <v>413000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>450000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>443000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>382000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>474000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>479000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>507000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>528000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>527000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>577000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>480000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>332000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>577000</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3718,8 +4121,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3762,8 +4171,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3806,8 +4221,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3850,8 +4271,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3894,52 +4321,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>305000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>538000</v>
+      </c>
+      <c r="F89" s="3">
         <v>325000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-227000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>112000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>367000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>421000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>162000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1496000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>1179000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>1117000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>741000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>470000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>1425000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>1461000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3956,52 +4395,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-128000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-119000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-169000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-112000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-125000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-213000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-139000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-136000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-163000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-267000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-212000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-193000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-202000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-333000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-221000</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4044,8 +4491,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4088,52 +4541,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>252000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>430000</v>
+      </c>
+      <c r="F94" s="3">
         <v>224000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>429000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>272000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>74000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>347000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>406000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>1039000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>1912000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>744000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-392000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>1182000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-797000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-32301000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4150,8 +4615,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4174,28 +4641,34 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-12000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-87000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-123000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-345000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-346000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-346000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-340000</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4238,8 +4711,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4282,8 +4761,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4326,136 +4811,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-700000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-241000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1461000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-35000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-189000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-499000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-705000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-56000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-2091000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-2506000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-825000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-651000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-1768000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-701000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>25372000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F101" s="3">
         <v>-12000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>25000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-4000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-35000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-49000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-69000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>11000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>18000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>7000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>1000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>28000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-496000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>41000</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-171000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>734000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-924000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>192000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>191000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-93000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>14000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>443000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>455000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>283000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>81000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-301000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-88000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-569000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-5427000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TEVA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TEVA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>TEVA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,233 +665,246 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3870000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4357000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3991000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4264000</v>
       </c>
-      <c r="G8" s="3">
-        <v>4337000</v>
-      </c>
       <c r="H8" s="3">
+        <v>4177000</v>
+      </c>
+      <c r="I8" s="3">
         <v>4149000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4559000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4529000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4701000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5065000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5398000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5617000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5720000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5650000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6492000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5563000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2091000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2279000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2033000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2435000</v>
-      </c>
-      <c r="G9" s="3">
-        <v>2443000</v>
       </c>
       <c r="H9" s="3">
         <v>2258000</v>
       </c>
       <c r="I9" s="3">
+        <v>2258000</v>
+      </c>
+      <c r="J9" s="3">
         <v>2693000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2552000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2668000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2750000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3127000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2967000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2865000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2811000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3102000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2762000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1779000</v>
+      </c>
+      <c r="E10" s="3">
         <v>2078000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1958000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1829000</v>
       </c>
-      <c r="G10" s="3">
-        <v>1894000</v>
-      </c>
       <c r="H10" s="3">
+        <v>1919000</v>
+      </c>
+      <c r="I10" s="3">
         <v>1891000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1866000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1977000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2033000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2315000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2271000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2650000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2855000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2839000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3390000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2801000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -910,58 +923,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>225000</v>
+      </c>
+      <c r="E12" s="3">
         <v>221000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>232000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>240000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>276000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>261000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>295000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>311000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>290000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>317000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>346000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>531000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>469000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>432000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>684000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>663000</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1010,69 +1027,75 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>537000</v>
+      </c>
+      <c r="E14" s="3">
         <v>764000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>561000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>803000</v>
       </c>
-      <c r="G14" s="3">
-        <v>1299000</v>
-      </c>
       <c r="H14" s="3">
+        <v>1323000</v>
+      </c>
+      <c r="I14" s="3">
         <v>561000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>3804000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1165000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>855000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-417000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>13850000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>520000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>6842000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>205000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1508000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>720000</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E15" s="3">
         <v>35000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>34000</v>
-      </c>
-      <c r="F15" s="3">
-        <v>35000</v>
       </c>
       <c r="G15" s="3">
         <v>35000</v>
@@ -1081,28 +1104,28 @@
         <v>35000</v>
       </c>
       <c r="I15" s="3">
+        <v>35000</v>
+      </c>
+      <c r="J15" s="3">
         <v>24000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>51000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>41000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>46000</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
       <c r="N15" s="3">
         <v>0</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>11</v>
+      <c r="P15" s="3">
+        <v>0</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>11</v>
@@ -1110,8 +1133,11 @@
       <c r="R15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1127,108 +1153,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3697000</v>
+      </c>
+      <c r="E17" s="3">
         <v>4166000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3843000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4345000</v>
       </c>
-      <c r="G17" s="3">
-        <v>4981000</v>
-      </c>
       <c r="H17" s="3">
+        <v>4821000</v>
+      </c>
+      <c r="I17" s="3">
         <v>4015000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7709000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4513000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4715000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3607000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>18415000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5239000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>11462000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4755000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6629000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4798000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>173000</v>
+      </c>
+      <c r="E18" s="3">
         <v>191000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>148000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-81000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-644000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>134000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3150000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>16000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-14000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1458000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-13017000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>378000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-5742000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>895000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-137000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>765000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1247,8 +1280,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1256,99 +1290,105 @@
         <v>17000</v>
       </c>
       <c r="E20" s="3">
+        <v>17000</v>
+      </c>
+      <c r="F20" s="3">
         <v>22000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>7000</v>
       </c>
-      <c r="G20" s="3">
-        <v>21000</v>
-      </c>
       <c r="H20" s="3">
+        <v>20000</v>
+      </c>
+      <c r="I20" s="3">
         <v>9000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-6000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>11000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-5000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>14000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>30000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-40000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>290000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-56000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-777000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-150000</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>572000</v>
+      </c>
+      <c r="E21" s="3">
         <v>607000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>586000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>339000</v>
       </c>
-      <c r="G21" s="3">
-        <v>-173000</v>
-      </c>
       <c r="H21" s="3">
+        <v>-174000</v>
+      </c>
+      <c r="I21" s="3">
         <v>586000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2774000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>501000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>460000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1979000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-12459000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>865000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-4875000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1319000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-582000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1192000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1356,149 +1396,158 @@
         <v>241000</v>
       </c>
       <c r="E22" s="3">
+        <v>241000</v>
+      </c>
+      <c r="F22" s="3">
         <v>209000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>218000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
+        <v>226000</v>
+      </c>
+      <c r="I22" s="3">
         <v>227000</v>
       </c>
-      <c r="H22" s="3">
-        <v>227000</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>231000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>240000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>231000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>218000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>221000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>219000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>526000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>151000</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-33000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-39000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-292000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-850000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-84000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3387000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-213000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-250000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1254000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-13208000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>119000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5978000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>688000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-914000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>615000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-104000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-59000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-119000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>11000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-179000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>9000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-236000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-26000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-76000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>46000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-410000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-494000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-22000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>54000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>57000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>207000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1547,108 +1596,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E26" s="3">
         <v>26000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>80000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-303000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-671000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-93000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3151000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-187000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-174000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1208000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-12798000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>613000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5956000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>634000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-971000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>408000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>140000</v>
+      </c>
+      <c r="E27" s="3">
         <v>69000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>109000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-314000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-689000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-105000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2843000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-283000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-241000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1055000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-12661000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>530000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-6035000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>580000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1038000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1697,8 +1755,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1717,11 +1778,11 @@
       <c r="H29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J29" s="3">
         <v>-97000</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>11</v>
@@ -1729,11 +1790,11 @@
       <c r="L29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N29" s="3">
         <v>1061000</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>11</v>
@@ -1747,8 +1808,11 @@
       <c r="R29" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1797,8 +1861,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1847,8 +1914,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1856,99 +1926,105 @@
         <v>-17000</v>
       </c>
       <c r="E32" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-22000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-7000</v>
       </c>
-      <c r="G32" s="3">
-        <v>-21000</v>
-      </c>
       <c r="H32" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="I32" s="3">
         <v>-9000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>6000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-11000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>5000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-14000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-30000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>40000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-290000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>56000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>777000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>150000</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>140000</v>
+      </c>
+      <c r="E33" s="3">
         <v>69000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>109000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-314000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-689000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-105000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2940000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-283000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-241000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1055000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-11600000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>530000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-6035000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>580000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1038000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1997,113 +2073,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>140000</v>
+      </c>
+      <c r="E35" s="3">
         <v>69000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>109000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-314000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-689000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-105000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2940000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-283000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-241000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1055000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-11600000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>530000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-6035000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>580000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1038000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2122,8 +2207,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2142,58 +2228,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2402000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1804000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1975000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1241000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2165000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1973000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1782000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1875000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1861000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1418000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>963000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>680000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>599000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>900000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>988000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1557000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2242,208 +2332,223 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4545000</v>
+      </c>
+      <c r="E43" s="3">
         <v>5189000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5676000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5254000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5260000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5108000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5822000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5665000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6061000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6289000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7128000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7424000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7320000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7264000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7523000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>8071000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4361000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4290000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4422000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4636000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4850000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4782000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4731000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4866000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4971000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5113000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4924000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5060000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5132000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4999000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4954000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5349000</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1473000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1601000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1391000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1411000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1530000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1568000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1459000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1475000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1818000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1867000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2367000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3062000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1544000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1672000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3763000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2409000</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12781000</v>
+      </c>
+      <c r="E46" s="3">
         <v>12884000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>13464000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>12542000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>13805000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>13431000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>13794000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>13881000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>14711000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>14687000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>15382000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>16226000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>14595000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>14835000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>17228000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>17386000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2492,108 +2597,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6611000</v>
+      </c>
+      <c r="E48" s="3">
         <v>6710000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6950000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7111000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7232000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7302000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6868000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7101000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7213000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7420000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7673000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>8001000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>8043000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>8160000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>8073000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>8379000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>34556000</v>
+      </c>
+      <c r="E49" s="3">
         <v>34746000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>36078000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>36535000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>37348000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>38013000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>38922000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>42930000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>43860000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>45779000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>46054000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>60270000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>61699000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>66215000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>65896000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>69853000</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2642,8 +2756,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2692,58 +2809,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1043000</v>
+      </c>
+      <c r="E52" s="3">
         <v>990000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>978000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1058000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1039000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1108000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1099000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1149000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1246000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1295000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1506000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1585000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2018000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2066000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1860000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3129000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2792,58 +2915,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>54991000</v>
+      </c>
+      <c r="E54" s="3">
         <v>55330000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>57470000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>57246000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>59424000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>59854000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>60683000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>65061000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>67030000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>69181000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>70615000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>86082000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>86355000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>91276000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>93057000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>98747000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2862,8 +2991,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2882,308 +3012,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1606000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1710000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1718000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1688000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1806000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1763000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1853000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1626000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1779000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1929000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2069000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2370000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2278000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2378000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2157000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4953000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1650000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1630000</v>
       </c>
-      <c r="E58" s="3">
-        <v>2345000</v>
-      </c>
       <c r="F58" s="3">
-        <v>3130000</v>
+        <v>1831000</v>
       </c>
       <c r="G58" s="3">
-        <v>2771000</v>
+        <v>3030000</v>
       </c>
       <c r="H58" s="3">
-        <v>2790000</v>
+        <v>2770000</v>
       </c>
       <c r="I58" s="3">
-        <v>2216000</v>
+        <v>2788000</v>
       </c>
       <c r="J58" s="3">
+        <v>1700000</v>
+      </c>
+      <c r="K58" s="3">
         <v>2673000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1272000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1302000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3646000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2731000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1246000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1942000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3276000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3676000</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8495000</v>
+      </c>
+      <c r="E59" s="3">
         <v>8982000</v>
       </c>
-      <c r="E59" s="3">
-        <v>9611000</v>
-      </c>
       <c r="F59" s="3">
-        <v>9289000</v>
+        <v>10125000</v>
       </c>
       <c r="G59" s="3">
-        <v>9875000</v>
+        <v>9389000</v>
       </c>
       <c r="H59" s="3">
-        <v>9475000</v>
+        <v>9876000</v>
       </c>
       <c r="I59" s="3">
-        <v>10253000</v>
+        <v>9477000</v>
       </c>
       <c r="J59" s="3">
+        <v>10769000</v>
+      </c>
+      <c r="K59" s="3">
         <v>10531000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11164000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>11525000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>12206000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>11842000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>11933000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>11583000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>13055000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>10657000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11751000</v>
+      </c>
+      <c r="E60" s="3">
         <v>12322000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>13674000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>14107000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>14452000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>14028000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>14322000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>14830000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>14215000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>14756000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>17921000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>16943000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>15457000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>15903000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>18488000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>19286000</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>24616000</v>
+      </c>
+      <c r="E61" s="3">
         <v>24473000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>24562000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>23812000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>25955000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>25828000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>26691000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>26792000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>28949000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>29434000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>28827000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>31970500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>33806000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>32691000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>32522000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>33179000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3800000</v>
+      </c>
+      <c r="E62" s="3">
         <v>3947000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4171000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4402000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3766000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4177000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3876000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4305000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4498000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4889000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5122000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>6873500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>7484000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>6937000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>7054000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>9254000</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3232,8 +3381,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3282,8 +3434,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3332,58 +3487,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>41139000</v>
+      </c>
+      <c r="E66" s="3">
         <v>41799000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>43498000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>43455000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>45301000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>45122000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>45976000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>47331000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>49092000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>50560000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>53256000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>57411000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>58361000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>57253000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>59720000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>63618000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3402,8 +3563,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3452,8 +3614,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3502,8 +3667,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3526,19 +3694,19 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>3825000</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>3760000</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>3696000</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>3631000</v>
-      </c>
-      <c r="N70" s="3">
-        <v>3620000</v>
       </c>
       <c r="O70" s="3">
         <v>3620000</v>
@@ -3552,8 +3720,11 @@
       <c r="R70" s="3">
         <v>3620000</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>3620000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3602,58 +3773,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6747000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-6887000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-6956000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-7066000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-6752000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-6063000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5958000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3072000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2864000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2688000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3803000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>7873000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>7430000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>13809000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>13607000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>14991000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3702,8 +3879,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3752,8 +3932,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3802,58 +3985,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>13852000</v>
+      </c>
+      <c r="E76" s="3">
         <v>13531000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>13972000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>13791000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>14123000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>14732000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>14707000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>13905000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14178000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>14925000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>13728000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>25051000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>24374000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>30403000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>29717000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>31509000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3902,113 +4091,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>140000</v>
+      </c>
+      <c r="E81" s="3">
         <v>69000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>109000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-314000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-689000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-105000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2940000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-283000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-241000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1055000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-11600000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>530000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-6035000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>580000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1038000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4027,58 +4225,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>382000</v>
+      </c>
+      <c r="E83" s="3">
         <v>399000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>416000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>413000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>450000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>443000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>382000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>474000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>479000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>507000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>528000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>527000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>577000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>480000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>332000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>577000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4127,8 +4329,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4177,8 +4382,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4227,8 +4435,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4277,8 +4488,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4327,58 +4541,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>273000</v>
+      </c>
+      <c r="E89" s="3">
         <v>305000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>538000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>325000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-227000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>112000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>367000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>421000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>162000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1496000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1179000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1117000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>741000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>470000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1425000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1461000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4397,58 +4617,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-131000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-128000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-119000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-169000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-112000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-125000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-213000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-139000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-136000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-163000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-267000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-212000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-193000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-202000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-333000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-221000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4497,8 +4721,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4547,58 +4774,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>313000</v>
+      </c>
+      <c r="E94" s="3">
         <v>252000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>430000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>224000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>429000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>272000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>74000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>347000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>406000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1039000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1912000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>744000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-392000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>1182000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-797000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-32301000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4617,8 +4850,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4647,28 +4881,31 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-12000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-87000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-123000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-345000</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-346000</v>
       </c>
       <c r="Q96" s="3">
         <v>-346000</v>
       </c>
       <c r="R96" s="3">
+        <v>-346000</v>
+      </c>
+      <c r="S96" s="3">
         <v>-340000</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4717,8 +4954,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4767,8 +5007,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4817,154 +5060,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-700000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-241000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1461000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-35000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-189000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-499000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-705000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-56000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2091000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2506000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-825000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-651000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1768000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-701000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>25372000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-28000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>7000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-12000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>25000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-4000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-35000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-49000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-69000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>11000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>18000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>7000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>28000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-496000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>41000</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>598000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-171000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>734000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-924000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>192000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>191000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-93000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>14000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>443000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>455000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>283000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>81000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-301000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-88000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-569000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-5427000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TEVA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TEVA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>TEVA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,246 +665,259 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3978000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3870000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4357000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3991000</v>
       </c>
-      <c r="G8" s="3">
-        <v>4264000</v>
-      </c>
       <c r="H8" s="3">
+        <v>4093000</v>
+      </c>
+      <c r="I8" s="3">
         <v>4177000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4149000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4559000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4529000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4701000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5065000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5398000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5617000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5720000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5650000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6492000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5563000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2128000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2091000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2279000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2033000</v>
       </c>
-      <c r="G9" s="3">
-        <v>2435000</v>
-      </c>
       <c r="H9" s="3">
-        <v>2258000</v>
+        <v>2229000</v>
       </c>
       <c r="I9" s="3">
         <v>2258000</v>
       </c>
       <c r="J9" s="3">
+        <v>2258000</v>
+      </c>
+      <c r="K9" s="3">
         <v>2693000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2552000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2668000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2750000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3127000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2967000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2865000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2811000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3102000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2762000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1850000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1779000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2078000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1958000</v>
       </c>
-      <c r="G10" s="3">
-        <v>1829000</v>
-      </c>
       <c r="H10" s="3">
+        <v>1864000</v>
+      </c>
+      <c r="I10" s="3">
         <v>1919000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1891000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1866000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1977000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2033000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2315000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2271000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2650000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2855000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2839000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3390000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2801000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -924,61 +937,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>258000</v>
+      </c>
+      <c r="E12" s="3">
         <v>225000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>221000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>232000</v>
       </c>
-      <c r="G12" s="3">
-        <v>240000</v>
-      </c>
       <c r="H12" s="3">
+        <v>487000</v>
+      </c>
+      <c r="I12" s="3">
         <v>276000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>261000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>295000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>311000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>290000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>317000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>346000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>531000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>469000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>432000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>684000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>663000</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1030,75 +1047,81 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>537000</v>
+        <v>5057000</v>
       </c>
       <c r="E14" s="3">
+        <v>533000</v>
+      </c>
+      <c r="F14" s="3">
         <v>764000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>561000</v>
       </c>
-      <c r="G14" s="3">
-        <v>803000</v>
-      </c>
       <c r="H14" s="3">
+        <v>832000</v>
+      </c>
+      <c r="I14" s="3">
         <v>1323000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>561000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>3804000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1165000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>855000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-417000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>13850000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>520000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>6842000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>205000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1508000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>720000</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E15" s="3">
         <v>30000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>35000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>34000</v>
-      </c>
-      <c r="G15" s="3">
-        <v>35000</v>
       </c>
       <c r="H15" s="3">
         <v>35000</v>
@@ -1107,28 +1130,28 @@
         <v>35000</v>
       </c>
       <c r="J15" s="3">
+        <v>35000</v>
+      </c>
+      <c r="K15" s="3">
         <v>24000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>51000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>41000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>46000</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
       <c r="O15" s="3">
         <v>0</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>11</v>
+      <c r="Q15" s="3">
+        <v>0</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>11</v>
@@ -1136,8 +1159,11 @@
       <c r="S15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1154,114 +1180,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8320000</v>
+      </c>
+      <c r="E17" s="3">
         <v>3697000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4166000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3843000</v>
       </c>
-      <c r="G17" s="3">
-        <v>4345000</v>
-      </c>
       <c r="H17" s="3">
+        <v>4174000</v>
+      </c>
+      <c r="I17" s="3">
         <v>4821000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4015000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7709000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4513000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4715000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3607000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>18415000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5239000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>11462000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4755000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6629000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4798000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4342000</v>
+      </c>
+      <c r="E18" s="3">
         <v>173000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>191000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>148000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-81000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-644000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>134000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3150000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>16000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-14000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1458000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-13017000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>378000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-5742000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>895000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-137000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>765000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1281,114 +1314,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>17000</v>
+        <v>124000</v>
       </c>
       <c r="E20" s="3">
         <v>17000</v>
       </c>
       <c r="F20" s="3">
+        <v>17000</v>
+      </c>
+      <c r="G20" s="3">
         <v>22000</v>
       </c>
-      <c r="G20" s="3">
-        <v>7000</v>
-      </c>
       <c r="H20" s="3">
+        <v>8000</v>
+      </c>
+      <c r="I20" s="3">
         <v>20000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>9000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-6000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>11000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-5000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>14000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>30000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-40000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>290000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-56000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-777000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-150000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3837000</v>
+      </c>
+      <c r="E21" s="3">
         <v>572000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>607000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>586000</v>
       </c>
-      <c r="G21" s="3">
-        <v>339000</v>
-      </c>
       <c r="H21" s="3">
+        <v>340000</v>
+      </c>
+      <c r="I21" s="3">
         <v>-174000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>586000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2774000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>501000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>460000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1979000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-12459000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>865000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-4875000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1319000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-582000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1192000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1399,155 +1439,164 @@
         <v>241000</v>
       </c>
       <c r="F22" s="3">
+        <v>241000</v>
+      </c>
+      <c r="G22" s="3">
         <v>209000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
+        <v>219000</v>
+      </c>
+      <c r="I22" s="3">
+        <v>226000</v>
+      </c>
+      <c r="J22" s="3">
+        <v>227000</v>
+      </c>
+      <c r="K22" s="3">
+        <v>231000</v>
+      </c>
+      <c r="L22" s="3">
+        <v>240000</v>
+      </c>
+      <c r="M22" s="3">
+        <v>231000</v>
+      </c>
+      <c r="N22" s="3">
         <v>218000</v>
       </c>
-      <c r="H22" s="3">
-        <v>226000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>227000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>231000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>240000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>231000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>218000</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>221000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>219000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>526000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>151000</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4459000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-51000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-33000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-39000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-292000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-850000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-84000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3387000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-213000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-250000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1254000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-13208000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>119000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5978000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>688000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-914000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>615000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-104000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-59000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-119000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>11000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-179000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>9000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-236000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-26000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-76000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>46000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-410000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-494000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-22000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>54000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>57000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>207000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1599,114 +1648,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4475000</v>
+      </c>
+      <c r="E26" s="3">
         <v>53000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>26000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>80000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-303000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-671000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-93000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3151000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-187000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-174000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1208000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-12798000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>613000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-5956000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>634000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-971000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>408000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4349000</v>
+      </c>
+      <c r="E27" s="3">
         <v>140000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>69000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>109000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-314000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-689000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-105000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2843000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-283000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-241000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1055000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-12661000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>530000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-6035000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>580000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1038000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1758,8 +1816,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1781,11 +1842,11 @@
       <c r="I29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="3">
         <v>-97000</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>11</v>
@@ -1793,11 +1854,11 @@
       <c r="M29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O29" s="3">
         <v>1061000</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>11</v>
@@ -1811,8 +1872,11 @@
       <c r="S29" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1864,8 +1928,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1917,114 +1984,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-17000</v>
+        <v>-124000</v>
       </c>
       <c r="E32" s="3">
         <v>-17000</v>
       </c>
       <c r="F32" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="G32" s="3">
         <v>-22000</v>
       </c>
-      <c r="G32" s="3">
-        <v>-7000</v>
-      </c>
       <c r="H32" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="I32" s="3">
         <v>-20000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-9000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>6000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-11000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>5000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-14000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-30000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>40000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-290000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>56000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>777000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>150000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4349000</v>
+      </c>
+      <c r="E33" s="3">
         <v>140000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>69000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>109000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-314000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-689000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-105000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2940000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-283000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-241000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1055000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-11600000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>530000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-6035000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>580000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1038000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2076,119 +2152,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4349000</v>
+      </c>
+      <c r="E35" s="3">
         <v>140000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>69000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>109000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-314000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-689000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-105000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2940000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-283000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-241000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1055000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-11600000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>530000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-6035000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>580000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1038000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2208,8 +2293,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2229,61 +2315,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1827000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2402000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1804000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1975000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1241000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2165000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1973000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1782000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1875000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1861000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1418000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>963000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>680000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>599000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>900000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>988000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1557000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2335,220 +2425,235 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4385000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4545000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5189000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5676000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5254000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5260000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5108000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5822000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5665000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6061000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6289000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7128000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7424000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7320000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7264000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7523000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>8071000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4516000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4361000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4290000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4422000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4636000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4850000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4782000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4731000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4866000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4971000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5113000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4924000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5060000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5132000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4999000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4954000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5349000</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1432000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1473000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1601000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1391000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1411000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1530000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1568000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1459000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1475000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1818000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1867000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2367000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3062000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1544000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1672000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3763000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2409000</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12160000</v>
+      </c>
+      <c r="E46" s="3">
         <v>12781000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>12884000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>13464000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>12542000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>13805000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>13431000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>13794000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>13881000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>14711000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>14687000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>15382000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>16226000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>14595000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>14835000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>17228000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>17386000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2600,114 +2705,123 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6709000</v>
+      </c>
+      <c r="E48" s="3">
         <v>6611000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6710000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6950000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7111000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7232000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7302000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6868000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7101000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7213000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7420000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7673000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>8001000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>8043000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>8160000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>8073000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>8379000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>29536000</v>
+      </c>
+      <c r="E49" s="3">
         <v>34556000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>34746000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>36078000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>36535000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>37348000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>38013000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>38922000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>42930000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>43860000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>45779000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>46054000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>60270000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>61699000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>66215000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>65896000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>69853000</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2759,8 +2873,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2812,61 +2929,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1332000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1043000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>990000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>978000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1058000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1039000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1108000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1099000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1149000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1246000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1295000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1506000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1585000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2018000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2066000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1860000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3129000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2918,61 +3041,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>49737000</v>
+      </c>
+      <c r="E54" s="3">
         <v>54991000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>55330000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>57470000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>57246000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>59424000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>59854000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>60683000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>65061000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>67030000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>69181000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>70615000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>86082000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>86355000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>91276000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>93057000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>98747000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2992,8 +3121,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3013,326 +3143,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1716000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1606000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1710000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1718000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1688000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1806000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1763000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1853000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1626000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1779000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1929000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2069000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2370000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2278000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2378000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2157000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4953000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1650000</v>
+        <v>2106000</v>
       </c>
       <c r="E58" s="3">
+        <v>1649000</v>
+      </c>
+      <c r="F58" s="3">
         <v>1630000</v>
       </c>
-      <c r="F58" s="3">
-        <v>1831000</v>
-      </c>
       <c r="G58" s="3">
-        <v>3030000</v>
+        <v>2345000</v>
       </c>
       <c r="H58" s="3">
-        <v>2770000</v>
+        <v>3130000</v>
       </c>
       <c r="I58" s="3">
-        <v>2788000</v>
+        <v>2771000</v>
       </c>
       <c r="J58" s="3">
+        <v>2790000</v>
+      </c>
+      <c r="K58" s="3">
         <v>1700000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2673000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1272000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1302000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3646000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2731000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1246000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1942000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3276000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3676000</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8495000</v>
+        <v>8281000</v>
       </c>
       <c r="E59" s="3">
+        <v>8496000</v>
+      </c>
+      <c r="F59" s="3">
         <v>8982000</v>
       </c>
-      <c r="F59" s="3">
-        <v>10125000</v>
-      </c>
       <c r="G59" s="3">
-        <v>9389000</v>
+        <v>9611000</v>
       </c>
       <c r="H59" s="3">
-        <v>9876000</v>
+        <v>9289000</v>
       </c>
       <c r="I59" s="3">
-        <v>9477000</v>
+        <v>9875000</v>
       </c>
       <c r="J59" s="3">
+        <v>9475000</v>
+      </c>
+      <c r="K59" s="3">
         <v>10769000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>10531000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>11164000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>11525000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>12206000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>11842000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>11933000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>11583000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>13055000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>10657000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12103000</v>
+      </c>
+      <c r="E60" s="3">
         <v>11751000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>12322000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>13674000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>14107000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>14452000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>14028000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>14322000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>14830000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>14215000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>14756000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>17921000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>16943000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>15457000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>15903000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>18488000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>19286000</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>23515000</v>
+      </c>
+      <c r="E61" s="3">
         <v>24616000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>24473000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>24562000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>23812000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>25955000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>25828000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>26691000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>26792000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>28949000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>29434000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>28827000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>31970500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>33806000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>32691000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>32522000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>33179000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3527000</v>
+      </c>
+      <c r="E62" s="3">
         <v>3800000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3947000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4171000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4402000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3766000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4177000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3876000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4305000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4498000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4889000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5122000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>6873500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>7484000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>6937000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>7054000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>9254000</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3384,8 +3533,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3437,8 +3589,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3490,61 +3645,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>40144000</v>
+      </c>
+      <c r="E66" s="3">
         <v>41139000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>41799000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>43498000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>43455000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>45301000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>45122000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>45976000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>47331000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>49092000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>50560000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>53256000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>57411000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>58361000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>57253000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>59720000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>63618000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3564,8 +3725,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3617,8 +3779,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3670,8 +3835,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3697,19 +3865,19 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>3825000</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>3760000</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>3696000</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>3631000</v>
-      </c>
-      <c r="O70" s="3">
-        <v>3620000</v>
       </c>
       <c r="P70" s="3">
         <v>3620000</v>
@@ -3723,8 +3891,11 @@
       <c r="S70" s="3">
         <v>3620000</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>3620000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3776,61 +3947,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-11096000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-6747000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-6887000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-6956000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-7066000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-6752000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-6063000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-5958000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3072000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2864000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2688000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3803000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>7873000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>7430000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>13809000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>13607000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>14991000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3882,8 +4059,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3935,8 +4115,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3988,61 +4171,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9593000</v>
+      </c>
+      <c r="E76" s="3">
         <v>13852000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>13531000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>13972000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>13791000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>14123000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>14732000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>14707000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13905000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>14178000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14925000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>13728000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>25051000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>24374000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>30403000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>29717000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>31509000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4094,119 +4283,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4349000</v>
+      </c>
+      <c r="E81" s="3">
         <v>140000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>69000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>109000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-314000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-689000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-105000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2940000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-283000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-241000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1055000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-11600000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>530000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-6035000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>580000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1038000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4226,61 +4424,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>381000</v>
+      </c>
+      <c r="E83" s="3">
         <v>382000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>399000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>416000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>413000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>450000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>443000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>382000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>474000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>479000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>507000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>528000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>527000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>577000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>480000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>332000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>577000</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4332,8 +4534,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4385,8 +4590,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4438,8 +4646,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4491,8 +4702,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4544,61 +4758,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>307000</v>
+      </c>
+      <c r="E89" s="3">
         <v>273000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>305000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>538000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>325000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-227000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>112000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>367000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>421000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>162000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1496000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1179000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1117000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>741000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>470000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1425000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1461000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4618,61 +4838,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-143000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-131000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-128000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-119000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-169000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-112000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-125000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-213000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-139000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-136000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-163000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-267000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-212000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-193000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-202000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-333000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-221000</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4724,8 +4948,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4777,61 +5004,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>157000</v>
+      </c>
+      <c r="E94" s="3">
         <v>313000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>252000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>430000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>224000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>429000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>272000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>74000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>347000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>406000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1039000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1912000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>744000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-392000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>1182000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-797000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-32301000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4851,8 +5084,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4884,28 +5118,31 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-12000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-87000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-123000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-345000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-346000</v>
       </c>
       <c r="R96" s="3">
         <v>-346000</v>
       </c>
       <c r="S96" s="3">
+        <v>-346000</v>
+      </c>
+      <c r="T96" s="3">
         <v>-340000</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4957,8 +5194,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5010,8 +5250,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5063,163 +5306,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1057000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-700000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-241000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1461000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-35000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-189000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-499000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-705000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-56000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2091000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2506000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-825000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-651000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1768000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-701000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>25372000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E101" s="3">
         <v>15000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-28000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>7000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-12000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>25000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-4000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-35000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-49000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-69000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>11000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>18000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>7000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>28000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-496000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>41000</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-575000</v>
+      </c>
+      <c r="E102" s="3">
         <v>598000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-171000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>734000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-924000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>192000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>191000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-93000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>14000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>443000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>455000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>283000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>81000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-301000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-88000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-569000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-5427000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TEVA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TEVA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>TEVA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,259 +665,271 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4453000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3978000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3870000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4357000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3991000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4093000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4177000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4149000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4559000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4529000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4701000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5065000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5398000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5617000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5720000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5650000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6492000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5563000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2372000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2128000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2091000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2279000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2033000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2229000</v>
-      </c>
-      <c r="I9" s="3">
-        <v>2258000</v>
       </c>
       <c r="J9" s="3">
         <v>2258000</v>
       </c>
       <c r="K9" s="3">
+        <v>2258000</v>
+      </c>
+      <c r="L9" s="3">
         <v>2693000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2552000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2668000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2750000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3127000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2967000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2865000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2811000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3102000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2762000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2081000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1850000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1779000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2078000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1958000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1864000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1919000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1891000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1866000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1977000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2033000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2315000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2271000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2650000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2855000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2839000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3390000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2801000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -938,64 +950,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>258000</v>
+        <v>296000</v>
       </c>
       <c r="E12" s="3">
-        <v>225000</v>
+        <v>238000</v>
       </c>
       <c r="F12" s="3">
+        <v>242000</v>
+      </c>
+      <c r="G12" s="3">
         <v>221000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>232000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>487000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>276000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>261000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>295000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>311000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>290000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>317000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>346000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>531000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>469000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>432000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>684000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>663000</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1050,64 +1066,70 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>5057000</v>
+        <v>374000</v>
       </c>
       <c r="E14" s="3">
-        <v>533000</v>
+        <v>5077000</v>
       </c>
       <c r="F14" s="3">
+        <v>516000</v>
+      </c>
+      <c r="G14" s="3">
         <v>764000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>561000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>832000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1323000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>561000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3804000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1165000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>855000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-417000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>13850000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>520000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>6842000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>205000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1508000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>720000</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1115,16 +1137,16 @@
         <v>31000</v>
       </c>
       <c r="E15" s="3">
+        <v>31000</v>
+      </c>
+      <c r="F15" s="3">
         <v>30000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>35000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>34000</v>
-      </c>
-      <c r="H15" s="3">
-        <v>35000</v>
       </c>
       <c r="I15" s="3">
         <v>35000</v>
@@ -1133,28 +1155,28 @@
         <v>35000</v>
       </c>
       <c r="K15" s="3">
+        <v>35000</v>
+      </c>
+      <c r="L15" s="3">
         <v>24000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>51000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>41000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>46000</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
       <c r="P15" s="3">
         <v>0</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>11</v>
+      <c r="R15" s="3">
+        <v>0</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>11</v>
@@ -1162,8 +1184,11 @@
       <c r="T15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1181,120 +1206,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4048000</v>
+      </c>
+      <c r="E17" s="3">
         <v>8320000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3697000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4166000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3843000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4174000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4821000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4015000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7709000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4513000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4715000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3607000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>18415000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5239000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>11462000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4755000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6629000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4798000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>405000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4342000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>173000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>191000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>148000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-81000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-644000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>134000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3150000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>16000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-14000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1458000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-13017000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>378000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-5742000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>895000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-137000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>765000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1315,120 +1347,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="E20" s="3">
         <v>124000</v>
-      </c>
-      <c r="E20" s="3">
-        <v>17000</v>
       </c>
       <c r="F20" s="3">
         <v>17000</v>
       </c>
       <c r="G20" s="3">
+        <v>17000</v>
+      </c>
+      <c r="H20" s="3">
         <v>22000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>8000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>20000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>9000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-6000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>11000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-5000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>14000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>30000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-40000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>290000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-56000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-777000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-150000</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>773000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3837000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>572000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>607000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>586000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>340000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-174000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>586000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2774000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>501000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>460000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1979000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-12459000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>865000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-4875000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1319000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-582000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1192000</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1442,161 +1481,170 @@
         <v>241000</v>
       </c>
       <c r="G22" s="3">
+        <v>241000</v>
+      </c>
+      <c r="H22" s="3">
         <v>209000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>219000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>226000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>227000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>231000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>240000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>231000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>218000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>221000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>219000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>526000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>151000</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>137000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4459000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-51000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-33000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-39000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-292000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-850000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-84000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3387000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-213000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-250000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1254000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-13208000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>119000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-5978000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>688000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-914000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>615000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E24" s="3">
         <v>16000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-104000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-59000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-119000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>11000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-179000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>9000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-236000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-26000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-76000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>46000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-410000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-494000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-22000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>54000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>57000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>207000</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1651,120 +1699,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>158000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4475000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>53000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>26000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>80000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-303000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-671000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-93000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3151000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-187000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-174000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1208000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-12798000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>613000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-5956000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>634000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-971000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>408000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>150000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4349000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>140000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>69000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>109000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-314000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-689000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-105000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2843000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-283000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-241000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1055000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-12661000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>530000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-6035000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>580000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1038000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1819,8 +1876,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1845,11 +1905,11 @@
       <c r="J29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" s="3">
         <v>-97000</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>11</v>
@@ -1857,11 +1917,11 @@
       <c r="N29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P29" s="3">
         <v>1061000</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>11</v>
@@ -1875,8 +1935,11 @@
       <c r="T29" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1931,8 +1994,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1987,120 +2053,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-124000</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-17000</v>
       </c>
       <c r="F32" s="3">
         <v>-17000</v>
       </c>
       <c r="G32" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="H32" s="3">
         <v>-22000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-8000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-20000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-9000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>6000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-11000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>5000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-14000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-30000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>40000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-290000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>56000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>777000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>150000</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>150000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4349000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>140000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>69000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>109000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-314000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-689000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-105000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2940000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-283000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-241000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1055000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-11600000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>530000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-6035000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>580000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1038000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2155,125 +2230,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>150000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4349000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>140000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>69000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>109000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-314000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-689000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-105000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2940000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-283000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-241000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1055000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-11600000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>530000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-6035000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>580000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1038000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2294,8 +2378,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2316,64 +2401,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2177000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1827000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2402000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1804000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1975000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1241000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2165000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1973000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1782000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1875000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1861000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1418000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>963000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>680000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>599000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>900000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>988000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1557000</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2428,232 +2517,247 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4581000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4385000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4545000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5189000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5676000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5254000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5260000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5108000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5822000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5665000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6061000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6289000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7128000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7424000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7320000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7264000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7523000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>8071000</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4403000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4516000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4361000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4290000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4422000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4636000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4850000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4782000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4731000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4866000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4971000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5113000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4924000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5060000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5132000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4999000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4954000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>5349000</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1844000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1432000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1473000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1601000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1391000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1411000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1530000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1568000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1459000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1475000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1818000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1867000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2367000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3062000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1544000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1672000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3763000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2409000</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>13005000</v>
+      </c>
+      <c r="E46" s="3">
         <v>12160000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>12781000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>12884000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>13464000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>12542000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>13805000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>13431000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>13794000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>13881000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>14711000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>14687000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>15382000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>16226000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>14595000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>14835000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>17228000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>17386000</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2708,120 +2812,129 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6855000</v>
+      </c>
+      <c r="E48" s="3">
         <v>6709000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6611000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6710000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6950000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7111000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7232000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7302000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6868000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7101000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7213000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7420000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7673000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>8001000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>8043000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>8160000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>8073000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>8379000</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>29547000</v>
+      </c>
+      <c r="E49" s="3">
         <v>29536000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>34556000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>34746000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>36078000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>36535000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>37348000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>38013000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>38922000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>42930000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>43860000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>45779000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>46054000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>60270000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>61699000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>66215000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>65896000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>69853000</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2876,8 +2989,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2932,64 +3048,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1233000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1332000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1043000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>990000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>978000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1058000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1039000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1108000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1099000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1149000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1246000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1295000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1506000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1585000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2018000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2066000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1860000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3129000</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3044,64 +3166,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>50640000</v>
+      </c>
+      <c r="E54" s="3">
         <v>49737000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>54991000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>55330000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>57470000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>57246000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>59424000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>59854000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>60683000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>65061000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>67030000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>69181000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>70615000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>86082000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>86355000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>91276000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>93057000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>98747000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3122,8 +3250,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3144,344 +3273,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1756000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1716000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1606000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1710000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1718000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1688000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1806000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1763000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1853000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1626000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1779000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1929000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2069000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2370000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2278000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2378000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2157000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4953000</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3188000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2106000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1649000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1630000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2345000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3130000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2771000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2790000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1700000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2673000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1272000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1302000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3646000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2731000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1246000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1942000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3276000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3676000</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8220000</v>
+      </c>
+      <c r="E59" s="3">
         <v>8281000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8496000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8982000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>9611000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>9289000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>9875000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>9475000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>10769000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>10531000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>11164000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>11525000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>12206000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>11842000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>11933000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>11583000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>13055000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>10657000</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>13164000</v>
+      </c>
+      <c r="E60" s="3">
         <v>12103000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>11751000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>12322000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>13674000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>14107000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>14452000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>14028000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>14322000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>14830000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>14215000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>14756000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>17921000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>16943000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>15457000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>15903000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>18488000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>19286000</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>22731000</v>
+      </c>
+      <c r="E61" s="3">
         <v>23515000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>24616000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>24473000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>24562000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>23812000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>25955000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>25828000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>26691000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>26792000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>28949000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>29434000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>28827000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>31970500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>33806000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>32691000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>32522000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>33179000</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3684000</v>
+      </c>
+      <c r="E62" s="3">
         <v>3527000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3800000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3947000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4171000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4402000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3766000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4177000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3876000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4305000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4498000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4889000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5122000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>6873500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>7484000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>6937000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>7054000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>9254000</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3536,8 +3684,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3592,8 +3743,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3648,64 +3802,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>40614000</v>
+      </c>
+      <c r="E66" s="3">
         <v>40144000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>41139000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>41799000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>43498000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>43455000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>45301000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>45122000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>45976000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>47331000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>49092000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>50560000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>53256000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>57411000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>58361000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>57253000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>59720000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>63618000</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3726,8 +3886,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3782,8 +3943,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3838,8 +4002,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3868,19 +4035,19 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>3825000</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>3760000</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>3696000</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>3631000</v>
-      </c>
-      <c r="P70" s="3">
-        <v>3620000</v>
       </c>
       <c r="Q70" s="3">
         <v>3620000</v>
@@ -3894,8 +4061,11 @@
       <c r="T70" s="3">
         <v>3620000</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>3620000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3950,64 +4120,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10946000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-11096000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-6747000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-6887000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-6956000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-7066000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-6752000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-6063000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-5958000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3072000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2864000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2688000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3803000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>7873000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>7430000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>13809000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>13607000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>14991000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4062,8 +4238,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4118,8 +4297,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4174,64 +4356,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10026000</v>
+      </c>
+      <c r="E76" s="3">
         <v>9593000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>13852000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>13531000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>13972000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>13791000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>14123000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>14732000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14707000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13905000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14178000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>14925000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>13728000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>25051000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>24374000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>30403000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>29717000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>31509000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4286,125 +4474,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>150000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4349000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>140000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>69000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>109000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-314000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-689000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-105000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2940000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-283000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-241000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1055000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-11600000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>530000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-6035000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>580000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1038000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4425,64 +4622,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>395000</v>
+      </c>
+      <c r="E83" s="3">
         <v>381000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>382000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>399000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>416000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>413000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>450000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>443000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>382000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>474000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>479000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>507000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>528000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>527000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>577000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>480000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>332000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>577000</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4537,8 +4738,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4593,8 +4797,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4649,8 +4856,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4705,8 +4915,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4761,64 +4974,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>331000</v>
+      </c>
+      <c r="E89" s="3">
         <v>307000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>273000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>305000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>538000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>325000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-227000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>112000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>367000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>421000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>162000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1496000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1179000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1117000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>741000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>470000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1425000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1461000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4839,64 +5058,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-176000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-143000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-131000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-128000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-119000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-169000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-112000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-125000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-213000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-139000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-136000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-163000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-267000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-212000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-193000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-202000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-333000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-221000</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4951,8 +5174,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5007,64 +5233,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>141000</v>
+      </c>
+      <c r="E94" s="3">
         <v>157000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>313000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>252000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>430000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>224000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>429000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>272000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>74000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>347000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>406000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1039000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>1912000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>744000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-392000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>1182000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-797000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-32301000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5085,8 +5317,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5121,28 +5354,31 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-12000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-87000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-123000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-345000</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-346000</v>
       </c>
       <c r="S96" s="3">
         <v>-346000</v>
       </c>
       <c r="T96" s="3">
+        <v>-346000</v>
+      </c>
+      <c r="U96" s="3">
         <v>-340000</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5197,8 +5433,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5253,8 +5492,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5309,172 +5551,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-125000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1057000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-700000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-241000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1461000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-35000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-189000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-499000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-705000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-56000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2091000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2506000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-825000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-651000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1768000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-701000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>25372000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E101" s="3">
         <v>18000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>15000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-28000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>7000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-12000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>25000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-4000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-35000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-49000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-69000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>11000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>18000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>7000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>28000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-496000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>41000</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>350000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-575000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>598000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-171000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>734000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-924000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>192000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>191000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-93000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>14000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>443000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>455000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>283000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>81000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-301000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-88000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-569000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-5427000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TEVA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TEVA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>TEVA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,271 +665,283 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3982000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4453000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3978000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3870000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4357000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3991000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4093000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4177000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4149000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4559000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4529000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4701000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5065000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5398000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5617000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5720000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5650000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6492000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5563000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2063000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2372000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2128000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2091000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2279000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2033000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2229000</v>
-      </c>
-      <c r="J9" s="3">
-        <v>2258000</v>
       </c>
       <c r="K9" s="3">
         <v>2258000</v>
       </c>
       <c r="L9" s="3">
+        <v>2258000</v>
+      </c>
+      <c r="M9" s="3">
         <v>2693000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2552000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2668000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2750000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3127000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2967000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2865000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2811000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3102000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2762000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1919000</v>
+      </c>
+      <c r="E10" s="3">
         <v>2081000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1850000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1779000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2078000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1958000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1864000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1919000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1891000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1866000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1977000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2033000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2315000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2271000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2650000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2855000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2839000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3390000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2801000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -951,67 +963,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>254000</v>
+      </c>
+      <c r="E12" s="3">
         <v>296000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>238000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>242000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>221000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>232000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>487000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>276000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>261000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>295000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>311000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>290000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>317000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>346000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>531000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>469000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>432000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>684000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>663000</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1069,87 +1085,93 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>360000</v>
+      </c>
+      <c r="E14" s="3">
         <v>374000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>5077000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>516000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>764000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>561000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>832000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1323000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>561000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3804000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1165000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>855000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-417000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>13850000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>520000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>6842000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>205000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1508000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>720000</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>31000</v>
+        <v>27000</v>
       </c>
       <c r="E15" s="3">
         <v>31000</v>
       </c>
       <c r="F15" s="3">
+        <v>31000</v>
+      </c>
+      <c r="G15" s="3">
         <v>30000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>35000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>34000</v>
-      </c>
-      <c r="I15" s="3">
-        <v>35000</v>
       </c>
       <c r="J15" s="3">
         <v>35000</v>
@@ -1158,28 +1180,28 @@
         <v>35000</v>
       </c>
       <c r="L15" s="3">
+        <v>35000</v>
+      </c>
+      <c r="M15" s="3">
         <v>24000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>51000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>41000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>46000</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
       <c r="Q15" s="3">
         <v>0</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>11</v>
+      <c r="S15" s="3">
+        <v>0</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>11</v>
@@ -1187,8 +1209,11 @@
       <c r="U15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1207,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3548000</v>
+      </c>
+      <c r="E17" s="3">
         <v>4048000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8320000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3697000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4166000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3843000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4174000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4821000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4015000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7709000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4513000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4715000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3607000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>18415000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5239000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>11462000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4755000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6629000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4798000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>434000</v>
+      </c>
+      <c r="E18" s="3">
         <v>405000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-4342000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>173000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>191000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>148000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-81000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-644000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>134000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3150000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>16000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-14000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1458000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-13017000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>378000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-5742000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>895000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-137000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>765000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1348,131 +1380,138 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-27000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>124000</v>
-      </c>
-      <c r="F20" s="3">
-        <v>17000</v>
       </c>
       <c r="G20" s="3">
         <v>17000</v>
       </c>
       <c r="H20" s="3">
+        <v>17000</v>
+      </c>
+      <c r="I20" s="3">
         <v>22000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>8000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>20000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>9000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-6000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>11000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-5000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>14000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>30000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-40000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>290000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-56000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-777000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-150000</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>759000</v>
+      </c>
+      <c r="E21" s="3">
         <v>773000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3837000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>572000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>607000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>586000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>340000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-174000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>586000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2774000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>501000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>460000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1979000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-12459000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>865000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-4875000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1319000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-582000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1192000</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>241000</v>
+        <v>239000</v>
       </c>
       <c r="E22" s="3">
         <v>241000</v>
@@ -1484,167 +1523,176 @@
         <v>241000</v>
       </c>
       <c r="H22" s="3">
+        <v>241000</v>
+      </c>
+      <c r="I22" s="3">
         <v>209000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>219000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>226000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>227000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>231000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>240000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>231000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>218000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>221000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>219000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>526000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>151000</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>144000</v>
+      </c>
+      <c r="E23" s="3">
         <v>137000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4459000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-51000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-33000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-39000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-292000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-850000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-84000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3387000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-213000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-250000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1254000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-13208000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>119000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-5978000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>688000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-914000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>615000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>62000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-21000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>16000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-104000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-59000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-119000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>11000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-179000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>9000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-236000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-26000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-76000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>46000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-410000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-494000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-22000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>54000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>57000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>207000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1702,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>82000</v>
+      </c>
+      <c r="E26" s="3">
         <v>158000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4475000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>53000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>26000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>80000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-303000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-671000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-93000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3151000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-187000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-174000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1208000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-12798000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>613000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-5956000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>634000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-971000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>408000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>77000</v>
+      </c>
+      <c r="E27" s="3">
         <v>150000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4349000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>140000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>69000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>109000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-314000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-689000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-105000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2843000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-283000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-241000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1055000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-12661000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>530000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-6035000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>580000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1038000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1879,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1908,11 +1968,11 @@
       <c r="K29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M29" s="3">
         <v>-97000</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>11</v>
@@ -1920,11 +1980,11 @@
       <c r="O29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q29" s="3">
         <v>1061000</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>11</v>
@@ -1938,8 +1998,11 @@
       <c r="U29" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1997,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2056,126 +2122,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>51000</v>
+      </c>
+      <c r="E32" s="3">
         <v>27000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-124000</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-17000</v>
       </c>
       <c r="G32" s="3">
         <v>-17000</v>
       </c>
       <c r="H32" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="I32" s="3">
         <v>-22000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-8000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-20000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-9000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>6000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-11000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>5000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-14000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-30000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>40000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-290000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>56000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>777000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>150000</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>77000</v>
+      </c>
+      <c r="E33" s="3">
         <v>150000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4349000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>140000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>69000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>109000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-314000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-689000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-105000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2940000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-283000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-241000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1055000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-11600000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>530000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-6035000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>580000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1038000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2233,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>77000</v>
+      </c>
+      <c r="E35" s="3">
         <v>150000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4349000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>140000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>69000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>109000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-314000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-689000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-105000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2940000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-283000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-241000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1055000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-11600000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>530000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-6035000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>580000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1038000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2379,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2402,67 +2487,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1743000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2177000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1827000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2402000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1804000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1975000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1241000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2165000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1973000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1782000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1875000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1861000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1418000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>963000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>680000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>599000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>900000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>988000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1557000</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2520,244 +2609,259 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4572000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4581000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4385000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4545000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5189000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5676000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5254000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5260000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5108000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5822000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5665000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6061000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6289000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7128000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7424000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7320000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7264000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>7523000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>8071000</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4406000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4403000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4516000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4361000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4290000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4422000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4636000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4850000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4782000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4731000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4866000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4971000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5113000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4924000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5060000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5132000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4999000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4954000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>5349000</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1680000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1844000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1432000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1473000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1601000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1391000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1411000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1530000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1568000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1459000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1475000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1818000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1867000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2367000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3062000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1544000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1672000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3763000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2409000</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12401000</v>
+      </c>
+      <c r="E46" s="3">
         <v>13005000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>12160000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>12781000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>12884000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>13464000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>12542000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>13805000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>13431000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>13794000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>13881000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>14711000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>14687000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>15382000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>16226000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>14595000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>14835000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>17228000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>17386000</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2815,126 +2919,135 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6641000</v>
+      </c>
+      <c r="E48" s="3">
         <v>6855000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6709000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6611000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6710000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6950000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7111000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7232000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7302000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6868000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7101000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7213000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7420000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7673000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>8001000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>8043000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>8160000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>8073000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>8379000</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>28747000</v>
+      </c>
+      <c r="E49" s="3">
         <v>29547000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>29536000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>34556000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>34746000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>36078000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>36535000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>37348000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>38013000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>38922000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>42930000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>43860000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>45779000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>46054000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>60270000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>61699000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>66215000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>65896000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>69853000</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2992,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3051,67 +3167,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1215000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1233000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1332000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1043000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>990000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>978000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1058000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1039000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1108000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1099000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1149000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1246000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1295000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1506000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1585000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2018000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2066000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1860000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3129000</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3169,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>49004000</v>
+      </c>
+      <c r="E54" s="3">
         <v>50640000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>49737000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>54991000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>55330000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>57470000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>57246000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>59424000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>59854000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>60683000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>65061000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>67030000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>69181000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>70615000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>86082000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>86355000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>91276000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>93057000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>98747000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3251,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3274,362 +3403,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1692000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1756000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1716000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1606000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1710000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1718000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1688000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1806000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1763000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1853000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1626000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1779000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1929000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2069000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2370000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2278000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2378000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2157000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4953000</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2697000</v>
+      </c>
+      <c r="E58" s="3">
         <v>3188000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2106000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1649000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1630000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2345000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3130000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2771000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2790000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1700000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2673000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1272000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1302000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3646000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2731000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1246000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1942000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3276000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3676000</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7700000</v>
+      </c>
+      <c r="E59" s="3">
         <v>8220000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8281000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8496000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8982000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>9611000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>9289000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>9875000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9475000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>10769000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>10531000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>11164000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>11525000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>12206000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>11842000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>11933000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>11583000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>13055000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>10657000</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12089000</v>
+      </c>
+      <c r="E60" s="3">
         <v>13164000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>12103000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>11751000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>12322000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>13674000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>14107000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>14452000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>14028000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>14322000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>14830000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>14215000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>14756000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>17921000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>16943000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>15457000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>15903000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>18488000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>19286000</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>22288000</v>
+      </c>
+      <c r="E61" s="3">
         <v>22731000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>23515000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>24616000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>24473000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>24562000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>23812000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>25955000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>25828000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>26691000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>26792000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>28949000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>29434000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>28827000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>31970500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>33806000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>32691000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>32522000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>33179000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3652000</v>
+      </c>
+      <c r="E62" s="3">
         <v>3684000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3527000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3800000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3947000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4171000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4402000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3766000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4177000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3876000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4305000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4498000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4889000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>5122000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>6873500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>7484000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>6937000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>7054000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>9254000</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3687,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3746,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3805,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>39004000</v>
+      </c>
+      <c r="E66" s="3">
         <v>40614000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>40144000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>41139000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>41799000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>43498000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>43455000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>45301000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>45122000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>45976000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>47331000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>49092000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>50560000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>53256000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>57411000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>58361000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>57253000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>59720000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>63618000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3887,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3946,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4005,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4038,19 +4205,19 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>3825000</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>3760000</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>3696000</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>3631000</v>
-      </c>
-      <c r="Q70" s="3">
-        <v>3620000</v>
       </c>
       <c r="R70" s="3">
         <v>3620000</v>
@@ -4064,8 +4231,11 @@
       <c r="U70" s="3">
         <v>3620000</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>3620000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4123,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10869000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-10946000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-11096000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-6747000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-6887000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-6956000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-7066000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-6752000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-6063000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-5958000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3072000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2864000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2688000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3803000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>7873000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>7430000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>13809000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>13607000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>14991000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4241,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4300,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4359,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10000000</v>
+      </c>
+      <c r="E76" s="3">
         <v>10026000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>9593000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>13852000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>13531000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>13972000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>13791000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>14123000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14732000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>14707000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>13905000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>14178000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>14925000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>13728000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>25051000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>24374000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>30403000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>29717000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>31509000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4477,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>77000</v>
+      </c>
+      <c r="E81" s="3">
         <v>150000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4349000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>140000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>69000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>109000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-314000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-689000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-105000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2940000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-283000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-241000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1055000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-11600000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>530000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-6035000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>580000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1038000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4623,67 +4820,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>376000</v>
+      </c>
+      <c r="E83" s="3">
         <v>395000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>381000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>382000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>399000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>416000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>413000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>450000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>443000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>382000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>474000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>479000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>507000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>528000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>527000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>577000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>480000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>332000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>577000</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4741,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4800,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4859,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4918,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4977,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-405000</v>
+      </c>
+      <c r="E89" s="3">
         <v>331000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>307000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>273000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>305000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>538000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>325000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-227000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>112000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>367000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>421000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>162000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1496000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1179000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1117000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>741000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>470000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1425000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1461000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5059,67 +5278,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-150000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-176000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-143000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-131000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-128000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-119000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-169000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-112000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-125000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-213000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-139000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-136000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-163000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-267000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-212000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-193000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-202000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-333000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-221000</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5177,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5236,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>508000</v>
+      </c>
+      <c r="E94" s="3">
         <v>141000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>157000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>313000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>252000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>430000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>224000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>429000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>272000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>74000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>347000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>406000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>1039000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>1912000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>744000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-392000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>1182000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-797000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-32301000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5318,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5357,28 +5590,31 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-12000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-87000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-123000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-345000</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-346000</v>
       </c>
       <c r="T96" s="3">
         <v>-346000</v>
       </c>
       <c r="U96" s="3">
+        <v>-346000</v>
+      </c>
+      <c r="V96" s="3">
         <v>-340000</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5436,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5495,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5554,181 +5796,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-493000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-125000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1057000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-700000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-241000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1461000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-35000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-189000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-499000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-705000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-56000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2091000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2506000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-825000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-651000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1768000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-701000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>25372000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-44000</v>
+      </c>
+      <c r="E101" s="3">
         <v>3000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>18000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>15000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-28000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>7000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-12000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>25000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-4000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-35000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-49000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-69000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>11000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>18000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>7000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>28000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-496000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>41000</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-434000</v>
+      </c>
+      <c r="E102" s="3">
         <v>350000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-575000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>598000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-171000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>734000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-924000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>192000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>191000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-93000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>14000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>443000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>455000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>283000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>81000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-301000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-88000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-569000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-5427000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TEVA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TEVA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>TEVA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,295 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3910000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3982000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4453000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3978000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3870000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4357000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3991000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4093000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4177000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4149000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4559000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4529000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4701000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5065000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5398000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5617000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5720000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5650000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6492000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5563000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1987000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2063000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2372000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2128000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2091000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2279000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2033000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2229000</v>
-      </c>
-      <c r="K9" s="3">
-        <v>2258000</v>
       </c>
       <c r="L9" s="3">
         <v>2258000</v>
       </c>
       <c r="M9" s="3">
+        <v>2258000</v>
+      </c>
+      <c r="N9" s="3">
         <v>2693000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2552000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2668000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2750000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3127000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2967000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2865000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2811000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3102000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2762000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1923000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1919000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2081000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1850000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1779000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2078000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1958000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1864000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1919000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1891000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1866000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1977000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2033000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2315000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2271000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2650000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2855000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2839000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3390000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2801000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,70 +976,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>243000</v>
+      </c>
+      <c r="E12" s="3">
         <v>254000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>296000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>238000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>242000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>221000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>232000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>487000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>276000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>261000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>295000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>311000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>290000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>317000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>346000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>531000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>469000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>432000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>684000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>663000</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1088,93 +1104,99 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>247000</v>
+      </c>
+      <c r="E14" s="3">
         <v>360000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>374000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>5077000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>516000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>764000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>561000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>832000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1323000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>561000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3804000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1165000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>855000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-417000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>13850000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>520000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>6842000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>205000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1508000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>720000</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E15" s="3">
         <v>27000</v>
-      </c>
-      <c r="E15" s="3">
-        <v>31000</v>
       </c>
       <c r="F15" s="3">
         <v>31000</v>
       </c>
       <c r="G15" s="3">
+        <v>31000</v>
+      </c>
+      <c r="H15" s="3">
         <v>30000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>35000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>34000</v>
-      </c>
-      <c r="J15" s="3">
-        <v>35000</v>
       </c>
       <c r="K15" s="3">
         <v>35000</v>
@@ -1183,28 +1205,28 @@
         <v>35000</v>
       </c>
       <c r="M15" s="3">
+        <v>35000</v>
+      </c>
+      <c r="N15" s="3">
         <v>24000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>51000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>41000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>46000</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
       <c r="R15" s="3">
         <v>0</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>11</v>
+      <c r="T15" s="3">
+        <v>0</v>
       </c>
       <c r="U15" s="3" t="s">
         <v>11</v>
@@ -1212,8 +1234,11 @@
       <c r="V15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3328000</v>
+      </c>
+      <c r="E17" s="3">
         <v>3548000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4048000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8320000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3697000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4166000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3843000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4174000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4821000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4015000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7709000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4513000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4715000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3607000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>18415000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5239000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>11462000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4755000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>6629000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4798000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>582000</v>
+      </c>
+      <c r="E18" s="3">
         <v>434000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>405000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4342000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>173000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>191000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>148000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-81000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-644000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>134000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3150000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>16000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-14000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1458000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-13017000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>378000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-5742000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>895000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-137000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>765000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,140 +1413,147 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-34000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-51000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-27000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>124000</v>
-      </c>
-      <c r="G20" s="3">
-        <v>17000</v>
       </c>
       <c r="H20" s="3">
         <v>17000</v>
       </c>
       <c r="I20" s="3">
+        <v>17000</v>
+      </c>
+      <c r="J20" s="3">
         <v>22000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>8000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>20000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>9000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-6000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>11000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-5000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>14000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>30000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-40000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>290000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-56000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-777000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-150000</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>853000</v>
+      </c>
+      <c r="E21" s="3">
         <v>759000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>773000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3837000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>572000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>607000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>586000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>340000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-174000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>586000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2774000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>501000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>460000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1979000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-12459000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>865000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-4875000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1319000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-582000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1192000</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>240000</v>
+      </c>
+      <c r="E22" s="3">
         <v>239000</v>
-      </c>
-      <c r="E22" s="3">
-        <v>241000</v>
       </c>
       <c r="F22" s="3">
         <v>241000</v>
@@ -1526,173 +1565,182 @@
         <v>241000</v>
       </c>
       <c r="I22" s="3">
+        <v>241000</v>
+      </c>
+      <c r="J22" s="3">
         <v>209000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>219000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>226000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>227000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>231000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>240000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>231000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>218000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>221000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>219000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>526000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>151000</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>308000</v>
+      </c>
+      <c r="E23" s="3">
         <v>144000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>137000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4459000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-51000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-33000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-39000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-292000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-850000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-84000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3387000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-213000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-250000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1254000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-13208000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>119000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-5978000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>688000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-914000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>615000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>98000</v>
+      </c>
+      <c r="E24" s="3">
         <v>62000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-21000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>16000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-104000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-59000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-119000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>11000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-179000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>9000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-236000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-26000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-76000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>46000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-410000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-494000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-22000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>54000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>57000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>207000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>210000</v>
+      </c>
+      <c r="E26" s="3">
         <v>82000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>158000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4475000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>53000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>26000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>80000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-303000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-671000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-93000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3151000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-187000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-174000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1208000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-12798000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>613000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-5956000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>634000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-971000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>408000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>207000</v>
+      </c>
+      <c r="E27" s="3">
         <v>77000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>150000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4349000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>140000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>69000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>109000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-314000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-689000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-105000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2843000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-283000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-241000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1055000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-12661000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>530000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-6035000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>580000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1038000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1971,11 +2031,11 @@
       <c r="L29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N29" s="3">
         <v>-97000</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>11</v>
@@ -1983,11 +2043,11 @@
       <c r="P29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R29" s="3">
         <v>1061000</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>11</v>
@@ -2001,8 +2061,11 @@
       <c r="V29" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E32" s="3">
         <v>51000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>27000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-124000</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-17000</v>
       </c>
       <c r="H32" s="3">
         <v>-17000</v>
       </c>
       <c r="I32" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="J32" s="3">
         <v>-22000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-8000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-20000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-9000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>6000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-11000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>5000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-30000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>40000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-290000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>56000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>777000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>150000</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>207000</v>
+      </c>
+      <c r="E33" s="3">
         <v>77000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>150000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4349000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>140000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>69000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>109000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-314000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-689000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-105000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2940000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-283000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-241000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1055000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-11600000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>530000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-6035000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>580000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1038000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>207000</v>
+      </c>
+      <c r="E35" s="3">
         <v>77000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>150000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4349000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>140000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>69000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>109000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-314000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-689000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-105000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2940000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-283000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-241000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1055000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-11600000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>530000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-6035000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>580000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1038000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2436000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1743000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2177000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1827000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2402000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1804000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1975000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1241000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2165000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1973000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1782000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1875000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1861000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1418000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>963000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>680000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>599000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>900000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>988000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1557000</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,256 +2701,271 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4488000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4572000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4581000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4385000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4545000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5189000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5676000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5254000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5260000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5108000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5822000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5665000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6061000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>6289000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7128000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7424000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7320000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>7264000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>7523000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>8071000</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4362000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4406000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4403000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4516000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4361000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4290000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4422000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4636000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4850000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4782000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4731000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4866000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4971000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5113000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4924000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5060000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5132000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4999000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4954000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>5349000</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1536000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1680000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1844000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1432000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1473000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1601000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1391000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1411000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1530000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1568000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1459000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1475000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1818000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1867000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2367000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3062000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1544000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1672000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3763000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2409000</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12822000</v>
+      </c>
+      <c r="E46" s="3">
         <v>12401000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>13005000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>12160000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>12781000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>12884000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>13464000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>12542000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>13805000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>13431000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>13794000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>13881000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>14711000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>14687000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>15382000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>16226000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>14595000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>14835000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>17228000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>17386000</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2922,132 +3026,141 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6658000</v>
+      </c>
+      <c r="E48" s="3">
         <v>6641000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6855000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6709000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6611000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6710000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6950000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7111000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7232000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7302000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6868000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7101000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7213000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7420000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7673000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>8001000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>8043000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>8160000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>8073000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>8379000</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>28541000</v>
+      </c>
+      <c r="E49" s="3">
         <v>28747000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>29547000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>29536000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>34556000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>34746000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>36078000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>36535000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>37348000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>38013000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>38922000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>42930000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>43860000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>45779000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>46054000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>60270000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>61699000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>66215000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>65896000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>69853000</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1174000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1215000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1233000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1332000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1043000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>990000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>978000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1058000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1039000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1108000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1099000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1149000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1246000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1295000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1506000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1585000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2018000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2066000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1860000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3129000</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>49195000</v>
+      </c>
+      <c r="E54" s="3">
         <v>49004000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>50640000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>49737000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>54991000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>55330000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>57470000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>57246000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>59424000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>59854000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>60683000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>65061000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>67030000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>69181000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>70615000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>86082000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>86355000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>91276000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>93057000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>98747000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,380 +3533,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1551000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1692000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1756000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1716000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1606000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1710000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1718000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1688000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1806000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1763000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1853000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1626000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1779000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1929000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2069000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2370000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2278000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2378000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2157000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4953000</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3530000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2697000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3188000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2106000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1649000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1630000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2345000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3130000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2771000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2790000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1700000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2673000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1272000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1302000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3646000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2731000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1246000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1942000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3276000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3676000</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7610000</v>
+      </c>
+      <c r="E59" s="3">
         <v>7700000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8220000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8281000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8496000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8982000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>9611000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>9289000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9875000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9475000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>10769000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>10531000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>11164000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>11525000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>12206000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>11842000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>11933000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>11583000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>13055000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>10657000</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12691000</v>
+      </c>
+      <c r="E60" s="3">
         <v>12089000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>13164000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>12103000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>11751000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>12322000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>13674000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>14107000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>14452000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>14028000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>14322000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>14830000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>14215000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>14756000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>17921000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>16943000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>15457000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>15903000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>18488000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>19286000</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>21602000</v>
+      </c>
+      <c r="E61" s="3">
         <v>22288000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>22731000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>23515000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>24616000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>24473000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>24562000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>23812000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>25955000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>25828000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>26691000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>26792000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>28949000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>29434000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>28827000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>31970500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>33806000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>32691000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>32522000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>33179000</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3591000</v>
+      </c>
+      <c r="E62" s="3">
         <v>3652000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3684000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3527000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3800000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3947000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4171000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4402000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3766000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4177000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3876000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4305000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4498000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4889000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>5122000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>6873500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>7484000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>6937000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>7054000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>9254000</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>38871000</v>
+      </c>
+      <c r="E66" s="3">
         <v>39004000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>40614000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>40144000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>41139000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>41799000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>43498000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>43455000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>45301000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>45122000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>45976000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>47331000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>49092000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>50560000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>53256000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>57411000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>58361000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>57253000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>59720000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>63618000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4208,19 +4375,19 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
         <v>3825000</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>3760000</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>3696000</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>3631000</v>
-      </c>
-      <c r="R70" s="3">
-        <v>3620000</v>
       </c>
       <c r="S70" s="3">
         <v>3620000</v>
@@ -4234,8 +4401,11 @@
       <c r="V70" s="3">
         <v>3620000</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>3620000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10662000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-10869000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-10946000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-11096000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-6747000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-6887000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-6956000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-7066000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-6752000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-6063000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-5958000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3072000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2864000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2688000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3803000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>7873000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>7430000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>13809000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>13607000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>14991000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10324000</v>
+      </c>
+      <c r="E76" s="3">
         <v>10000000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>10026000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9593000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>13852000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>13531000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>13972000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>13791000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14123000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>14732000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14707000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>13905000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>14178000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14925000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>13728000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>25051000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>24374000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>30403000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>29717000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>31509000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>207000</v>
+      </c>
+      <c r="E81" s="3">
         <v>77000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>150000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4349000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>140000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>69000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>109000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-314000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-689000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-105000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2940000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-283000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-241000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1055000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-11600000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>530000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-6035000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>580000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1038000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>305000</v>
+      </c>
+      <c r="E83" s="3">
         <v>376000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>395000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>381000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>382000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>399000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>416000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>413000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>450000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>443000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>382000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>474000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>479000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>507000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>528000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>527000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>577000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>480000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>332000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>577000</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>218000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-405000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>331000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>307000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>273000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>305000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>538000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>325000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-227000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>112000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>367000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>421000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>162000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1496000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1179000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1117000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>741000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>470000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1425000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1461000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-113000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-150000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-176000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-143000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-131000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-128000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-119000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-169000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-112000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-125000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-213000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-139000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-136000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-163000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-267000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-212000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-193000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-202000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-333000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-221000</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>481000</v>
+      </c>
+      <c r="E94" s="3">
         <v>508000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>141000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>157000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>313000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>252000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>430000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>224000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>429000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>272000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>74000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>347000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>406000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>1039000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>1912000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>744000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-392000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>1182000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-797000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-32301000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5593,28 +5826,31 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-87000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-123000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-345000</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-346000</v>
       </c>
       <c r="U96" s="3">
         <v>-346000</v>
       </c>
       <c r="V96" s="3">
+        <v>-346000</v>
+      </c>
+      <c r="W96" s="3">
         <v>-340000</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-493000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-125000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1057000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-700000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-241000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1461000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-35000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-189000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-499000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-705000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-56000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2091000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2506000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-825000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-651000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1768000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-701000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>25372000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-44000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>3000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>18000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>15000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-28000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>7000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-12000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>25000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-4000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-35000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-49000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-69000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>11000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>18000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>7000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>28000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-496000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>41000</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>693000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-434000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>350000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-575000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>598000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-171000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>734000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-924000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>192000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>191000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-93000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>14000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>443000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>455000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>283000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>81000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-301000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-88000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-569000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-5427000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TEVA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TEVA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>TEVA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,307 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3887000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3910000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3982000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4453000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3978000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3870000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4357000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3991000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4093000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4177000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4149000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4559000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4529000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4701000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5065000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5398000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5617000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5720000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5650000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6492000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5563000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1989000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1987000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2063000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2372000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2128000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2091000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2279000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2033000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2229000</v>
-      </c>
-      <c r="L9" s="3">
-        <v>2258000</v>
       </c>
       <c r="M9" s="3">
         <v>2258000</v>
       </c>
       <c r="N9" s="3">
+        <v>2258000</v>
+      </c>
+      <c r="O9" s="3">
         <v>2693000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2552000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2668000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2750000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3127000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2967000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2865000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2811000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3102000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2762000</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1898000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1923000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1919000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2081000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1850000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1779000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2078000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1958000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1864000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1919000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1891000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1866000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1977000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2033000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2315000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2271000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2650000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2855000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2839000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>3390000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2801000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,73 +989,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>222000</v>
+      </c>
+      <c r="E12" s="3">
         <v>243000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>254000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>296000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>238000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>242000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>221000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>232000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>487000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>276000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>261000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>295000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>311000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>290000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>317000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>346000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>531000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>469000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>432000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>684000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>663000</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,99 +1123,105 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>183000</v>
+      </c>
+      <c r="E14" s="3">
         <v>247000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>360000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>374000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>5077000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>516000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>764000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>561000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>832000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1323000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>561000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>3804000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1165000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>855000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-417000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>13850000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>520000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>6842000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>205000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>1508000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>720000</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E15" s="3">
         <v>25000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>27000</v>
-      </c>
-      <c r="F15" s="3">
-        <v>31000</v>
       </c>
       <c r="G15" s="3">
         <v>31000</v>
       </c>
       <c r="H15" s="3">
+        <v>31000</v>
+      </c>
+      <c r="I15" s="3">
         <v>30000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>35000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>34000</v>
-      </c>
-      <c r="K15" s="3">
-        <v>35000</v>
       </c>
       <c r="L15" s="3">
         <v>35000</v>
@@ -1208,28 +1230,28 @@
         <v>35000</v>
       </c>
       <c r="N15" s="3">
+        <v>35000</v>
+      </c>
+      <c r="O15" s="3">
         <v>24000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>51000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>41000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>46000</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
-      </c>
       <c r="S15" s="3">
         <v>0</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>11</v>
+      <c r="U15" s="3">
+        <v>0</v>
       </c>
       <c r="V15" s="3" t="s">
         <v>11</v>
@@ -1237,8 +1259,11 @@
       <c r="W15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1284,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3264000</v>
+      </c>
+      <c r="E17" s="3">
         <v>3328000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3548000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4048000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8320000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3697000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4166000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3843000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4174000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4821000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4015000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7709000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4513000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4715000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3607000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>18415000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5239000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>11462000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4755000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>6629000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4798000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>623000</v>
+      </c>
+      <c r="E18" s="3">
         <v>582000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>434000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>405000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4342000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>173000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>191000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>148000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-81000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-644000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>134000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3150000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>16000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1458000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-13017000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>378000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-5742000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>895000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-137000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>765000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,149 +1446,156 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-34000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-51000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-27000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>124000</v>
-      </c>
-      <c r="H20" s="3">
-        <v>17000</v>
       </c>
       <c r="I20" s="3">
         <v>17000</v>
       </c>
       <c r="J20" s="3">
+        <v>17000</v>
+      </c>
+      <c r="K20" s="3">
         <v>22000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>8000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>20000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>9000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-6000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>11000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>14000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>30000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-40000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>290000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-56000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-777000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-150000</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>943000</v>
+      </c>
+      <c r="E21" s="3">
         <v>853000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>759000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>773000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3837000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>572000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>607000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>586000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>340000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-174000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>586000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2774000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>501000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>460000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1979000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-12459000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>865000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-4875000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1319000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-582000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1192000</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>232000</v>
+      </c>
+      <c r="E22" s="3">
         <v>240000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>239000</v>
-      </c>
-      <c r="F22" s="3">
-        <v>241000</v>
       </c>
       <c r="G22" s="3">
         <v>241000</v>
@@ -1568,179 +1607,188 @@
         <v>241000</v>
       </c>
       <c r="J22" s="3">
+        <v>241000</v>
+      </c>
+      <c r="K22" s="3">
         <v>209000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>219000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>226000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>227000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>231000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>240000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>231000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>218000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>221000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>219000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>526000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>151000</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>382000</v>
+      </c>
+      <c r="E23" s="3">
         <v>308000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>144000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>137000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4459000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-51000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-33000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-39000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-292000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-850000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-84000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3387000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-213000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-250000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1254000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-13208000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>119000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-5978000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>688000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-914000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>615000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>76000</v>
+      </c>
+      <c r="E24" s="3">
         <v>98000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>62000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-21000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>16000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-104000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-59000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-119000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>11000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-179000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>9000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-236000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-26000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-76000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>46000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-410000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-494000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-22000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>54000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>57000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>207000</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1852,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>306000</v>
+      </c>
+      <c r="E26" s="3">
         <v>210000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>82000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>158000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4475000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>53000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>26000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>80000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-303000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-671000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-93000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3151000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-187000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-174000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1208000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-12798000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>613000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-5956000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>634000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-971000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>408000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>292000</v>
+      </c>
+      <c r="E27" s="3">
         <v>207000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>77000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>150000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4349000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>140000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>69000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>109000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-314000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-689000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-105000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2843000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-283000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-241000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1055000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-12661000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>530000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-6035000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>580000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1038000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2056,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2034,11 +2094,11 @@
       <c r="M29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O29" s="3">
         <v>-97000</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>11</v>
@@ -2046,11 +2106,11 @@
       <c r="Q29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S29" s="3">
         <v>1061000</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>11</v>
@@ -2064,8 +2124,11 @@
       <c r="W29" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2192,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2260,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E32" s="3">
         <v>34000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>51000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>27000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-124000</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-17000</v>
       </c>
       <c r="I32" s="3">
         <v>-17000</v>
       </c>
       <c r="J32" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-22000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-8000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-20000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-9000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>6000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-11000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>5000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-14000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-30000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>40000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-290000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>56000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>777000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>150000</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>292000</v>
+      </c>
+      <c r="E33" s="3">
         <v>207000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>77000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>150000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4349000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>140000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>69000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>109000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-314000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-689000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-105000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2940000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-283000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-241000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1055000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-11600000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>530000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-6035000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>580000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1038000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2464,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>292000</v>
+      </c>
+      <c r="E35" s="3">
         <v>207000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>77000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>150000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4349000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>140000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>69000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>109000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-314000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-689000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-105000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2940000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-283000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-241000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1055000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-11600000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>530000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-6035000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>580000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1038000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2633,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2659,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2045000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2436000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1743000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2177000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1827000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2402000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1804000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1975000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1241000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2165000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1973000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1782000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1875000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1861000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1418000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>963000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>680000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>599000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>900000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>988000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1557000</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,268 +2793,283 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4046000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4488000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4572000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4581000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4385000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4545000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5189000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5676000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5254000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5260000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5108000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5822000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5665000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>6061000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>6289000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7128000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7424000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>7320000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>7264000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>7523000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>8071000</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4167000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4362000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4406000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4403000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4516000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4361000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4290000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4422000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4636000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4850000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4782000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4731000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4866000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4971000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5113000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4924000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5060000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>5132000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4999000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>4954000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>5349000</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1896000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1536000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1680000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1844000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1432000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1473000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1601000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1391000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1411000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1530000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1568000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1459000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1475000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1818000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1867000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2367000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3062000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1544000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1672000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3763000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2409000</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12154000</v>
+      </c>
+      <c r="E46" s="3">
         <v>12822000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>12401000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>13005000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>12160000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>12781000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>12884000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>13464000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>12542000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>13805000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>13431000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>13794000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>13881000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>14711000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>14687000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>15382000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>16226000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>14595000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>14835000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>17228000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>17386000</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,138 +3133,147 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6547000</v>
+      </c>
+      <c r="E48" s="3">
         <v>6658000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6641000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6855000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6709000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6611000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6710000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6950000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7111000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7232000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7302000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6868000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7101000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7213000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7420000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>7673000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>8001000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>8043000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>8160000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>8073000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>8379000</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>28011000</v>
+      </c>
+      <c r="E49" s="3">
         <v>28541000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>28747000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>29547000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>29536000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>34556000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>34746000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>36078000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>36535000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>37348000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>38013000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>38922000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>42930000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>43860000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>45779000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>46054000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>60270000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>61699000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>66215000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>65896000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>69853000</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3337,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3405,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1139000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1174000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1215000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1233000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1332000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1043000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>990000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>978000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1058000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1039000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1108000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1099000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1149000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1246000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1295000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1506000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1585000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2018000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2066000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1860000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>3129000</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3541,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>47851000</v>
+      </c>
+      <c r="E54" s="3">
         <v>49195000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>49004000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>50640000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>49737000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>54991000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>55330000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>57470000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>57246000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>59424000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>59854000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>60683000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>65061000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>67030000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>69181000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>70615000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>86082000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>86355000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>91276000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>93057000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>98747000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3637,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,398 +3663,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1514000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1551000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1692000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1756000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1716000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1606000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1710000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1718000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1688000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1806000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1763000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1853000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1626000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1779000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1929000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2069000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2370000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2278000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2378000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2157000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>4953000</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2709000</v>
+      </c>
+      <c r="E58" s="3">
         <v>3530000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2697000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3188000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2106000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1649000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1630000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2345000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3130000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2771000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2790000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1700000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2673000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1272000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1302000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3646000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2731000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1246000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1942000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3276000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3676000</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7602000</v>
+      </c>
+      <c r="E59" s="3">
         <v>7610000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7700000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8220000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8281000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8496000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>8982000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>9611000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9289000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9875000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>9475000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>10769000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>10531000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>11164000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>11525000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>12206000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>11842000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>11933000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>11583000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>13055000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>10657000</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11825000</v>
+      </c>
+      <c r="E60" s="3">
         <v>12691000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>12089000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>13164000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>12103000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>11751000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>12322000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>13674000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>14107000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>14452000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>14028000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>14322000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>14830000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>14215000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>14756000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>17921000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>16943000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>15457000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>15903000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>18488000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>19286000</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>21037000</v>
+      </c>
+      <c r="E61" s="3">
         <v>21602000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>22288000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>22731000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>23515000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>24616000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>24473000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>24562000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>23812000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>25955000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>25828000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>26691000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>26792000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>28949000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>29434000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>28827000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>31970500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>33806000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>32691000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>32522000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>33179000</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3538000</v>
+      </c>
+      <c r="E62" s="3">
         <v>3591000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3652000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3684000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3527000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3800000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3947000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4171000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4402000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3766000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4177000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3876000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4305000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4498000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4889000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>5122000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>6873500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>7484000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>6937000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>7054000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>9254000</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4137,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4205,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4273,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>37384000</v>
+      </c>
+      <c r="E66" s="3">
         <v>38871000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>39004000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>40614000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>40144000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>41139000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>41799000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>43498000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>43455000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>45301000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>45122000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>45976000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>47331000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>49092000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>50560000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>53256000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>57411000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>58361000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>57253000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>59720000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>63618000</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4369,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4435,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4503,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4378,19 +4545,19 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
         <v>3825000</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>3760000</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>3696000</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>3631000</v>
-      </c>
-      <c r="S70" s="3">
-        <v>3620000</v>
       </c>
       <c r="T70" s="3">
         <v>3620000</v>
@@ -4404,8 +4571,11 @@
       <c r="W70" s="3">
         <v>3620000</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>3620000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4639,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10370000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-10662000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-10869000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-10946000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-11096000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-6747000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-6887000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-6956000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-7066000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-6752000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-6063000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-5958000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3072000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2864000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2688000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3803000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>7873000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>7430000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>13809000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>13607000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>14991000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4775,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4843,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4911,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10467000</v>
+      </c>
+      <c r="E76" s="3">
         <v>10324000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>10000000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>10026000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>9593000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>13852000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>13531000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>13972000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13791000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>14123000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14732000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>14707000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>13905000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14178000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14925000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>13728000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>25051000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>24374000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>30403000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>29717000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>31509000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5047,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>292000</v>
+      </c>
+      <c r="E81" s="3">
         <v>207000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>77000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>150000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4349000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>140000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>69000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>109000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-314000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-689000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-105000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2940000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-283000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-241000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1055000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-11600000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>530000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-6035000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>580000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1038000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5216,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>329000</v>
+      </c>
+      <c r="E83" s="3">
         <v>305000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>376000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>395000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>381000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>382000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>399000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>416000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>413000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>450000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>443000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>382000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>474000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>479000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>507000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>528000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>527000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>577000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>480000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>332000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>577000</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5350,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5418,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5486,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5554,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5622,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>529000</v>
+      </c>
+      <c r="E89" s="3">
         <v>218000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-405000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>331000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>307000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>273000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>305000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>538000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>325000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-227000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>112000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>367000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>421000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>162000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1496000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1179000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1117000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>741000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>470000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1425000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1461000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5718,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-146000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-113000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-150000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-176000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-143000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-131000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-128000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-119000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-169000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-112000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-125000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-213000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-139000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-136000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-163000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-267000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-212000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-193000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-202000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-333000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-221000</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5852,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5920,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>288000</v>
+      </c>
+      <c r="E94" s="3">
         <v>481000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>508000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>141000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>157000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>313000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>252000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>430000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>224000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>429000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>272000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>74000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>347000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>406000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>1039000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>1912000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>744000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-392000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>1182000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-797000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-32301000</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6016,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5829,28 +6062,31 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-12000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-87000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-123000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-345000</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-346000</v>
       </c>
       <c r="V96" s="3">
         <v>-346000</v>
       </c>
       <c r="W96" s="3">
+        <v>-346000</v>
+      </c>
+      <c r="X96" s="3">
         <v>-340000</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6150,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6218,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6286,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1177000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-493000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-125000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1057000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-700000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-241000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1461000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-35000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-189000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-499000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-705000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-56000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2091000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2506000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-825000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-651000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1768000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-701000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>25372000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-5000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-44000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>3000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>18000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>15000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-28000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>7000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-12000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>25000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-4000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-35000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-49000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-69000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>11000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>18000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>7000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>28000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-496000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>41000</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-391000</v>
+      </c>
+      <c r="E102" s="3">
         <v>693000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-434000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>350000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-575000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>598000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-171000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>734000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-924000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>192000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>191000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-93000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>14000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>443000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>455000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>283000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>81000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-301000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-88000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-569000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-5427000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TEVA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TEVA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>TEVA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,307 +665,319 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4100000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3887000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3910000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3982000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4453000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3978000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3870000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4357000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3991000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4093000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4177000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4149000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4559000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4529000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4701000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5065000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5398000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5617000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5720000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5650000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>6492000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>5563000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1975000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1989000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1987000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2063000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2372000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2128000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2091000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2279000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2033000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2229000</v>
-      </c>
-      <c r="M9" s="3">
-        <v>2258000</v>
       </c>
       <c r="N9" s="3">
         <v>2258000</v>
       </c>
       <c r="O9" s="3">
+        <v>2258000</v>
+      </c>
+      <c r="P9" s="3">
         <v>2693000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2552000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2668000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2750000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3127000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2967000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2865000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2811000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3102000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2762000</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2125000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1898000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1923000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1919000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2081000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1850000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1779000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2078000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1958000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1864000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1919000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1891000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1866000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1977000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2033000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2315000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2271000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2650000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2855000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2839000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>3390000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2801000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,76 +1002,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>249000</v>
+      </c>
+      <c r="E12" s="3">
         <v>222000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>243000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>254000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>296000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>238000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>242000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>221000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>232000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>487000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>276000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>261000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>295000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>311000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>290000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>317000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>346000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>531000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>469000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>432000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>684000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>663000</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,105 +1142,111 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>893000</v>
+      </c>
+      <c r="E14" s="3">
         <v>183000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>247000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>360000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>374000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>5077000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>516000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>764000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>561000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>832000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1323000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>561000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>3804000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1165000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>855000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-417000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>13850000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>520000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>6842000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>205000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>1508000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>720000</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E15" s="3">
         <v>24000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>25000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>27000</v>
-      </c>
-      <c r="G15" s="3">
-        <v>31000</v>
       </c>
       <c r="H15" s="3">
         <v>31000</v>
       </c>
       <c r="I15" s="3">
+        <v>31000</v>
+      </c>
+      <c r="J15" s="3">
         <v>30000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>35000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>34000</v>
-      </c>
-      <c r="L15" s="3">
-        <v>35000</v>
       </c>
       <c r="M15" s="3">
         <v>35000</v>
@@ -1233,28 +1255,28 @@
         <v>35000</v>
       </c>
       <c r="O15" s="3">
+        <v>35000</v>
+      </c>
+      <c r="P15" s="3">
         <v>24000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>51000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>41000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>46000</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
       <c r="T15" s="3">
         <v>0</v>
       </c>
       <c r="U15" s="3">
         <v>0</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>11</v>
+      <c r="V15" s="3">
+        <v>0</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>11</v>
@@ -1262,8 +1284,11 @@
       <c r="X15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1285,144 +1310,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4022000</v>
+      </c>
+      <c r="E17" s="3">
         <v>3264000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3328000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3548000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4048000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8320000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3697000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4166000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3843000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4174000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4821000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4015000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7709000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4513000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4715000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3607000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>18415000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5239000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>11462000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4755000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>6629000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4798000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>78000</v>
+      </c>
+      <c r="E18" s="3">
         <v>623000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>582000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>434000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>405000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4342000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>173000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>191000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>148000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-81000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-644000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>134000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3150000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>16000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-14000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1458000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-13017000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>378000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-5742000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>895000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-137000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>765000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1447,158 +1479,165 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-9000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-34000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-51000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-27000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>124000</v>
-      </c>
-      <c r="I20" s="3">
-        <v>17000</v>
       </c>
       <c r="J20" s="3">
         <v>17000</v>
       </c>
       <c r="K20" s="3">
+        <v>17000</v>
+      </c>
+      <c r="L20" s="3">
         <v>22000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>8000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>20000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>9000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-6000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>11000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-5000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>14000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>30000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-40000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>290000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-56000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-777000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-150000</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>325000</v>
+      </c>
+      <c r="E21" s="3">
         <v>943000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>853000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>759000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>773000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3837000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>572000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>607000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>586000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>340000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-174000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>586000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2774000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>501000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>460000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1979000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-12459000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>865000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-4875000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1319000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-582000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1192000</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>180000</v>
+      </c>
+      <c r="E22" s="3">
         <v>232000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>240000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>239000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>241000</v>
       </c>
       <c r="H22" s="3">
         <v>241000</v>
@@ -1610,185 +1649,194 @@
         <v>241000</v>
       </c>
       <c r="K22" s="3">
+        <v>241000</v>
+      </c>
+      <c r="L22" s="3">
         <v>209000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>219000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>226000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>227000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>231000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>240000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>231000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>218000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>221000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>219000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>526000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>151000</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-175000</v>
+      </c>
+      <c r="E23" s="3">
         <v>382000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>308000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>144000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>137000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4459000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-51000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-33000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-39000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-292000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-850000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-84000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3387000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-213000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-250000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1254000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-13208000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>119000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-5978000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>688000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-914000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>615000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="E24" s="3">
         <v>76000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>98000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>62000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-21000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>16000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-104000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-59000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-119000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>11000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-179000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>9000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-236000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-26000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-76000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>46000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-410000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-494000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-22000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>54000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>57000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>207000</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1855,144 +1903,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-151000</v>
+      </c>
+      <c r="E26" s="3">
         <v>306000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>210000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>82000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>158000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4475000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>53000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>26000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>80000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-303000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-671000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-93000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3151000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-187000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-174000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1208000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-12798000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>613000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-5956000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>634000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-971000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>408000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-159000</v>
+      </c>
+      <c r="E27" s="3">
         <v>292000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>207000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>77000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>150000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4349000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>140000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>69000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>109000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-314000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-689000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-105000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2843000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-283000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-241000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1055000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-12661000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>530000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-6035000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>580000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1038000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2059,8 +2116,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2097,11 +2157,11 @@
       <c r="N29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P29" s="3">
         <v>-97000</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>11</v>
@@ -2109,11 +2169,11 @@
       <c r="R29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="T29" s="3">
         <v>1061000</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>11</v>
@@ -2127,8 +2187,11 @@
       <c r="X29" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2195,8 +2258,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2263,144 +2329,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E32" s="3">
         <v>9000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>34000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>51000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>27000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-124000</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-17000</v>
       </c>
       <c r="J32" s="3">
         <v>-17000</v>
       </c>
       <c r="K32" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="L32" s="3">
         <v>-22000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-8000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-20000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-9000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>6000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>5000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-14000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-30000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>40000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-290000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>56000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>777000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>150000</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-159000</v>
+      </c>
+      <c r="E33" s="3">
         <v>292000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>207000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>77000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>150000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4349000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>140000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>69000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>109000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-314000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-689000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-105000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2940000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-283000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-241000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1055000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-11600000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>530000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-6035000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>580000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1038000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2467,149 +2542,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-159000</v>
+      </c>
+      <c r="E35" s="3">
         <v>292000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>207000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>77000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>150000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4349000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>140000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>69000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>109000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-314000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-689000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-105000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2940000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-283000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-241000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1055000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-11600000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>530000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-6035000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>580000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1038000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2634,8 +2718,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2660,76 +2745,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2165000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2045000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2436000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1743000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2177000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1827000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2402000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1804000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1975000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1241000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2165000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1973000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1782000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1875000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1861000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1418000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>963000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>680000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>599000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>900000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>988000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1557000</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2796,280 +2885,295 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4529000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4046000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4488000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4572000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4581000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4385000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4545000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5189000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5676000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5254000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5260000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5108000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5822000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5665000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>6061000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>6289000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7128000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>7424000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>7320000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>7264000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>7523000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>8071000</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3818000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4167000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4362000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4406000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4403000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4516000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4361000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4290000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4422000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4636000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4850000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4782000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4731000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4866000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4971000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5113000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4924000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>5060000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>5132000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>4999000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>4954000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>5349000</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2061000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1896000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1536000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1680000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1844000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1432000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1473000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1601000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1391000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1411000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1530000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1568000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1459000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1475000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1818000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1867000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2367000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3062000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1544000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1672000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3763000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2409000</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12573000</v>
+      </c>
+      <c r="E46" s="3">
         <v>12154000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>12822000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>12401000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>13005000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>12160000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>12781000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>12884000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>13464000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>12542000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>13805000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>13431000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>13794000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>13881000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>14711000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>14687000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>15382000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>16226000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>14595000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>14835000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>17228000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>17386000</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3136,144 +3240,153 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6477000</v>
+      </c>
+      <c r="E48" s="3">
         <v>6547000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6658000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6641000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6855000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6709000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6611000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6710000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6950000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7111000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7232000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7302000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6868000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7101000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7213000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>7420000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>7673000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>8001000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>8043000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>8160000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>8073000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>8379000</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>27506000</v>
+      </c>
+      <c r="E49" s="3">
         <v>28011000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>28541000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>28747000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>29547000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>29536000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>34556000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>34746000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>36078000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>36535000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>37348000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>38013000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>38922000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>42930000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>43860000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>45779000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>46054000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>60270000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>61699000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>66215000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>65896000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>69853000</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3340,8 +3453,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3408,76 +3524,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1110000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1139000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1174000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1215000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1233000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1332000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1043000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>990000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>978000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1058000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1039000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1108000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1099000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1149000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1246000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1295000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1506000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1585000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2018000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2066000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1860000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>3129000</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3544,76 +3666,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>47666000</v>
+      </c>
+      <c r="E54" s="3">
         <v>47851000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>49195000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>49004000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>50640000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>49737000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>54991000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>55330000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>57470000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>57246000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>59424000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>59854000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>60683000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>65061000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>67030000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>69181000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>70615000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>86082000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>86355000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>91276000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>93057000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>98747000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3638,8 +3766,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3664,416 +3793,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1686000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1514000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1551000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1692000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1756000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1716000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1606000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1710000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1718000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1688000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1806000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1763000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1853000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1626000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1779000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1929000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2069000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2370000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2278000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2378000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2157000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>4953000</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1426000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2709000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3530000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2697000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3188000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2106000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1649000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1630000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2345000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3130000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2771000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2790000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1700000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2673000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1272000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1302000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3646000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2731000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1246000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1942000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3276000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3676000</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7915000</v>
+      </c>
+      <c r="E59" s="3">
         <v>7602000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7610000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7700000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8220000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8281000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>8496000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>8982000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9611000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9289000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>9875000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>9475000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>10769000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>10531000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>11164000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>11525000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>12206000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>11842000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>11933000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>11583000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>13055000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>10657000</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11027000</v>
+      </c>
+      <c r="E60" s="3">
         <v>11825000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>12691000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>12089000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>13164000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>12103000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>11751000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>12322000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13674000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>14107000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>14452000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>14028000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>14322000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>14830000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>14215000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>14756000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>17921000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>16943000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>15457000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>15903000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>18488000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>19286000</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>21617000</v>
+      </c>
+      <c r="E61" s="3">
         <v>21037000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>21602000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>22288000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>22731000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>23515000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>24616000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>24473000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>24562000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>23812000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>25955000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>25828000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>26691000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>26792000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>28949000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>29434000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>28827000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>31970500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>33806000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>32691000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>32522000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>33179000</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3778000</v>
+      </c>
+      <c r="E62" s="3">
         <v>3538000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3591000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3652000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3684000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3527000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3800000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3947000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4171000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4402000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3766000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4177000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3876000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4305000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4498000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4889000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>5122000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>6873500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>7484000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>6937000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>7054000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>9254000</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4140,8 +4288,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4208,8 +4359,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4276,76 +4430,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>37388000</v>
+      </c>
+      <c r="E66" s="3">
         <v>37384000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>38871000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>39004000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>40614000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>40144000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>41139000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>41799000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>43498000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>43455000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>45301000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>45122000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>45976000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>47331000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>49092000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>50560000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>53256000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>57411000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>58361000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>57253000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>59720000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>63618000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4370,8 +4530,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4438,8 +4599,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4506,8 +4670,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4548,19 +4715,19 @@
         <v>0</v>
       </c>
       <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
         <v>3825000</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>3760000</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>3696000</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>3631000</v>
-      </c>
-      <c r="T70" s="3">
-        <v>3620000</v>
       </c>
       <c r="U70" s="3">
         <v>3620000</v>
@@ -4574,8 +4741,11 @@
       <c r="X70" s="3">
         <v>3620000</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>3620000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4642,76 +4812,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10529000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-10370000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-10662000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-10869000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-10946000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-11096000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-6747000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-6887000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-6956000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-7066000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-6752000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-6063000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-5958000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3072000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2864000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2688000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-3803000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>7873000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>7430000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>13809000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>13607000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>14991000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4778,8 +4954,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4846,8 +5025,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4914,76 +5096,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10278000</v>
+      </c>
+      <c r="E76" s="3">
         <v>10467000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>10324000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>10000000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>10026000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>9593000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>13852000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>13531000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13972000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13791000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14123000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>14732000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>14707000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>13905000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14178000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>14925000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>13728000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>25051000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>24374000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>30403000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>29717000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>31509000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5050,149 +5238,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-159000</v>
+      </c>
+      <c r="E81" s="3">
         <v>292000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>207000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>77000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>150000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4349000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>140000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>69000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>109000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-314000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-689000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-105000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2940000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-283000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-241000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1055000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-11600000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>530000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-6035000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>580000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1038000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5217,76 +5414,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>320000</v>
+      </c>
+      <c r="E83" s="3">
         <v>329000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>305000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>376000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>395000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>381000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>382000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>399000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>416000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>413000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>450000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>443000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>382000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>474000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>479000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>507000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>528000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>527000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>577000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>480000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>332000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>577000</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5353,8 +5554,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5421,8 +5625,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5489,8 +5696,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5557,8 +5767,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5625,76 +5838,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>456000</v>
+      </c>
+      <c r="E89" s="3">
         <v>529000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>218000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-405000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>331000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>307000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>273000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>305000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>538000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>325000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-227000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>112000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>367000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>421000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>162000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1496000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1179000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1117000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>741000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>470000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1425000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1461000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5719,76 +5938,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-153000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-146000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-113000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-150000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-176000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-143000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-131000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-128000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-119000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-169000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-112000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-125000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-213000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-139000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-136000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-163000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-267000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-212000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-193000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-202000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-333000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-221000</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5855,8 +6078,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5923,76 +6149,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>246000</v>
+      </c>
+      <c r="E94" s="3">
         <v>288000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>481000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>508000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>141000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>157000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>313000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>252000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>430000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>224000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>429000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>272000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>74000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>347000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>406000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>1039000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>1912000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>744000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-392000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>1182000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-797000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-32301000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6017,8 +6249,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6065,28 +6298,31 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-12000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-87000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-123000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-345000</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-346000</v>
       </c>
       <c r="W96" s="3">
         <v>-346000</v>
       </c>
       <c r="X96" s="3">
+        <v>-346000</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-340000</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6153,8 +6389,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6221,8 +6460,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6289,208 +6531,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-501000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1177000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-493000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-125000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1057000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-700000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-241000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1461000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-35000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-189000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-499000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-705000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-56000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2091000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2506000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-825000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-651000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1768000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-701000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>25372000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-48000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-31000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-5000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-44000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>3000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>18000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>15000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-28000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>7000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-12000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>25000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-4000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-35000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-49000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-69000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>11000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>18000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>7000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>28000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-496000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>41000</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>153000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-391000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>693000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-434000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>350000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-575000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>598000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-171000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>734000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-924000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>192000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>191000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-93000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>14000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>443000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>455000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>283000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>81000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-301000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-88000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-569000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-5427000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TEVA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TEVA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>TEVA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,319 +665,331 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3661000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4100000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3887000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3910000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3982000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4453000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3978000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3870000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4357000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3991000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4093000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4177000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4149000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4559000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4529000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4701000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5065000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5398000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5617000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5720000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5650000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>6492000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>5563000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1859000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1975000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1989000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1987000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2063000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2372000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2128000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2091000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2279000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2033000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2229000</v>
-      </c>
-      <c r="N9" s="3">
-        <v>2258000</v>
       </c>
       <c r="O9" s="3">
         <v>2258000</v>
       </c>
       <c r="P9" s="3">
+        <v>2258000</v>
+      </c>
+      <c r="Q9" s="3">
         <v>2693000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2552000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2668000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2750000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3127000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2967000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2865000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2811000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3102000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2762000</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1802000</v>
+      </c>
+      <c r="E10" s="3">
         <v>2125000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1898000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1923000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1919000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2081000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1850000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1779000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2078000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1958000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1864000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1919000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1891000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1866000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1977000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2033000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2315000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2271000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2650000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2855000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2839000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>3390000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2801000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,79 +1015,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>225000</v>
+      </c>
+      <c r="E12" s="3">
         <v>249000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>222000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>243000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>254000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>296000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>238000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>242000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>221000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>232000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>487000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>276000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>261000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>295000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>311000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>290000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>317000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>346000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>531000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>469000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>432000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>684000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>663000</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1145,111 +1161,117 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>1502000</v>
+      </c>
+      <c r="E14" s="3">
         <v>893000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>183000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>247000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>360000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>374000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>5077000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>516000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>764000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>561000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>832000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1323000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>561000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>3804000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1165000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>855000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-417000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>13850000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>520000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>6842000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>205000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>1508000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>720000</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E15" s="3">
         <v>23000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>24000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>25000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>27000</v>
-      </c>
-      <c r="H15" s="3">
-        <v>31000</v>
       </c>
       <c r="I15" s="3">
         <v>31000</v>
       </c>
       <c r="J15" s="3">
+        <v>31000</v>
+      </c>
+      <c r="K15" s="3">
         <v>30000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>35000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>34000</v>
-      </c>
-      <c r="M15" s="3">
-        <v>35000</v>
       </c>
       <c r="N15" s="3">
         <v>35000</v>
@@ -1258,28 +1280,28 @@
         <v>35000</v>
       </c>
       <c r="P15" s="3">
+        <v>35000</v>
+      </c>
+      <c r="Q15" s="3">
         <v>24000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>51000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>41000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>46000</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
       <c r="U15" s="3">
         <v>0</v>
       </c>
       <c r="V15" s="3">
         <v>0</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>11</v>
+      <c r="W15" s="3">
+        <v>0</v>
       </c>
       <c r="X15" s="3" t="s">
         <v>11</v>
@@ -1287,8 +1309,11 @@
       <c r="Y15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1311,150 +1336,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4374000</v>
+      </c>
+      <c r="E17" s="3">
         <v>4022000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3264000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3328000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3548000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4048000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8320000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3697000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4166000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3843000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4174000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4821000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4015000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7709000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4513000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4715000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3607000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>18415000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5239000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>11462000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4755000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>6629000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>4798000</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-713000</v>
+      </c>
+      <c r="E18" s="3">
         <v>78000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>623000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>582000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>434000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>405000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4342000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>173000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>191000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>148000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-81000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-644000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>134000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3150000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>16000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-14000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1458000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-13017000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>378000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-5742000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>895000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-137000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>765000</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1480,167 +1512,174 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-73000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-9000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-34000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-51000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-27000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>124000</v>
-      </c>
-      <c r="J20" s="3">
-        <v>17000</v>
       </c>
       <c r="K20" s="3">
         <v>17000</v>
       </c>
       <c r="L20" s="3">
+        <v>17000</v>
+      </c>
+      <c r="M20" s="3">
         <v>22000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>8000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>20000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>9000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>11000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-5000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>14000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>30000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-40000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>290000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-56000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-777000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-150000</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-410000</v>
+      </c>
+      <c r="E21" s="3">
         <v>325000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>943000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>853000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>759000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>773000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3837000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>572000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>607000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>586000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>340000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-174000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>586000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2774000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>501000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>460000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1979000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-12459000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>865000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-4875000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1319000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-582000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1192000</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>238000</v>
+      </c>
+      <c r="E22" s="3">
         <v>180000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>232000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>240000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>239000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>241000</v>
       </c>
       <c r="I22" s="3">
         <v>241000</v>
@@ -1652,191 +1691,200 @@
         <v>241000</v>
       </c>
       <c r="L22" s="3">
+        <v>241000</v>
+      </c>
+      <c r="M22" s="3">
         <v>209000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>219000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>226000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>227000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>231000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>240000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>231000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>218000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>221000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>219000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>526000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>151000</v>
-      </c>
-      <c r="X22" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="Y22" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-971000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-175000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>382000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>308000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>144000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>137000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4459000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-51000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-33000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-39000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-292000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-850000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-84000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3387000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-213000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-250000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1254000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-13208000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>119000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-5978000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>688000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-914000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>615000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-24000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>76000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>98000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>62000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-21000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>16000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-104000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-59000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-119000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>11000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-179000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>9000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-236000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-26000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-76000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>46000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-410000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-494000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-22000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>54000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>57000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>207000</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1906,150 +1954,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-973000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-151000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>306000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>210000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>82000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>158000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4475000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>53000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>26000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>80000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-303000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-671000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-93000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3151000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-187000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-174000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1208000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-12798000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>613000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-5956000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>634000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-971000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>408000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-955000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-159000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>292000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>207000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>77000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>150000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4349000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>140000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>69000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>109000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-314000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-689000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-105000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2843000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-283000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-241000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1055000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-12661000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>530000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-6035000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>580000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1038000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2119,31 +2176,34 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>11</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>11</v>
@@ -2160,11 +2220,11 @@
       <c r="O29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-97000</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>11</v>
@@ -2172,11 +2232,11 @@
       <c r="S29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U29" s="3">
         <v>1061000</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>11</v>
@@ -2190,8 +2250,11 @@
       <c r="Y29" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2261,8 +2324,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2332,150 +2398,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E32" s="3">
         <v>73000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>9000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>34000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>51000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>27000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-124000</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-17000</v>
       </c>
       <c r="K32" s="3">
         <v>-17000</v>
       </c>
       <c r="L32" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="M32" s="3">
         <v>-22000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-8000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-20000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-9000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>6000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-11000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>5000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-14000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-30000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>40000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-290000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>56000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>777000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>150000</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-955000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-159000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>292000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>207000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>77000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>150000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4349000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>140000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>69000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>109000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-314000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-689000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-105000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2940000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-283000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-241000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1055000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-11600000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>530000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-6035000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>580000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1038000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2545,155 +2620,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-955000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-159000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>292000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>207000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>77000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>150000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4349000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>140000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>69000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>109000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-314000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-689000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-105000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2940000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-283000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-241000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1055000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-11600000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>530000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-6035000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>580000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1038000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2719,8 +2803,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2746,79 +2831,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2175000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2165000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2045000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2436000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1743000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2177000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1827000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2402000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1804000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1975000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1241000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2165000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1973000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1782000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1875000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1861000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1418000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>963000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>680000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>599000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>900000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>988000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1557000</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2888,292 +2977,307 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4253000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4529000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4046000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4488000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4572000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4581000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4385000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4545000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5189000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5676000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5254000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5260000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5108000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5822000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5665000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>6061000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>6289000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>7128000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>7424000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>7320000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>7264000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>7523000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>8071000</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4012000</v>
+      </c>
+      <c r="E44" s="3">
         <v>3818000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4167000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4362000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4406000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4403000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4516000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4361000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4290000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4422000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4636000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4850000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4782000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4731000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4866000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4971000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5113000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4924000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>5060000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>5132000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>4999000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>4954000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>5349000</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2011000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2061000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1896000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1536000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1680000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1844000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1432000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1473000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1601000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1391000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1411000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1530000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1568000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1459000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1475000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1818000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1867000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2367000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3062000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1544000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1672000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>3763000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>2409000</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12451000</v>
+      </c>
+      <c r="E46" s="3">
         <v>12573000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>12154000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>12822000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>12401000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>13005000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>12160000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>12781000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>12884000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>13464000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>12542000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>13805000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>13431000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>13794000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>13881000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>14711000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>14687000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>15382000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>16226000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>14595000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>14835000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>17228000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>17386000</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3243,150 +3347,159 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6396000</v>
+      </c>
+      <c r="E48" s="3">
         <v>6477000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6547000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6658000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6641000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6855000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6709000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6611000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6710000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6950000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7111000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7232000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7302000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6868000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7101000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>7213000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>7420000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>7673000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>8001000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>8043000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>8160000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>8073000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>8379000</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>27102000</v>
+      </c>
+      <c r="E49" s="3">
         <v>27506000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>28011000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>28541000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>28747000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>29547000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>29536000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>34556000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>34746000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>36078000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>36535000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>37348000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>38013000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>38922000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>42930000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>43860000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>45779000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>46054000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>60270000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>61699000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>66215000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>65896000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>69853000</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3456,8 +3569,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3527,8 +3643,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3536,70 +3655,73 @@
         <v>1110000</v>
       </c>
       <c r="E52" s="3">
+        <v>1110000</v>
+      </c>
+      <c r="F52" s="3">
         <v>1139000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1174000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1215000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1233000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1332000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1043000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>990000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>978000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1058000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1039000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1108000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1099000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1149000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1246000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1295000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1506000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1585000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2018000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2066000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1860000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>3129000</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3669,79 +3791,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>47059000</v>
+      </c>
+      <c r="E54" s="3">
         <v>47666000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>47851000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>49195000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>49004000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>50640000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>49737000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>54991000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>55330000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>57470000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>57246000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>59424000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>59854000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>60683000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>65061000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>67030000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>69181000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>70615000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>86082000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>86355000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>91276000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>93057000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>98747000</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3767,8 +3895,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3794,434 +3923,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1750000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1686000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1514000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1551000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1692000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1756000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1716000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1606000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1710000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1718000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1688000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1806000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1763000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1853000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1626000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1779000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1929000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2069000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2370000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2278000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2378000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2157000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>4953000</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2077000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1426000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2709000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3530000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2697000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3188000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2106000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1649000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1630000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2345000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3130000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2771000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2790000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1700000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2673000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1272000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1302000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3646000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2731000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1246000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1942000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3276000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>3676000</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7786000</v>
+      </c>
+      <c r="E59" s="3">
         <v>7915000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7602000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7610000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7700000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8220000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>8281000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>8496000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8982000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9611000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>9289000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>9875000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>9475000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>10769000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>10531000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>11164000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>11525000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>12206000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>11842000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>11933000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>11583000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>13055000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>10657000</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11613000</v>
+      </c>
+      <c r="E60" s="3">
         <v>11027000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>11825000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>12691000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>12089000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>13164000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>12103000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>11751000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>12322000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>13674000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>14107000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>14452000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>14028000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>14322000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>14830000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>14215000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>14756000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>17921000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>16943000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>15457000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>15903000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>18488000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>19286000</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>20840000</v>
+      </c>
+      <c r="E61" s="3">
         <v>21617000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>21037000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>21602000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>22288000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>22731000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>23515000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>24616000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>24473000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>24562000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>23812000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>25955000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>25828000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>26691000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>26792000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>28949000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>29434000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>28827000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>31970500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>33806000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>32691000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>32522000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>33179000</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4346000</v>
+      </c>
+      <c r="E62" s="3">
         <v>3778000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3538000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3591000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3652000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3684000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3527000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3800000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3947000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4171000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4402000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3766000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4177000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3876000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4305000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4498000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4889000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>5122000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>6873500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>7484000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>6937000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>7054000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>9254000</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4291,8 +4439,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4362,8 +4513,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4433,79 +4587,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>37715000</v>
+      </c>
+      <c r="E66" s="3">
         <v>37388000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>37384000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>38871000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>39004000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>40614000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>40144000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>41139000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>41799000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>43498000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>43455000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>45301000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>45122000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>45976000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>47331000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>49092000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>50560000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>53256000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>57411000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>58361000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>57253000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>59720000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>63618000</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4531,8 +4691,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4602,8 +4763,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4673,8 +4837,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4718,19 +4885,19 @@
         <v>0</v>
       </c>
       <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
         <v>3825000</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>3760000</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>3696000</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>3631000</v>
-      </c>
-      <c r="U70" s="3">
-        <v>3620000</v>
       </c>
       <c r="V70" s="3">
         <v>3620000</v>
@@ -4744,8 +4911,11 @@
       <c r="Y70" s="3">
         <v>3620000</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>3620000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4815,79 +4985,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-11484000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-10529000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-10370000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-10662000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-10869000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-10946000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-11096000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-6747000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-6887000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-6956000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-7066000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-6752000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-6063000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-5958000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3072000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2864000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2688000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-3803000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>7873000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>7430000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>13809000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>13607000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>14991000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4957,8 +5133,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5028,8 +5207,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5099,79 +5281,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9344000</v>
+      </c>
+      <c r="E76" s="3">
         <v>10278000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>10467000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>10324000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>10000000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10026000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9593000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>13852000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13531000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13972000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>13791000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>14123000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>14732000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14707000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>13905000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>14178000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>14925000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>13728000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>25051000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>24374000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>30403000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>29717000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>31509000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5241,155 +5429,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-955000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-159000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>292000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>207000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>77000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>150000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4349000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>140000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>69000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>109000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-314000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-689000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-105000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2940000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-283000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-241000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1055000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-11600000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>530000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-6035000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>580000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1038000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5415,79 +5612,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>323000</v>
+      </c>
+      <c r="E83" s="3">
         <v>320000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>329000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>305000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>376000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>395000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>381000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>382000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>399000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>416000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>413000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>450000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>443000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>382000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>474000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>479000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>507000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>528000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>527000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>577000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>480000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>332000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>577000</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5557,8 +5758,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5628,8 +5832,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5699,8 +5906,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5770,8 +5980,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5841,79 +6054,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-49000</v>
+      </c>
+      <c r="E89" s="3">
         <v>456000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>529000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>218000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-405000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>331000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>307000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>273000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>305000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>538000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>325000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-227000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>112000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>367000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>421000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>162000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1496000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1179000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1117000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>741000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>470000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1425000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1461000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5939,79 +6158,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-157000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-153000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-146000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-113000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-150000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-176000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-143000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-131000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-128000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-119000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-169000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-112000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-125000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-213000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-139000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-136000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-163000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-267000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-212000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-193000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-202000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-333000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-221000</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6081,8 +6304,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6152,79 +6378,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>161000</v>
+      </c>
+      <c r="E94" s="3">
         <v>246000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>288000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>481000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>508000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>141000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>157000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>313000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>252000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>430000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>224000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>429000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>272000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>74000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>347000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>406000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>1039000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>1912000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>744000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-392000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>1182000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-797000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-32301000</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6250,8 +6482,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6301,28 +6534,31 @@
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-12000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-87000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-123000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-345000</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-346000</v>
       </c>
       <c r="X96" s="3">
         <v>-346000</v>
       </c>
       <c r="Y96" s="3">
+        <v>-346000</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-340000</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6392,8 +6628,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6463,8 +6702,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6534,217 +6776,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-501000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1177000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-493000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-125000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1057000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-700000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-241000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1461000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-35000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-189000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-499000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-705000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-56000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2091000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2506000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-825000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-651000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1768000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-701000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>25372000</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-62000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-48000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-31000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-5000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-44000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>3000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>18000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>15000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-28000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>7000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-12000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>25000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-4000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-35000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-49000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-69000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>11000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>18000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>7000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>1000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>28000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-496000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>41000</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E102" s="3">
         <v>153000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-391000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>693000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-434000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>350000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-575000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>598000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-171000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>734000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-924000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>192000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>191000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-93000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>14000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>443000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>455000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>283000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>81000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-301000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-88000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-569000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-5427000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TEVA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TEVA_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,331 +665,343 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3786000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3661000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4100000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3887000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3910000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3982000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4453000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3978000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3870000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4357000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3991000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4093000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4177000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4149000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4559000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4529000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4701000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5065000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5398000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5617000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5720000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>5650000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>6492000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>5563000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1958000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1859000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1975000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1989000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1987000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2063000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2372000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2128000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2091000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2279000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2033000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2229000</v>
-      </c>
-      <c r="O9" s="3">
-        <v>2258000</v>
       </c>
       <c r="P9" s="3">
         <v>2258000</v>
       </c>
       <c r="Q9" s="3">
+        <v>2258000</v>
+      </c>
+      <c r="R9" s="3">
         <v>2693000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2552000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2668000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2750000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3127000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2967000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2865000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2811000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3102000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2762000</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1828000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1802000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2125000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1898000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1923000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1919000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2081000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1850000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1779000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2078000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1958000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1864000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1919000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1891000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1866000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1977000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2033000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2315000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2271000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2650000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2855000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2839000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>3390000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2801000</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,82 +1028,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>228000</v>
+      </c>
+      <c r="E12" s="3">
         <v>225000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>249000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>222000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>243000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>254000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>296000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>238000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>242000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>221000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>232000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>487000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>276000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>261000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>295000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>311000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>290000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>317000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>346000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>531000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>469000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>432000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>684000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>663000</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1164,117 +1180,123 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>1683000</v>
+      </c>
+      <c r="E14" s="3">
         <v>1502000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>893000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>183000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>247000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>360000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>374000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>5077000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>516000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>764000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>561000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>832000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1323000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>561000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>3804000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1165000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>855000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-417000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>13850000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>520000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>6842000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>205000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>1508000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>720000</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E15" s="3">
         <v>22000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>23000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>24000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>25000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>27000</v>
-      </c>
-      <c r="I15" s="3">
-        <v>31000</v>
       </c>
       <c r="J15" s="3">
         <v>31000</v>
       </c>
       <c r="K15" s="3">
+        <v>31000</v>
+      </c>
+      <c r="L15" s="3">
         <v>30000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>35000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>34000</v>
-      </c>
-      <c r="N15" s="3">
-        <v>35000</v>
       </c>
       <c r="O15" s="3">
         <v>35000</v>
@@ -1283,28 +1305,28 @@
         <v>35000</v>
       </c>
       <c r="Q15" s="3">
+        <v>35000</v>
+      </c>
+      <c r="R15" s="3">
         <v>24000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>51000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>41000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>46000</v>
       </c>
-      <c r="U15" s="3">
-        <v>0</v>
-      </c>
       <c r="V15" s="3">
         <v>0</v>
       </c>
       <c r="W15" s="3">
         <v>0</v>
       </c>
-      <c r="X15" s="3" t="s">
-        <v>11</v>
+      <c r="X15" s="3">
+        <v>0</v>
       </c>
       <c r="Y15" s="3" t="s">
         <v>11</v>
@@ -1312,8 +1334,11 @@
       <c r="Z15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1337,156 +1362,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4735000</v>
+      </c>
+      <c r="E17" s="3">
         <v>4374000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4022000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3264000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3328000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3548000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4048000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8320000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3697000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4166000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3843000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4174000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4821000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4015000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7709000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4513000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4715000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3607000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>18415000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5239000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>11462000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4755000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>6629000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>4798000</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-949000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-713000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>78000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>623000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>582000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>434000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>405000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-4342000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>173000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>191000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>148000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-81000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-644000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>134000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3150000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>16000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-14000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1458000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-13017000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>378000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-5742000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>895000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-137000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>765000</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1513,176 +1545,183 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-20000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-73000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-9000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-34000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-51000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-27000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>124000</v>
-      </c>
-      <c r="K20" s="3">
-        <v>17000</v>
       </c>
       <c r="L20" s="3">
         <v>17000</v>
       </c>
       <c r="M20" s="3">
+        <v>17000</v>
+      </c>
+      <c r="N20" s="3">
         <v>22000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>8000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>20000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>9000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-6000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>11000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-5000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>14000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>30000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-40000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>290000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-56000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-777000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-150000</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-577000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-410000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>325000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>943000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>853000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>759000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>773000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3837000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>572000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>607000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>586000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>340000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-174000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>586000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2774000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>501000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>460000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1979000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-12459000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>865000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-4875000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1319000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-582000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1192000</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>225000</v>
+      </c>
+      <c r="E22" s="3">
         <v>238000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>180000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>232000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>240000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>239000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>241000</v>
       </c>
       <c r="J22" s="3">
         <v>241000</v>
@@ -1694,197 +1733,206 @@
         <v>241000</v>
       </c>
       <c r="M22" s="3">
+        <v>241000</v>
+      </c>
+      <c r="N22" s="3">
         <v>209000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>219000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>226000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>227000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>231000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>240000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>231000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>218000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>221000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>219000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>526000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>151000</v>
-      </c>
-      <c r="Y22" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="Z22" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1160000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-971000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-175000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>382000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>308000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>144000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>137000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4459000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-51000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-33000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-39000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-292000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-850000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-84000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3387000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-213000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-250000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1254000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-13208000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>119000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-5978000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>688000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-914000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>615000</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-900000</v>
+      </c>
+      <c r="E24" s="3">
         <v>2000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-24000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>76000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>98000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>62000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-21000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>16000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-104000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-59000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-119000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>11000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-179000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>9000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-236000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-26000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-76000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>46000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-410000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-494000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-22000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>54000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>57000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>207000</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1957,156 +2005,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-260000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-973000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-151000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>306000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>210000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>82000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>158000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4475000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>53000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>26000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>80000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-303000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-671000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-93000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3151000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-187000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-174000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1208000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-12798000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>613000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-5956000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>634000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-971000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>408000</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-232000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-955000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-159000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>292000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>207000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>77000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>150000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4349000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>140000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>69000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>109000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-314000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-689000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-105000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2843000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-283000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-241000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1055000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-12661000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>530000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-6035000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>580000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-1038000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2179,8 +2236,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2205,8 +2265,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>11</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>11</v>
@@ -2223,11 +2283,11 @@
       <c r="P29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R29" s="3">
         <v>-97000</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>11</v>
@@ -2235,11 +2295,11 @@
       <c r="T29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V29" s="3">
         <v>1061000</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>11</v>
@@ -2253,8 +2313,11 @@
       <c r="Z29" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2327,8 +2390,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2401,156 +2467,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E32" s="3">
         <v>20000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>73000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>9000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>34000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>51000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>27000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-124000</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-17000</v>
       </c>
       <c r="L32" s="3">
         <v>-17000</v>
       </c>
       <c r="M32" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="N32" s="3">
         <v>-22000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-8000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-20000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>6000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-11000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>5000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-14000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-30000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>40000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-290000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>56000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>777000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>150000</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-232000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-955000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-159000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>292000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>207000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>77000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>150000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4349000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>140000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>69000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>109000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-314000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-689000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-105000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2940000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-283000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-241000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1055000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-11600000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>530000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-6035000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>580000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-1038000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2623,161 +2698,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-232000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-955000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-159000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>292000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>207000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>77000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>150000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4349000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>140000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>69000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>109000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-314000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-689000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-105000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2940000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-283000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-241000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1055000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-11600000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>530000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-6035000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>580000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-1038000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2804,8 +2888,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2832,82 +2917,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2058000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2175000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2165000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2045000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2436000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1743000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2177000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1827000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2402000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1804000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1975000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1241000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2165000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1973000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1782000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1875000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1861000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1418000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>963000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>680000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>599000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>900000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>988000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1557000</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2980,304 +3069,319 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4471000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4253000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4529000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4046000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4488000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4572000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4581000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4385000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4545000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5189000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5676000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5254000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5260000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5108000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5822000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5665000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>6061000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>6289000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>7128000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>7424000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>7320000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>7264000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>7523000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>8071000</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4049000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4012000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3818000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4167000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4362000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4406000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4403000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4516000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4361000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4290000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4422000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4636000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4850000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4782000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4731000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4866000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4971000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>5113000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4924000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>5060000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>5132000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>4999000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>4954000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>5349000</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1586000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2011000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2061000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1896000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1536000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1680000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1844000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1432000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1473000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1601000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1391000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1411000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1530000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1568000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1459000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1475000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1818000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1867000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2367000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3062000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1544000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1672000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>3763000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>2409000</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12164000</v>
+      </c>
+      <c r="E46" s="3">
         <v>12451000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>12573000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>12154000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>12822000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>12401000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>13005000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>12160000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>12781000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>12884000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>13464000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>12542000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>13805000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>13431000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>13794000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>13881000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>14711000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>14687000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>15382000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>16226000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>14595000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>14835000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>17228000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>17386000</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3350,156 +3454,165 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6181000</v>
+      </c>
+      <c r="E48" s="3">
         <v>6396000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6477000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6547000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6658000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6641000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6855000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6709000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6611000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6710000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6950000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7111000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7232000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7302000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6868000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>7101000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>7213000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>7420000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>7673000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>8001000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>8043000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>8160000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>8073000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>8379000</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>25537000</v>
+      </c>
+      <c r="E49" s="3">
         <v>27102000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>27506000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>28011000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>28541000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>28747000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>29547000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>29536000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>34556000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>34746000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>36078000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>36535000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>37348000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>38013000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>38922000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>42930000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>43860000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>45779000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>46054000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>60270000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>61699000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>66215000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>65896000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>69853000</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3572,8 +3685,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3646,82 +3762,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1110000</v>
+        <v>2050000</v>
       </c>
       <c r="E52" s="3">
         <v>1110000</v>
       </c>
       <c r="F52" s="3">
+        <v>1110000</v>
+      </c>
+      <c r="G52" s="3">
         <v>1139000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1174000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1215000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1233000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1332000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1043000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>990000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>978000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1058000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1039000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1108000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1099000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1149000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1246000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1295000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1506000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1585000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2018000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>2066000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1860000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>3129000</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3794,82 +3916,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>45932000</v>
+      </c>
+      <c r="E54" s="3">
         <v>47059000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>47666000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>47851000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>49195000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>49004000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>50640000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>49737000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>54991000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>55330000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>57470000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>57246000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>59424000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>59854000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>60683000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>65061000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>67030000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>69181000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>70615000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>86082000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>86355000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>91276000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>93057000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>98747000</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3896,8 +4024,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3924,452 +4053,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1901000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1750000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1686000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1514000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1551000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1692000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1756000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1716000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1606000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1710000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1718000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1688000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1806000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1763000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1853000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1626000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1779000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1929000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2069000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2370000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2278000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2378000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2157000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>4953000</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1719000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2077000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1426000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2709000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3530000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2697000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3188000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2106000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1649000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1630000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2345000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3130000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2771000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2790000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1700000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2673000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1272000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1302000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3646000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2731000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1246000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1942000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>3276000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>3676000</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7376000</v>
+      </c>
+      <c r="E59" s="3">
         <v>7786000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7915000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7602000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7610000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7700000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>8220000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>8281000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8496000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8982000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>9611000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>9289000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>9875000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>9475000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>10769000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>10531000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>11164000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>11525000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>12206000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>11842000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>11933000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>11583000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>13055000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>10657000</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10996000</v>
+      </c>
+      <c r="E60" s="3">
         <v>11613000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>11027000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>11825000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>12691000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>12089000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>13164000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>12103000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11751000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12322000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>13674000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>14107000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>14452000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>14028000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>14322000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>14830000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>14215000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>14756000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>17921000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>16943000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>15457000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>15903000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>18488000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>19286000</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>20363000</v>
+      </c>
+      <c r="E61" s="3">
         <v>20840000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>21617000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>21037000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>21602000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>22288000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>22731000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>23515000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>24616000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>24473000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>24562000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>23812000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>25955000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>25828000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>26691000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>26792000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>28949000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>29434000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>28827000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>31970500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>33806000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>32691000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>32522000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>33179000</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4745000</v>
+      </c>
+      <c r="E62" s="3">
         <v>4346000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3778000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3538000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3591000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3652000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3684000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3527000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3800000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3947000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4171000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4402000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3766000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4177000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3876000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4305000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4498000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4889000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>5122000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>6873500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>7484000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>6937000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>7054000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>9254000</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4442,8 +4590,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4516,8 +4667,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4590,82 +4744,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>36895000</v>
+      </c>
+      <c r="E66" s="3">
         <v>37715000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>37388000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>37384000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>38871000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>39004000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>40614000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>40144000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>41139000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>41799000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>43498000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>43455000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>45301000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>45122000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>45976000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>47331000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>49092000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>50560000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>53256000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>57411000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>58361000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>57253000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>59720000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>63618000</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4692,8 +4852,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4766,8 +4927,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4840,8 +5004,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4888,19 +5055,19 @@
         <v>0</v>
       </c>
       <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
         <v>3825000</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>3760000</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>3696000</v>
       </c>
-      <c r="U70" s="3">
+      <c r="V70" s="3">
         <v>3631000</v>
-      </c>
-      <c r="V70" s="3">
-        <v>3620000</v>
       </c>
       <c r="W70" s="3">
         <v>3620000</v>
@@ -4914,8 +5081,11 @@
       <c r="Z70" s="3">
         <v>3620000</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>3620000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4988,82 +5158,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-11716000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-11484000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-10529000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-10370000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-10662000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-10869000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-10946000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-11096000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-6747000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-6887000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-6956000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-7066000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-6752000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-6063000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-5958000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3072000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2864000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-2688000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-3803000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>7873000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>7430000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>13809000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>13607000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>14991000</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5136,8 +5312,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5210,8 +5389,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5284,82 +5466,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9037000</v>
+      </c>
+      <c r="E76" s="3">
         <v>9344000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>10278000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>10467000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>10324000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10000000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10026000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>9593000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13852000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13531000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>13972000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>13791000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>14123000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14732000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14707000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>13905000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>14178000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>14925000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>13728000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>25051000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>24374000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>30403000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>29717000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>31509000</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5432,161 +5620,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-232000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-955000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-159000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>292000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>207000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>77000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>150000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4349000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>140000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>69000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>109000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-314000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-689000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-105000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2940000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-283000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-241000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1055000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-11600000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>530000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-6035000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>580000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-1038000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5613,82 +5810,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>358000</v>
+      </c>
+      <c r="E83" s="3">
         <v>323000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>320000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>329000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>305000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>376000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>395000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>381000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>382000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>399000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>416000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>413000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>450000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>443000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>382000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>474000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>479000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>507000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>528000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>527000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>577000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>480000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>332000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>577000</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5761,8 +5962,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5835,8 +6039,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5909,8 +6116,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5983,8 +6193,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6057,82 +6270,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>122000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-49000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>456000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>529000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>218000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-405000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>331000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>307000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>273000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>305000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>538000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>325000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-227000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>112000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>367000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>421000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>162000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1496000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1179000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1117000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>741000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>470000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1425000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1461000</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6159,82 +6378,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-127000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-157000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-153000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-146000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-113000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-150000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-176000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-143000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-131000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-128000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-119000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-169000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-112000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-125000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-213000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-139000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-136000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-163000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-267000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-212000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-193000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-202000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-333000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-221000</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6307,8 +6530,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6381,82 +6607,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>180000</v>
+      </c>
+      <c r="E94" s="3">
         <v>161000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>246000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>288000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>481000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>508000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>141000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>157000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>313000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>252000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>430000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>224000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>429000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>272000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>74000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>347000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>406000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>1039000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>1912000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>744000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-392000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>1182000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-797000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-32301000</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6483,8 +6715,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6537,28 +6770,31 @@
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-12000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-87000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-123000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-345000</v>
-      </c>
-      <c r="X96" s="3">
-        <v>-346000</v>
       </c>
       <c r="Y96" s="3">
         <v>-346000</v>
       </c>
       <c r="Z96" s="3">
+        <v>-346000</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-340000</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6631,8 +6867,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6705,8 +6944,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6779,226 +7021,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-338000</v>
+      </c>
+      <c r="E100" s="3">
         <v>2000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-501000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1177000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-493000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-125000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1057000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-700000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-241000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1461000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-35000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-189000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-499000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-705000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-56000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2091000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2506000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-825000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-651000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1768000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-701000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>25372000</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-123000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-62000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-48000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-31000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-5000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-44000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>3000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>18000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>15000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-28000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>7000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-12000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>25000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-35000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-49000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-69000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>11000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>18000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>7000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>1000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>28000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-496000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>41000</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-159000</v>
+      </c>
+      <c r="E102" s="3">
         <v>52000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>153000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-391000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>693000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-434000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>350000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-575000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>598000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-171000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>734000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-924000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>192000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>191000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-93000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>14000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>443000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>455000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>283000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>81000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-301000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-88000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-569000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-5427000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TEVA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TEVA_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,343 +665,355 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3595000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3786000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3661000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4100000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3887000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3910000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3982000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4453000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3978000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3870000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4357000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3991000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4093000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4177000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4149000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4559000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4529000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4701000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5065000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5398000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5617000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>5720000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>5650000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>6492000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>5563000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1885000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1958000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1859000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1975000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1989000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1987000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2063000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2372000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2128000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2091000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2279000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2033000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2229000</v>
-      </c>
-      <c r="P9" s="3">
-        <v>2258000</v>
       </c>
       <c r="Q9" s="3">
         <v>2258000</v>
       </c>
       <c r="R9" s="3">
+        <v>2258000</v>
+      </c>
+      <c r="S9" s="3">
         <v>2693000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2552000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2668000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2750000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3127000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2967000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2865000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2811000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3102000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>2762000</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1710000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1828000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1802000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2125000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1898000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1923000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1919000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2081000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1850000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1779000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2078000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1958000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1864000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1919000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1891000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1866000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1977000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2033000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2315000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2271000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2650000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2855000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2839000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>3390000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>2801000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1029,85 +1041,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>175000</v>
+      </c>
+      <c r="E12" s="3">
         <v>228000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>225000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>249000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>222000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>243000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>254000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>296000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>238000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>242000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>221000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>232000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>487000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>276000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>261000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>295000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>311000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>290000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>317000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>346000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>531000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>469000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>432000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>684000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>663000</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1183,123 +1199,129 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>321000</v>
+      </c>
+      <c r="E14" s="3">
         <v>1683000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1502000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>893000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>183000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>247000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>360000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>374000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>5077000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>516000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>764000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>561000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>832000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1323000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>561000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>3804000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1165000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>855000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-417000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>13850000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>520000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>6842000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>205000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>1508000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>720000</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E15" s="3">
         <v>21000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>22000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>23000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>24000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>25000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>27000</v>
-      </c>
-      <c r="J15" s="3">
-        <v>31000</v>
       </c>
       <c r="K15" s="3">
         <v>31000</v>
       </c>
       <c r="L15" s="3">
+        <v>31000</v>
+      </c>
+      <c r="M15" s="3">
         <v>30000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>35000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>34000</v>
-      </c>
-      <c r="O15" s="3">
-        <v>35000</v>
       </c>
       <c r="P15" s="3">
         <v>35000</v>
@@ -1308,28 +1330,28 @@
         <v>35000</v>
       </c>
       <c r="R15" s="3">
+        <v>35000</v>
+      </c>
+      <c r="S15" s="3">
         <v>24000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>51000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>41000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>46000</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
-      </c>
       <c r="W15" s="3">
         <v>0</v>
       </c>
       <c r="X15" s="3">
         <v>0</v>
       </c>
-      <c r="Y15" s="3" t="s">
-        <v>11</v>
+      <c r="Y15" s="3">
+        <v>0</v>
       </c>
       <c r="Z15" s="3" t="s">
         <v>11</v>
@@ -1337,8 +1359,11 @@
       <c r="AA15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1363,162 +1388,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3176000</v>
+      </c>
+      <c r="E17" s="3">
         <v>4735000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4374000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4022000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3264000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3328000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3548000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4048000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8320000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3697000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4166000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3843000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4174000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4821000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4015000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7709000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4513000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4715000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3607000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>18415000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>5239000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>11462000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>4755000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>6629000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>4798000</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>419000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-949000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-713000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>78000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>623000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>582000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>434000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>405000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4342000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>173000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>191000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>148000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-81000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-644000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>134000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3150000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>16000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-14000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1458000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-13017000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>378000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-5742000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>895000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-137000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>765000</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1546,185 +1578,192 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E20" s="3">
         <v>14000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-20000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-73000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-9000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-34000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-51000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-27000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>124000</v>
-      </c>
-      <c r="L20" s="3">
-        <v>17000</v>
       </c>
       <c r="M20" s="3">
         <v>17000</v>
       </c>
       <c r="N20" s="3">
+        <v>17000</v>
+      </c>
+      <c r="O20" s="3">
         <v>22000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>8000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>20000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>9000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-6000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>11000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-5000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>14000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>30000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-40000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>290000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-56000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-777000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-150000</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>717000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-577000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-410000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>325000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>943000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>853000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>759000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>773000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3837000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>572000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>607000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>586000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>340000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-174000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>586000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2774000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>501000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>460000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1979000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-12459000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>865000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-4875000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1319000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-582000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1192000</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>230000</v>
+      </c>
+      <c r="E22" s="3">
         <v>225000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>238000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>180000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>232000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>240000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>239000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>241000</v>
       </c>
       <c r="K22" s="3">
         <v>241000</v>
@@ -1736,203 +1775,212 @@
         <v>241000</v>
       </c>
       <c r="N22" s="3">
+        <v>241000</v>
+      </c>
+      <c r="O22" s="3">
         <v>209000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>219000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>226000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>227000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>231000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>240000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>231000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>218000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>221000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>219000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>526000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>151000</v>
-      </c>
-      <c r="Z22" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="AA22" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>166000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1160000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-971000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-175000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>382000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>308000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>144000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>137000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4459000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-51000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-33000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-39000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-292000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-850000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-84000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3387000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-213000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-250000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1254000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-13208000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>119000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-5978000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>688000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-914000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>615000</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>107000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-900000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-24000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>76000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>98000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>62000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-21000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>16000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-104000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-59000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-119000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>11000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-179000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>9000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-236000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-26000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-76000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>46000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-410000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-494000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-22000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>54000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>57000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>207000</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2008,162 +2056,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-260000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-973000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-151000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>306000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>210000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>82000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>158000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4475000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>53000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>26000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>80000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-303000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-671000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-93000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3151000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-187000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-174000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1208000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-12798000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>613000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-5956000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>634000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-971000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>408000</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>56000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-232000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-955000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-159000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>292000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>207000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>77000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>150000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4349000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>140000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>69000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>109000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-314000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-689000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-105000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2843000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-283000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-241000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1055000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-12661000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>530000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-6035000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>580000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-1038000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2239,8 +2296,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2268,8 +2328,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>11</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>11</v>
@@ -2286,11 +2346,11 @@
       <c r="Q29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S29" s="3">
         <v>-97000</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>11</v>
@@ -2298,11 +2358,11 @@
       <c r="U29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W29" s="3">
         <v>1061000</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>11</v>
@@ -2316,8 +2376,11 @@
       <c r="AA29" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2393,8 +2456,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2470,162 +2536,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-14000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>20000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>73000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>9000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>34000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>51000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>27000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-124000</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-17000</v>
       </c>
       <c r="M32" s="3">
         <v>-17000</v>
       </c>
       <c r="N32" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="O32" s="3">
         <v>-22000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-8000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-20000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-9000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>6000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-11000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>5000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-14000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-30000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>40000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-290000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>56000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>777000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>150000</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>56000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-232000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-955000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-159000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>292000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>207000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>77000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>150000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4349000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>140000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>69000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>109000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-314000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-689000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-105000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2940000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-283000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-241000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1055000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-11600000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>530000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-6035000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>580000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-1038000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2701,167 +2776,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>56000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-232000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-955000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-159000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>292000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>207000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>77000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>150000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4349000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>140000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>69000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>109000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-314000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-689000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-105000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2940000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-283000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-241000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1055000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-11600000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>530000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-6035000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>580000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-1038000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2889,8 +2973,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2918,85 +3003,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2225000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2058000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2175000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2165000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2045000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2436000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1743000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2177000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1827000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2402000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1804000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1975000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1241000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2165000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1973000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1782000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1875000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1861000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1418000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>963000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>680000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>599000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>900000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>988000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1557000</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3072,316 +3161,331 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3730000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4471000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4253000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4529000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4046000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4488000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4572000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4581000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4385000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4545000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5189000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5676000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5254000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5260000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5108000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5822000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5665000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>6061000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>6289000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>7128000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>7424000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>7320000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>7264000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>7523000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>8071000</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3859000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4049000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4012000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3818000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4167000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4362000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4406000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4403000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4516000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4361000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4290000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4422000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4636000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4850000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4782000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4731000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4866000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4971000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>5113000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>4924000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>5060000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>5132000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>4999000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>4954000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>5349000</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1639000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1586000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2011000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2061000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1896000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1536000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1680000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1844000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1432000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1473000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1601000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1391000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1411000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1530000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1568000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1459000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1475000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1818000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1867000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2367000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3062000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1544000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1672000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>3763000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>2409000</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>11453000</v>
+      </c>
+      <c r="E46" s="3">
         <v>12164000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>12451000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>12573000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>12154000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>12822000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>12401000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>13005000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>12160000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>12781000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>12884000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>13464000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>12542000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>13805000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>13431000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>13794000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>13881000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>14711000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>14687000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>15382000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>16226000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>14595000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>14835000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>17228000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>17386000</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3457,162 +3561,171 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5990000</v>
+      </c>
+      <c r="E48" s="3">
         <v>6181000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6396000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6477000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6547000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6658000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6641000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6855000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6709000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6611000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6710000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6950000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7111000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7232000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7302000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6868000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>7101000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>7213000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>7420000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>7673000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>8001000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>8043000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>8160000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>8073000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>8379000</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>24826000</v>
+      </c>
+      <c r="E49" s="3">
         <v>25537000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>27102000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>27506000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>28011000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>28541000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>28747000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>29547000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>29536000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>34556000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>34746000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>36078000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>36535000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>37348000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>38013000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>38922000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>42930000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>43860000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>45779000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>46054000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>60270000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>61699000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>66215000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>65896000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>69853000</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3688,8 +3801,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3765,85 +3881,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1983000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2050000</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1110000</v>
       </c>
       <c r="F52" s="3">
         <v>1110000</v>
       </c>
       <c r="G52" s="3">
+        <v>1110000</v>
+      </c>
+      <c r="H52" s="3">
         <v>1139000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1174000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1215000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1233000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1332000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1043000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>990000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>978000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1058000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1039000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1108000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1099000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1149000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1246000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1295000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1506000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1585000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>2018000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>2066000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1860000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>3129000</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3919,85 +4041,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>44252000</v>
+      </c>
+      <c r="E54" s="3">
         <v>45932000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>47059000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>47666000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>47851000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>49195000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>49004000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>50640000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>49737000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>54991000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>55330000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>57470000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>57246000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>59424000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>59854000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>60683000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>65061000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>67030000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>69181000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>70615000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>86082000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>86355000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>91276000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>93057000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>98747000</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4025,8 +4153,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4054,470 +4183,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1635000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1901000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1750000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1686000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1514000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1551000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1692000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1756000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1716000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1606000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1710000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1718000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1688000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1806000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1763000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1853000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1626000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1779000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1929000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2069000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2370000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2278000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2378000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2157000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>4953000</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2769000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1719000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2077000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1426000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2709000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3530000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2697000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3188000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2106000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1649000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1630000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2345000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3130000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2771000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2790000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1700000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2673000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1272000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1302000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3646000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2731000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1246000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1942000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>3276000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>3676000</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7130000</v>
+      </c>
+      <c r="E59" s="3">
         <v>7376000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7786000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7915000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7602000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7610000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7700000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>8220000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8281000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8496000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8982000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>9611000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>9289000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>9875000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>9475000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>10769000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>10531000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>11164000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>11525000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>12206000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>11842000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>11933000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>11583000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>13055000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>10657000</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11534000</v>
+      </c>
+      <c r="E60" s="3">
         <v>10996000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>11613000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>11027000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>11825000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>12691000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>12089000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>13164000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>12103000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11751000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>12322000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>13674000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>14107000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>14452000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>14028000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>14322000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>14830000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>14215000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>14756000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>17921000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>16943000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>15457000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>15903000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>18488000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>19286000</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>18497000</v>
+      </c>
+      <c r="E61" s="3">
         <v>20363000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>20840000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>21617000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>21037000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>21602000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>22288000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>22731000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>23515000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>24616000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>24473000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>24562000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>23812000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>25955000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>25828000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>26691000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>26792000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>28949000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>29434000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>28827000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>31970500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>33806000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>32691000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>32522000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>33179000</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4702000</v>
+      </c>
+      <c r="E62" s="3">
         <v>4745000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4346000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3778000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3538000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3591000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3652000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3684000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3527000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3800000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3947000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4171000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4402000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3766000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4177000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3876000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4305000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4498000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4889000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>5122000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>6873500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>7484000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>6937000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>7054000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>9254000</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4593,8 +4741,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4670,8 +4821,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4747,85 +4901,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>35484000</v>
+      </c>
+      <c r="E66" s="3">
         <v>36895000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>37715000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>37388000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>37384000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>38871000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>39004000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>40614000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>40144000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>41139000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>41799000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>43498000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>43455000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>45301000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>45122000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>45976000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>47331000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>49092000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>50560000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>53256000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>57411000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>58361000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>57253000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>59720000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>63618000</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4853,8 +5013,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4930,8 +5091,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5007,8 +5171,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5058,19 +5225,19 @@
         <v>0</v>
       </c>
       <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
         <v>3825000</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>3760000</v>
       </c>
-      <c r="U70" s="3">
+      <c r="V70" s="3">
         <v>3696000</v>
       </c>
-      <c r="V70" s="3">
+      <c r="W70" s="3">
         <v>3631000</v>
-      </c>
-      <c r="W70" s="3">
-        <v>3620000</v>
       </c>
       <c r="X70" s="3">
         <v>3620000</v>
@@ -5084,8 +5251,11 @@
       <c r="AA70" s="3">
         <v>3620000</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>3620000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5161,85 +5331,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-11660000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-11716000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-11484000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-10529000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-10370000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-10662000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-10869000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-10946000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-11096000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-6747000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-6887000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-6956000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-7066000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-6752000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-6063000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-5958000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-3072000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-2864000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-2688000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-3803000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>7873000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>7430000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>13809000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>13607000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>14991000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5315,8 +5491,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5392,8 +5571,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5469,85 +5651,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8768000</v>
+      </c>
+      <c r="E76" s="3">
         <v>9037000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>9344000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>10278000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>10467000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10324000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10000000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10026000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9593000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13852000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>13531000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>13972000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>13791000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14123000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14732000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>14707000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>13905000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>14178000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>14925000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>13728000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>25051000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>24374000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>30403000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>29717000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>31509000</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5623,167 +5811,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>56000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-232000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-955000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-159000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>292000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>207000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>77000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>150000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4349000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>140000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>69000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>109000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-314000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-689000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-105000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2940000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-283000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-241000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1055000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-11600000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>530000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-6035000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>580000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-1038000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5811,85 +6008,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>321000</v>
+      </c>
+      <c r="E83" s="3">
         <v>358000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>323000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>320000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>329000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>305000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>376000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>395000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>381000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>382000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>399000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>416000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>413000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>450000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>443000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>382000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>474000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>479000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>507000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>528000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>527000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>577000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>480000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>332000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>577000</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5965,8 +6166,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6042,8 +6246,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6119,8 +6326,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6196,8 +6406,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6273,85 +6486,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>544000</v>
+      </c>
+      <c r="E89" s="3">
         <v>122000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-49000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>456000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>529000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>218000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-405000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>331000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>307000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>273000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>305000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>538000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>325000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-227000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>112000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>367000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>421000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>162000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1496000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1179000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1117000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>741000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>470000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1425000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1461000</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6379,85 +6598,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-127000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-157000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-153000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-146000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-113000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-150000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-176000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-143000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-131000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-128000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-119000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-169000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-112000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-125000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-213000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-139000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-136000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-163000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-267000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-212000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-193000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-202000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-333000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-221000</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6533,8 +6756,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6610,85 +6836,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>147000</v>
+      </c>
+      <c r="E94" s="3">
         <v>180000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>161000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>246000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>288000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>481000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>508000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>141000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>157000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>313000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>252000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>430000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>224000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>429000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>272000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>74000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>347000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>406000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>1039000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>1912000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>744000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-392000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>1182000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-797000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-32301000</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6716,8 +6948,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6773,28 +7006,31 @@
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-12000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-87000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-123000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-345000</v>
-      </c>
-      <c r="Y96" s="3">
-        <v>-346000</v>
       </c>
       <c r="Z96" s="3">
         <v>-346000</v>
       </c>
       <c r="AA96" s="3">
+        <v>-346000</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-340000</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6870,8 +7106,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6947,8 +7186,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7024,235 +7266,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-440000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-338000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-501000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1177000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-493000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-125000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1057000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-700000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-241000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1461000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-35000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-189000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-499000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-705000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-56000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2091000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2506000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-825000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-651000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1768000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-701000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>25372000</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-84000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-123000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-62000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-48000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-31000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-5000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-44000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>3000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>18000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>15000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-28000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>7000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-12000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>25000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-4000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-35000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-49000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-69000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>11000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>18000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>7000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>1000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>28000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-496000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>41000</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>167000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-159000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>52000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>153000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-391000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>693000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-434000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>350000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-575000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>598000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-171000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>734000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-924000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>192000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>191000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-93000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>14000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>443000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>455000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>283000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>81000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-301000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-88000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-569000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-5427000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TEVA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TEVA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>TEVA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,355 +665,367 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3884000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3595000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3786000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3661000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4100000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3887000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3910000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3982000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4453000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3978000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3870000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4357000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3991000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4093000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4177000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4149000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4559000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4529000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4701000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5065000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5398000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>5617000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>5720000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>5650000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>6492000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>5563000</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1784000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1885000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1958000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1859000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1975000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1989000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1987000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2063000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2372000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2128000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2091000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2279000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2033000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2229000</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>2258000</v>
       </c>
       <c r="R9" s="3">
         <v>2258000</v>
       </c>
       <c r="S9" s="3">
+        <v>2258000</v>
+      </c>
+      <c r="T9" s="3">
         <v>2693000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2552000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2668000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2750000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3127000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2967000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2865000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2811000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>3102000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>2762000</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2100000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1710000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1828000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1802000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2125000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1898000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1923000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1919000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2081000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1850000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1779000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2078000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1958000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1864000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1919000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1891000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1866000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1977000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2033000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2315000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2271000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2650000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2855000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2839000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>3390000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>2801000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1042,88 +1054,92 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>210000</v>
+      </c>
+      <c r="E12" s="3">
         <v>175000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>228000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>225000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>249000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>222000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>243000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>254000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>296000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>238000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>242000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>221000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>232000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>487000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>276000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>261000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>295000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>311000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>290000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>317000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>346000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>531000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>469000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>432000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>684000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>663000</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1202,129 +1218,135 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>1854000</v>
+      </c>
+      <c r="E14" s="3">
         <v>321000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1683000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1502000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>893000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>183000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>247000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>360000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>374000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>5077000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>516000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>764000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>561000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>832000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1323000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>561000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>3804000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1165000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>855000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-417000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>13850000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>520000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>6842000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>205000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>1508000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>720000</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="3">
         <v>20000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>21000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>22000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>23000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>24000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>25000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>27000</v>
-      </c>
-      <c r="K15" s="3">
-        <v>31000</v>
       </c>
       <c r="L15" s="3">
         <v>31000</v>
       </c>
       <c r="M15" s="3">
+        <v>31000</v>
+      </c>
+      <c r="N15" s="3">
         <v>30000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>35000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>34000</v>
-      </c>
-      <c r="P15" s="3">
-        <v>35000</v>
       </c>
       <c r="Q15" s="3">
         <v>35000</v>
@@ -1333,28 +1355,28 @@
         <v>35000</v>
       </c>
       <c r="S15" s="3">
+        <v>35000</v>
+      </c>
+      <c r="T15" s="3">
         <v>24000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>51000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>41000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>46000</v>
       </c>
-      <c r="W15" s="3">
-        <v>0</v>
-      </c>
       <c r="X15" s="3">
         <v>0</v>
       </c>
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-      <c r="Z15" s="3" t="s">
-        <v>11</v>
+      <c r="Z15" s="3">
+        <v>0</v>
       </c>
       <c r="AA15" s="3" t="s">
         <v>11</v>
@@ -1362,8 +1384,11 @@
       <c r="AB15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1389,168 +1414,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4739000</v>
+      </c>
+      <c r="E17" s="3">
         <v>3176000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4735000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4374000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4022000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3264000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3328000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3548000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4048000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8320000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3697000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4166000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3843000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4174000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4821000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4015000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7709000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4513000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4715000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3607000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>18415000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>5239000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>11462000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>4755000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>6629000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>4798000</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-855000</v>
+      </c>
+      <c r="E18" s="3">
         <v>419000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-949000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-713000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>78000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>623000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>582000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>434000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>405000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4342000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>173000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>191000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>148000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-81000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-644000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>134000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3150000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>16000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-14000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1458000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-13017000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>378000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-5742000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>895000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-137000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>765000</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1579,194 +1611,201 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-23000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>14000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-20000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-73000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-9000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-34000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-51000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-27000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>124000</v>
-      </c>
-      <c r="M20" s="3">
-        <v>17000</v>
       </c>
       <c r="N20" s="3">
         <v>17000</v>
       </c>
       <c r="O20" s="3">
+        <v>17000</v>
+      </c>
+      <c r="P20" s="3">
         <v>22000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>8000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>20000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>9000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-6000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>11000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-5000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>14000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>30000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-40000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>290000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-56000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-777000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-150000</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-558000</v>
+      </c>
+      <c r="E21" s="3">
         <v>717000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-577000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-410000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>325000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>943000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>853000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>759000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>773000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3837000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>572000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>607000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>586000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>340000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-174000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>586000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2774000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>501000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>460000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1979000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-12459000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>865000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-4875000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1319000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-582000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1192000</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>237000</v>
+      </c>
+      <c r="E22" s="3">
         <v>230000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>225000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>238000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>180000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>232000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>240000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>239000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>241000</v>
       </c>
       <c r="L22" s="3">
         <v>241000</v>
@@ -1778,209 +1817,218 @@
         <v>241000</v>
       </c>
       <c r="O22" s="3">
+        <v>241000</v>
+      </c>
+      <c r="P22" s="3">
         <v>209000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>219000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>226000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>227000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>231000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>240000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>231000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>218000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>221000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>219000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>526000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>151000</v>
-      </c>
-      <c r="AA22" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="AB22" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1101000</v>
+      </c>
+      <c r="E23" s="3">
         <v>166000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1160000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-971000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-175000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>382000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>308000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>144000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>137000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4459000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-51000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-33000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-39000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-292000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-850000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-84000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-3387000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-213000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-250000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1254000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-13208000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>119000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-5978000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>688000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-914000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>615000</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>154000</v>
+      </c>
+      <c r="E24" s="3">
         <v>107000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-900000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-24000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>76000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>98000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>62000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-21000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>16000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-104000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-59000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-119000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>11000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-179000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>9000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-236000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-26000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-76000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>46000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-410000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-494000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-22000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>54000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>57000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>207000</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2059,168 +2107,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1255000</v>
+      </c>
+      <c r="E26" s="3">
         <v>59000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-260000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-973000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-151000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>306000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>210000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>82000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>158000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4475000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>53000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>26000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>80000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-303000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-671000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-93000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-3151000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-187000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-174000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1208000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-12798000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>613000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-5956000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>634000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-971000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>408000</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1221000</v>
+      </c>
+      <c r="E27" s="3">
         <v>56000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-232000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-955000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-159000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>292000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>207000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>77000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>150000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4349000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>140000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>69000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>109000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-314000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-689000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-105000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2843000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-283000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-241000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1055000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-12661000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>530000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-6035000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>580000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-1038000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2299,8 +2356,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2331,8 +2391,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>11</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>11</v>
@@ -2349,11 +2409,11 @@
       <c r="R29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="T29" s="3">
         <v>-97000</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>11</v>
@@ -2361,11 +2421,11 @@
       <c r="V29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X29" s="3">
         <v>1061000</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>11</v>
@@ -2379,8 +2439,11 @@
       <c r="AB29" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2459,8 +2522,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2539,168 +2605,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E32" s="3">
         <v>23000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-14000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>20000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>73000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>9000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>34000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>51000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>27000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-124000</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-17000</v>
       </c>
       <c r="N32" s="3">
         <v>-17000</v>
       </c>
       <c r="O32" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="P32" s="3">
         <v>-22000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-20000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-9000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>6000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-11000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>5000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-14000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-30000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>40000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-290000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>56000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>777000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>150000</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1221000</v>
+      </c>
+      <c r="E33" s="3">
         <v>56000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-232000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-955000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-159000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>292000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>207000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>77000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>150000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4349000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>140000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>69000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>109000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-314000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-689000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-105000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2940000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-283000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-241000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1055000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-11600000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>530000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-6035000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>580000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-1038000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2779,173 +2854,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1221000</v>
+      </c>
+      <c r="E35" s="3">
         <v>56000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-232000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-955000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-159000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>292000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>207000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>77000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>150000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4349000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>140000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>69000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>109000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-314000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-689000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-105000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2940000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-283000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-241000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1055000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-11600000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>530000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-6035000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>580000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-1038000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2974,8 +3058,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3004,88 +3089,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2801000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2225000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2058000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2175000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2165000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2045000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2436000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1743000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2177000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1827000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2402000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1804000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1975000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1241000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2165000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1973000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1782000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1875000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1861000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1418000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>963000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>680000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>599000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>900000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>988000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1557000</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3164,328 +3253,343 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3696000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3730000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4471000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4253000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4529000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4046000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4488000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4572000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4581000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4385000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4545000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5189000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5676000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5254000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5260000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5108000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5822000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5665000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>6061000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>6289000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>7128000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>7424000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>7320000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>7264000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>7523000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>8071000</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3833000</v>
+      </c>
+      <c r="E44" s="3">
         <v>3859000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4049000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4012000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3818000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4167000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4362000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4406000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4403000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4516000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4361000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4290000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4422000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4636000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4850000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4782000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4731000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4866000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4971000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>5113000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>4924000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>5060000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>5132000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>4999000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>4954000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>5349000</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1721000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1639000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1586000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2011000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2061000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1896000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1536000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1680000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1844000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1432000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1473000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1601000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1391000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1411000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1530000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1568000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1459000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1475000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1818000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1867000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2367000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>3062000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1544000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1672000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>3763000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>2409000</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12051000</v>
+      </c>
+      <c r="E46" s="3">
         <v>11453000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>12164000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>12451000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>12573000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>12154000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>12822000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>12401000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>13005000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>12160000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>12781000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>12884000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>13464000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>12542000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>13805000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>13431000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>13794000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>13881000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>14711000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>14687000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>15382000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>16226000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>14595000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>14835000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>17228000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>17386000</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3564,168 +3668,177 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6158000</v>
+      </c>
+      <c r="E48" s="3">
         <v>5990000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6181000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6396000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6477000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6547000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6658000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6641000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6855000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6709000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6611000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6710000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6950000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7111000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7232000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>7302000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6868000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>7101000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>7213000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>7420000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>7673000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>8001000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>8043000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>8160000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>8073000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>8379000</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>23903000</v>
+      </c>
+      <c r="E49" s="3">
         <v>24826000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>25537000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>27102000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>27506000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>28011000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>28541000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>28747000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>29547000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>29536000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>34556000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>34746000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>36078000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>36535000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>37348000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>38013000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>38922000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>42930000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>43860000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>45779000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>46054000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>60270000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>61699000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>66215000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>65896000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>69853000</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3804,8 +3917,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3884,88 +4000,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1894000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1983000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2050000</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1110000</v>
       </c>
       <c r="G52" s="3">
         <v>1110000</v>
       </c>
       <c r="H52" s="3">
+        <v>1110000</v>
+      </c>
+      <c r="I52" s="3">
         <v>1139000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1174000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1215000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1233000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1332000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1043000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>990000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>978000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1058000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1039000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1108000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1099000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1149000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1246000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1295000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1506000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1585000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>2018000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>2066000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1860000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>3129000</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4044,88 +4166,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>44006000</v>
+      </c>
+      <c r="E54" s="3">
         <v>44252000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>45932000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>47059000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>47666000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>47851000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>49195000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>49004000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>50640000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>49737000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>54991000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>55330000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>57470000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>57246000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>59424000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>59854000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>60683000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>65061000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>67030000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>69181000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>70615000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>86082000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>86355000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>91276000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>93057000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>98747000</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4154,8 +4282,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4184,488 +4313,507 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1887000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1635000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1901000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1750000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1686000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1514000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1551000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1692000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1756000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1716000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1606000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1710000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1718000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1688000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1806000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1763000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1853000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1626000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1779000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1929000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2069000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2370000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2278000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2378000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>2157000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>4953000</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2109000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2769000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1719000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2077000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1426000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2709000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3530000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2697000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3188000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2106000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1649000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1630000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2345000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3130000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2771000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2790000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1700000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2673000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1272000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1302000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3646000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2731000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1246000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1942000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>3276000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>3676000</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7473000</v>
+      </c>
+      <c r="E59" s="3">
         <v>7130000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7376000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7786000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7915000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7602000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7610000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7700000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8220000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8281000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8496000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8982000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>9611000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>9289000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>9875000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>9475000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>10769000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>10531000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>11164000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>11525000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>12206000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>11842000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>11933000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>11583000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>13055000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>10657000</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11469000</v>
+      </c>
+      <c r="E60" s="3">
         <v>11534000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>10996000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>11613000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>11027000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>11825000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>12691000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>12089000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13164000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12103000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11751000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>12322000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>13674000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>14107000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>14452000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>14028000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>14322000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>14830000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>14215000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>14756000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>17921000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>16943000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>15457000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>15903000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>18488000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>19286000</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>19103000</v>
+      </c>
+      <c r="E61" s="3">
         <v>18497000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>20363000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>20840000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>21617000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>21037000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>21602000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>22288000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>22731000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>23515000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>24616000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>24473000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>24562000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>23812000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>25955000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>25828000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>26691000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>26792000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>28949000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>29434000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>28827000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>31970500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>33806000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>32691000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>32522000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>33179000</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4743000</v>
+      </c>
+      <c r="E62" s="3">
         <v>4702000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4745000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4346000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3778000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3538000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3591000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3652000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3684000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3527000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3800000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3947000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4171000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4402000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3766000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4177000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3876000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4305000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4498000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>4889000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>5122000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>6873500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>7484000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>6937000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>7054000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>9254000</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4744,8 +4892,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4824,8 +4975,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4904,88 +5058,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>36109000</v>
+      </c>
+      <c r="E66" s="3">
         <v>35484000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>36895000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>37715000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>37388000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>37384000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>38871000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>39004000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>40614000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>40144000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>41139000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>41799000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>43498000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>43455000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>45301000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>45122000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>45976000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>47331000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>49092000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>50560000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>53256000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>57411000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>58361000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>57253000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>59720000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>63618000</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5014,8 +5174,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5094,8 +5255,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5174,8 +5338,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5228,19 +5395,19 @@
         <v>0</v>
       </c>
       <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
         <v>3825000</v>
       </c>
-      <c r="U70" s="3">
+      <c r="V70" s="3">
         <v>3760000</v>
       </c>
-      <c r="V70" s="3">
+      <c r="W70" s="3">
         <v>3696000</v>
       </c>
-      <c r="W70" s="3">
+      <c r="X70" s="3">
         <v>3631000</v>
-      </c>
-      <c r="X70" s="3">
-        <v>3620000</v>
       </c>
       <c r="Y70" s="3">
         <v>3620000</v>
@@ -5254,8 +5421,11 @@
       <c r="AB70" s="3">
         <v>3620000</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>3620000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5334,88 +5504,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-12882000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-11660000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-11716000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-11484000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-10529000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-10370000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-10662000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-10869000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-10946000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-11096000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-6747000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-6887000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-6956000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-7066000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-6752000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-6063000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-5958000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-3072000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-2864000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-2688000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-3803000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>7873000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>7430000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>13809000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>13607000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>14991000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5494,8 +5670,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5574,8 +5753,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5654,88 +5836,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7897000</v>
+      </c>
+      <c r="E76" s="3">
         <v>8768000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>9037000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9344000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>10278000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10467000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10324000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10000000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10026000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9593000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>13852000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>13531000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>13972000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>13791000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14123000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>14732000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>14707000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>13905000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>14178000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>14925000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>13728000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>25051000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>24374000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>30403000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>29717000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>31509000</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5814,173 +6002,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1221000</v>
+      </c>
+      <c r="E81" s="3">
         <v>56000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-232000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-955000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-159000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>292000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>207000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>77000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>150000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4349000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>140000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>69000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>109000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-314000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-689000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-105000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2940000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-283000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-241000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1055000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-11600000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>530000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-6035000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>580000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-1038000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6009,88 +6206,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>306000</v>
+      </c>
+      <c r="E83" s="3">
         <v>321000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>358000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>323000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>320000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>329000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>305000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>376000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>395000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>381000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>382000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>399000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>416000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>413000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>450000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>443000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>382000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>474000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>479000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>507000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>528000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>527000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>577000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>480000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>332000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>577000</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6169,8 +6370,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6249,8 +6453,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6329,8 +6536,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6409,8 +6619,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6489,88 +6702,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>973000</v>
+      </c>
+      <c r="E89" s="3">
         <v>544000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>122000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-49000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>456000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>529000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>218000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-405000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>331000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>307000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>273000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>305000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>538000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>325000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-227000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>112000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>367000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>421000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>162000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1496000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1179000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1117000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>741000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>470000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1425000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1461000</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6599,88 +6818,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-142000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-122000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-127000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-157000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-153000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-146000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-113000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-150000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-176000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-143000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-131000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-128000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-119000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-169000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-112000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-125000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-213000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-139000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-136000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-163000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-267000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-212000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-193000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-202000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-333000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-221000</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6759,8 +6982,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6839,88 +7065,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>168000</v>
+      </c>
+      <c r="E94" s="3">
         <v>147000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>180000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>161000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>246000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>288000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>481000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>508000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>141000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>157000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>313000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>252000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>430000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>224000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>429000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>272000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>74000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>347000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>406000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>1039000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>1912000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>744000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-392000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>1182000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-797000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-32301000</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6949,8 +7181,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7009,28 +7242,31 @@
         <v>0</v>
       </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-12000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-87000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-123000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-345000</v>
-      </c>
-      <c r="Z96" s="3">
-        <v>-346000</v>
       </c>
       <c r="AA96" s="3">
         <v>-346000</v>
       </c>
       <c r="AB96" s="3">
+        <v>-346000</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-340000</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7109,8 +7345,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7189,8 +7428,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7269,244 +7511,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-711000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-440000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-338000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-501000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1177000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-493000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-125000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1057000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-700000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-241000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1461000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-35000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-189000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-499000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-705000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-56000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2091000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-2506000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-825000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-651000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-1768000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-701000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>25372000</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>146000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-84000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-123000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-62000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-48000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-31000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-5000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-44000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>18000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>15000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-28000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>7000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>25000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-4000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-35000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-49000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-69000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>11000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>18000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>7000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>1000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>28000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-496000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>41000</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>576000</v>
+      </c>
+      <c r="E102" s="3">
         <v>167000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-159000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>52000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>153000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-391000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>693000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-434000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>350000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-575000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>598000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-171000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>734000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-924000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>192000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>191000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-93000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>14000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>443000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>455000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>283000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>81000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-301000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-88000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-569000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-5427000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TEVA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TEVA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>TEVA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,367 +665,379 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3661000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3884000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3595000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3786000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3661000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4100000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3887000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3910000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3982000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4453000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3978000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3870000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4357000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3991000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4093000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4177000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4149000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4559000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4529000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4701000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5065000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>5398000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>5617000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>5720000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>5650000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>6492000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>5563000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2015000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1784000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1885000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1958000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1859000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1975000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1989000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1987000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2063000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2372000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2128000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2091000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2279000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2033000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2229000</v>
-      </c>
-      <c r="R9" s="3">
-        <v>2258000</v>
       </c>
       <c r="S9" s="3">
         <v>2258000</v>
       </c>
       <c r="T9" s="3">
+        <v>2258000</v>
+      </c>
+      <c r="U9" s="3">
         <v>2693000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2552000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2668000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2750000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3127000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2967000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2865000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>2811000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>3102000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>2762000</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1646000</v>
+      </c>
+      <c r="E10" s="3">
         <v>2100000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1710000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1828000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1802000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2125000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1898000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1923000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1919000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2081000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1850000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1779000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2078000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1958000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1864000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1919000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1891000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1866000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1977000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2033000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2315000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2271000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2650000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2855000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>2839000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>3390000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>2801000</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1055,91 +1067,95 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>234000</v>
+      </c>
+      <c r="E12" s="3">
         <v>210000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>175000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>228000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>225000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>249000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>222000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>243000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>254000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>296000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>238000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>242000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>221000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>232000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>487000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>276000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>261000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>295000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>311000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>290000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>317000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>346000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>531000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>469000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>432000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>684000</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>663000</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1221,135 +1237,141 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>561000</v>
+      </c>
+      <c r="E14" s="3">
         <v>1854000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>321000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1683000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1502000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>893000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>183000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>247000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>360000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>374000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>5077000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>516000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>764000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>561000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>832000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1323000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>561000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>3804000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1165000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>855000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-417000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>13850000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>520000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>6842000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>205000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>1508000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>720000</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="3">
         <v>20000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>21000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>22000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>23000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>24000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>25000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>27000</v>
-      </c>
-      <c r="L15" s="3">
-        <v>31000</v>
       </c>
       <c r="M15" s="3">
         <v>31000</v>
       </c>
       <c r="N15" s="3">
+        <v>31000</v>
+      </c>
+      <c r="O15" s="3">
         <v>30000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>35000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>34000</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>35000</v>
       </c>
       <c r="R15" s="3">
         <v>35000</v>
@@ -1358,28 +1380,28 @@
         <v>35000</v>
       </c>
       <c r="T15" s="3">
+        <v>35000</v>
+      </c>
+      <c r="U15" s="3">
         <v>24000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>51000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>41000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>46000</v>
       </c>
-      <c r="X15" s="3">
-        <v>0</v>
-      </c>
       <c r="Y15" s="3">
         <v>0</v>
       </c>
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-      <c r="AA15" s="3" t="s">
-        <v>11</v>
+      <c r="AA15" s="3">
+        <v>0</v>
       </c>
       <c r="AB15" s="3" t="s">
         <v>11</v>
@@ -1387,8 +1409,11 @@
       <c r="AC15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1415,174 +1440,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3659000</v>
+      </c>
+      <c r="E17" s="3">
         <v>4739000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3176000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4735000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4374000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4022000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3264000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3328000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3548000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4048000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8320000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3697000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4166000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3843000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4174000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4821000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4015000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7709000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4513000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4715000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3607000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>18415000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>5239000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>11462000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>4755000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>6629000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>4798000</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-855000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>419000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-949000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-713000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>78000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>623000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>582000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>434000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>405000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4342000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>173000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>191000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>148000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-81000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-644000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>134000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-3150000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>16000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-14000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1458000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-13017000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>378000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-5742000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>895000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-137000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>765000</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1612,203 +1644,210 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-9000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-23000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>14000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-20000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-73000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-9000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-34000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-51000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-27000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>124000</v>
-      </c>
-      <c r="N20" s="3">
-        <v>17000</v>
       </c>
       <c r="O20" s="3">
         <v>17000</v>
       </c>
       <c r="P20" s="3">
+        <v>17000</v>
+      </c>
+      <c r="Q20" s="3">
         <v>22000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>8000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>20000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>9000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-6000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>11000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-5000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>14000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>30000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-40000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>290000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-56000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-777000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-150000</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>306000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-558000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>717000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-577000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-410000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>325000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>943000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>853000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>759000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>773000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3837000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>572000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>607000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>586000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>340000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-174000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>586000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-2774000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>501000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>460000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1979000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-12459000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>865000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-4875000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1319000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-582000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1192000</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>260000</v>
+      </c>
+      <c r="E22" s="3">
         <v>237000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>230000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>225000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>238000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>180000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>232000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>240000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>239000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>241000</v>
       </c>
       <c r="M22" s="3">
         <v>241000</v>
@@ -1820,215 +1859,224 @@
         <v>241000</v>
       </c>
       <c r="P22" s="3">
+        <v>241000</v>
+      </c>
+      <c r="Q22" s="3">
         <v>209000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>219000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>226000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>227000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>231000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>240000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>231000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>218000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>221000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>219000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>526000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>151000</v>
-      </c>
-      <c r="AB22" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="AC22" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-258000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1101000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>166000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1160000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-971000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-175000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>382000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>308000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>144000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>137000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4459000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-51000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-33000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-39000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-292000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-850000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-84000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-3387000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-213000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-250000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1254000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-13208000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>119000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-5978000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>688000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-914000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>615000</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E24" s="3">
         <v>154000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>107000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-900000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-24000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>76000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>98000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>62000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-21000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>16000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-104000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-59000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-119000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>11000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-179000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>9000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-236000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-26000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-76000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>46000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-410000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-494000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-22000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>54000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>57000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>207000</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2110,174 +2158,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-239000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1255000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>59000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-260000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-973000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-151000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>306000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>210000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>82000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>158000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4475000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>53000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>26000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>80000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-303000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-671000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-93000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-3151000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-187000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-174000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1208000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-12798000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>613000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-5956000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>634000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-971000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>408000</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-205000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1221000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>56000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-232000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-955000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-159000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>292000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>207000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>77000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>150000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4349000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>140000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>69000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>109000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-314000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-689000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-105000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2843000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-283000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-241000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1055000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-12661000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>530000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-6035000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>580000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-1038000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2359,8 +2416,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2394,8 +2454,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>11</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>11</v>
@@ -2412,11 +2472,11 @@
       <c r="S29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U29" s="3">
         <v>-97000</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>11</v>
@@ -2424,11 +2484,11 @@
       <c r="W29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y29" s="3">
         <v>1061000</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>11</v>
@@ -2442,8 +2502,11 @@
       <c r="AC29" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2525,8 +2588,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2608,174 +2674,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>9000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>23000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-14000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>20000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>73000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>9000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>34000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>51000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>27000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-124000</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-17000</v>
       </c>
       <c r="O32" s="3">
         <v>-17000</v>
       </c>
       <c r="P32" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-22000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-8000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-20000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-9000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>6000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-11000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>5000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-14000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-30000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>40000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-290000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>56000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>777000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>150000</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-205000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1221000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>56000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-232000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-955000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-159000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>292000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>207000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>77000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>150000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4349000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>140000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>69000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>109000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-314000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-689000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-105000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2940000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-283000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-241000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1055000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-11600000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>530000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-6035000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>580000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-1038000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2857,179 +2932,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-205000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1221000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>56000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-232000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-955000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-159000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>292000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>207000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>77000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>150000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4349000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>140000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>69000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>109000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-314000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-689000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-105000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2940000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-283000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-241000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1055000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-11600000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>530000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-6035000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>580000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-1038000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3059,8 +3143,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3090,91 +3175,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2143000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2801000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2225000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2058000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2175000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2165000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2045000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2436000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1743000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2177000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1827000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2402000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1804000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1975000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1241000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2165000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1973000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1782000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1875000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1861000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1418000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>963000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>680000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>599000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>900000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>988000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>1557000</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3256,340 +3345,355 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3435000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3696000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3730000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4471000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4253000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4529000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4046000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4488000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4572000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4581000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4385000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4545000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5189000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5676000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5254000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5260000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5108000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5822000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5665000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>6061000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>6289000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>7128000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>7424000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>7320000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>7264000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>7523000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>8071000</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4118000</v>
+      </c>
+      <c r="E44" s="3">
         <v>3833000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3859000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4049000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4012000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3818000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4167000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4362000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4406000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4403000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4516000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4361000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4290000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4422000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4636000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4850000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4782000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4731000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4866000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>4971000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>5113000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>4924000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>5060000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>5132000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>4999000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>4954000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>5349000</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1805000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1721000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1639000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1586000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2011000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2061000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1896000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1536000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1680000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1844000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1432000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1473000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1601000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1391000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1411000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1530000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1568000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1459000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1475000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1818000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1867000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2367000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>3062000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1544000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1672000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>3763000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>2409000</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>11501000</v>
+      </c>
+      <c r="E46" s="3">
         <v>12051000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>11453000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>12164000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>12451000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>12573000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>12154000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>12822000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>12401000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>13005000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>12160000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>12781000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>12884000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>13464000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>12542000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>13805000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>13431000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>13794000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>13881000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>14711000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>14687000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>15382000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>16226000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>14595000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>14835000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>17228000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>17386000</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3671,174 +3775,183 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6171000</v>
+      </c>
+      <c r="E48" s="3">
         <v>6158000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5990000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6181000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6396000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6477000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6547000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6658000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6641000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6855000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6709000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6611000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6710000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6950000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7111000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>7232000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>7302000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6868000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>7101000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>7213000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>7420000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>7673000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>8001000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>8043000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>8160000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>8073000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>8379000</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>23763000</v>
+      </c>
+      <c r="E49" s="3">
         <v>23903000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>24826000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>25537000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>27102000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>27506000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>28011000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>28541000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>28747000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>29547000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>29536000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>34556000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>34746000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>36078000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>36535000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>37348000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>38013000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>38922000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>42930000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>43860000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>45779000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>46054000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>60270000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>61699000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>66215000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>65896000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>69853000</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3920,8 +4033,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4003,91 +4119,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2021000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1894000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1983000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2050000</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1110000</v>
       </c>
       <c r="H52" s="3">
         <v>1110000</v>
       </c>
       <c r="I52" s="3">
+        <v>1110000</v>
+      </c>
+      <c r="J52" s="3">
         <v>1139000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1174000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1215000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1233000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1332000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1043000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>990000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>978000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1058000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1039000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1108000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1099000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1149000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1246000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1295000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1506000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1585000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>2018000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>2066000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1860000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>3129000</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4169,91 +4291,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>43456000</v>
+      </c>
+      <c r="E54" s="3">
         <v>44006000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>44252000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>45932000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>47059000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>47666000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>47851000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>49195000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>49004000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>50640000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>49737000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>54991000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>55330000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>57470000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>57246000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>59424000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>59854000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>60683000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>65061000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>67030000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>69181000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>70615000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>86082000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>86355000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>91276000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>93057000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>98747000</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4283,8 +4411,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4314,506 +4443,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2381000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1887000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1635000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1901000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1750000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1686000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1514000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1551000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1692000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1756000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1716000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1606000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1710000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1718000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1688000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1806000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1763000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1853000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1626000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1779000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1929000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2069000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2370000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2278000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>2378000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>2157000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>4953000</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1023000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2109000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2769000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1719000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2077000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1426000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2709000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3530000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2697000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3188000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2106000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1649000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1630000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2345000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3130000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2771000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2790000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1700000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2673000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1272000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1302000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3646000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>2731000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1246000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1942000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>3276000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>3676000</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7007000</v>
+      </c>
+      <c r="E59" s="3">
         <v>7473000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7130000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7376000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7786000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7915000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7602000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7610000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7700000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8220000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8281000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8496000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>8982000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>9611000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>9289000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>9875000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>9475000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>10769000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>10531000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>11164000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>11525000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>12206000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>11842000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>11933000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>11583000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>13055000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>10657000</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10411000</v>
+      </c>
+      <c r="E60" s="3">
         <v>11469000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>11534000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>10996000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>11613000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>11027000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>11825000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>12691000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>12089000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>13164000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>12103000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11751000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>12322000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>13674000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>14107000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>14452000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>14028000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>14322000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>14830000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>14215000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>14756000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>17921000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>16943000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>15457000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>15903000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>18488000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>19286000</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>19668000</v>
+      </c>
+      <c r="E61" s="3">
         <v>19103000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>18497000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>20363000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>20840000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>21617000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>21037000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>21602000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>22288000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>22731000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>23515000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>24616000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>24473000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>24562000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>23812000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>25955000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>25828000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>26691000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>26792000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>28949000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>29434000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>28827000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>31970500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>33806000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>32691000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>32522000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>33179000</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4765000</v>
+      </c>
+      <c r="E62" s="3">
         <v>4743000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4702000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4745000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4346000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3778000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3538000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3591000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3652000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3684000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3527000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3800000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3947000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4171000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4402000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3766000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4177000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3876000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4305000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>4498000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>4889000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>5122000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>6873500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>7484000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>6937000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>7054000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>9254000</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4895,8 +5043,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4978,8 +5129,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5061,91 +5215,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>35595000</v>
+      </c>
+      <c r="E66" s="3">
         <v>36109000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>35484000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>36895000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>37715000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>37388000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>37384000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>38871000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>39004000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>40614000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>40144000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>41139000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>41799000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>43498000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>43455000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>45301000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>45122000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>45976000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>47331000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>49092000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>50560000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>53256000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>57411000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>58361000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>57253000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>59720000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>63618000</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5175,8 +5335,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5258,8 +5419,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5341,8 +5505,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5398,19 +5565,19 @@
         <v>0</v>
       </c>
       <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
         <v>3825000</v>
       </c>
-      <c r="V70" s="3">
+      <c r="W70" s="3">
         <v>3760000</v>
       </c>
-      <c r="W70" s="3">
+      <c r="X70" s="3">
         <v>3696000</v>
       </c>
-      <c r="X70" s="3">
+      <c r="Y70" s="3">
         <v>3631000</v>
-      </c>
-      <c r="Y70" s="3">
-        <v>3620000</v>
       </c>
       <c r="Z70" s="3">
         <v>3620000</v>
@@ -5424,8 +5591,11 @@
       <c r="AC70" s="3">
         <v>3620000</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>3620000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5507,91 +5677,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-13086000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-12882000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-11660000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-11716000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-11484000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-10529000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-10370000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-10662000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-10869000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-10946000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-11096000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-6747000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-6887000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-6956000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-7066000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-6752000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-6063000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-5958000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-3072000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-2864000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-2688000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-3803000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>7873000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>7430000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>13809000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>13607000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>14991000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5673,8 +5849,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5756,8 +5935,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5839,91 +6021,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7861000</v>
+      </c>
+      <c r="E76" s="3">
         <v>7897000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8768000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9037000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>9344000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10278000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10467000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10324000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10000000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10026000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9593000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>13852000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>13531000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>13972000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>13791000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>14123000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>14732000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>14707000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>13905000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>14178000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>14925000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>13728000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>25051000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>24374000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>30403000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>29717000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>31509000</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6005,179 +6193,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-205000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1221000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>56000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-232000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-955000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-159000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>292000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>207000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>77000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>150000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4349000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>140000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>69000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>109000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-314000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-689000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-105000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2940000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-283000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-241000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1055000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-11600000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>530000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-6035000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>580000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-1038000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6207,91 +6404,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>304000</v>
+      </c>
+      <c r="E83" s="3">
         <v>306000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>321000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>358000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>323000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>320000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>329000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>305000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>376000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>395000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>381000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>382000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>399000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>416000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>413000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>450000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>443000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>382000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>474000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>479000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>507000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>528000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>527000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>577000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>480000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>332000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>577000</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6373,8 +6574,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6456,8 +6660,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6539,8 +6746,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6622,8 +6832,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6705,91 +6918,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-145000</v>
+      </c>
+      <c r="E89" s="3">
         <v>973000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>544000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>122000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-49000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>456000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>529000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>218000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-405000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>331000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>307000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>273000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>305000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>538000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>325000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-227000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>112000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>367000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>421000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>162000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1496000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1179000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1117000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>741000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>470000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1425000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>1461000</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6819,91 +7038,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-139000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-142000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-122000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-127000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-157000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-153000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-146000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-113000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-150000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-176000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-143000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-131000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-128000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-119000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-169000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-112000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-125000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-213000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-139000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-136000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-163000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-267000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-212000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-193000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-202000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-333000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-221000</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6985,8 +7208,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7068,91 +7294,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>181000</v>
+      </c>
+      <c r="E94" s="3">
         <v>168000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>147000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>180000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>161000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>246000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>288000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>481000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>508000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>141000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>157000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>313000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>252000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>430000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>224000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>429000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>272000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>74000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>347000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>406000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>1039000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>1912000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>744000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-392000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>1182000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-797000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-32301000</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7182,8 +7414,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7245,28 +7478,31 @@
         <v>0</v>
       </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-12000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-87000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-123000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-345000</v>
-      </c>
-      <c r="AA96" s="3">
-        <v>-346000</v>
       </c>
       <c r="AB96" s="3">
         <v>-346000</v>
       </c>
       <c r="AC96" s="3">
+        <v>-346000</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-340000</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7348,8 +7584,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7431,8 +7670,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7514,253 +7756,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-706000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-711000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-440000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-338000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-501000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1177000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-493000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-125000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1057000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-700000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-241000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1461000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-35000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-189000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-499000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-705000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-56000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-2091000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-2506000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-825000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-651000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-1768000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-701000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>25372000</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E101" s="3">
         <v>146000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-84000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-123000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-62000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-48000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-31000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-5000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-44000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>3000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>18000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>15000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-28000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>7000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-12000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>25000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-4000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-35000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-49000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-69000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>11000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>18000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>7000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>1000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>28000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-496000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>41000</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-658000</v>
+      </c>
+      <c r="E102" s="3">
         <v>576000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>167000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-159000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>52000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>153000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-391000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>693000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-434000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>350000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-575000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>598000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-171000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>734000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-924000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>192000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>191000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-93000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>14000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>443000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>455000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>283000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>81000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-301000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-88000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-569000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-5427000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TEVA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TEVA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>TEVA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,379 +665,391 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3878000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3661000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3884000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3595000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3786000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3661000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4100000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3887000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3910000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3982000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4453000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3978000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3870000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4357000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3991000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4093000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4177000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4149000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4559000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4529000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4701000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>5065000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>5398000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>5617000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>5720000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>5650000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>6492000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>5563000</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1959000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2015000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1784000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1885000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1958000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1859000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1975000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1989000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1987000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2063000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2372000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2128000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2091000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2279000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2033000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2229000</v>
-      </c>
-      <c r="S9" s="3">
-        <v>2258000</v>
       </c>
       <c r="T9" s="3">
         <v>2258000</v>
       </c>
       <c r="U9" s="3">
+        <v>2258000</v>
+      </c>
+      <c r="V9" s="3">
         <v>2693000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2552000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2668000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2750000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3127000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2967000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>2865000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>2811000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>3102000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>2762000</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1919000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1646000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2100000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1710000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1828000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1802000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2125000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1898000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1923000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1919000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2081000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1850000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1779000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2078000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1958000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1864000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1919000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1891000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1866000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1977000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2033000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2315000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2271000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2650000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>2855000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>2839000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>3390000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>2801000</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1068,94 +1080,98 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>240000</v>
+      </c>
+      <c r="E12" s="3">
         <v>234000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>210000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>175000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>228000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>225000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>249000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>222000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>243000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>254000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>296000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>238000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>242000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>221000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>232000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>487000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>276000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>261000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>295000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>311000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>290000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>317000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>346000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>531000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>469000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>432000</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>684000</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>663000</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1240,94 +1256,100 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>1448000</v>
+      </c>
+      <c r="E14" s="3">
         <v>561000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1854000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>321000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1683000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1502000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>893000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>183000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>247000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>360000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>374000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>5077000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>516000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>764000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>561000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>832000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1323000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>561000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>3804000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>1165000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>855000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>-417000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>13850000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>520000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>6842000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>205000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>1508000</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>720000</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1337,44 +1359,44 @@
       <c r="E15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="3">
         <v>20000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>21000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>22000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>23000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>24000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>25000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>27000</v>
-      </c>
-      <c r="M15" s="3">
-        <v>31000</v>
       </c>
       <c r="N15" s="3">
         <v>31000</v>
       </c>
       <c r="O15" s="3">
+        <v>31000</v>
+      </c>
+      <c r="P15" s="3">
         <v>30000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>35000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>34000</v>
-      </c>
-      <c r="R15" s="3">
-        <v>35000</v>
       </c>
       <c r="S15" s="3">
         <v>35000</v>
@@ -1383,28 +1405,28 @@
         <v>35000</v>
       </c>
       <c r="U15" s="3">
+        <v>35000</v>
+      </c>
+      <c r="V15" s="3">
         <v>24000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>51000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>41000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>46000</v>
       </c>
-      <c r="Y15" s="3">
-        <v>0</v>
-      </c>
       <c r="Z15" s="3">
         <v>0</v>
       </c>
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-      <c r="AB15" s="3" t="s">
-        <v>11</v>
+      <c r="AB15" s="3">
+        <v>0</v>
       </c>
       <c r="AC15" s="3" t="s">
         <v>11</v>
@@ -1412,8 +1434,11 @@
       <c r="AD15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1441,180 +1466,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4524000</v>
+      </c>
+      <c r="E17" s="3">
         <v>3659000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4739000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3176000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4735000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4374000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4022000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3264000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3328000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3548000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4048000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8320000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3697000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4166000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3843000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4174000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4821000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4015000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>7709000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4513000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4715000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3607000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>18415000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>5239000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>11462000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>4755000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>6629000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>4798000</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-646000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-855000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>419000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-949000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-713000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>78000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>623000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>582000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>434000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>405000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-4342000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>173000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>191000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>148000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-81000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-644000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>134000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-3150000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>16000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-14000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1458000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-13017000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>378000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-5742000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>895000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-137000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>765000</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1645,212 +1677,219 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-52000</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-9000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-23000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>14000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-20000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-73000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-9000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-34000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-51000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-27000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>124000</v>
-      </c>
-      <c r="O20" s="3">
-        <v>17000</v>
       </c>
       <c r="P20" s="3">
         <v>17000</v>
       </c>
       <c r="Q20" s="3">
+        <v>17000</v>
+      </c>
+      <c r="R20" s="3">
         <v>22000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>8000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>20000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>9000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-6000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>11000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-5000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>14000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>30000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-40000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>290000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-56000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-777000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-150000</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-398000</v>
+      </c>
+      <c r="E21" s="3">
         <v>306000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-558000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>717000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-577000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-410000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>325000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>943000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>853000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>759000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>773000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3837000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>572000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>607000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>586000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>340000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-174000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>586000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-2774000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>501000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>460000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1979000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-12459000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>865000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-4875000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1319000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-582000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>1192000</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>216000</v>
+      </c>
+      <c r="E22" s="3">
         <v>260000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>237000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>230000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>225000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>238000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>180000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>232000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>240000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>239000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>241000</v>
       </c>
       <c r="N22" s="3">
         <v>241000</v>
@@ -1862,221 +1901,230 @@
         <v>241000</v>
       </c>
       <c r="Q22" s="3">
+        <v>241000</v>
+      </c>
+      <c r="R22" s="3">
         <v>209000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>219000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>226000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>227000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>231000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>240000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>231000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>218000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>221000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>219000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>526000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>151000</v>
-      </c>
-      <c r="AC22" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="AD22" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-914000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-258000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1101000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>166000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1160000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-971000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-175000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>382000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>308000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>144000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>137000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4459000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-51000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-33000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-39000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-292000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-850000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-84000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-3387000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-213000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-250000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1254000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-13208000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>119000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-5978000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>688000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-914000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>615000</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-19000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>154000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>107000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-900000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-24000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>76000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>98000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>62000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-21000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>16000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-104000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-59000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-119000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>11000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-179000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>9000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-236000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-26000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-76000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>46000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-410000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-494000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-22000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>54000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>57000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>207000</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2161,180 +2209,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-898000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-239000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1255000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>59000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-260000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-973000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-151000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>306000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>210000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>82000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>158000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4475000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>53000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>26000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>80000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-303000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-671000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-93000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-3151000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-187000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-174000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1208000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-12798000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>613000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-5956000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>634000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-971000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>408000</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-863000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-205000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1221000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>56000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-232000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-955000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-159000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>292000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>207000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>77000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>150000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4349000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>140000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>69000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>109000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-314000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-689000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-105000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2843000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-283000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-241000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1055000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-12661000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>530000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-6035000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>580000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-1038000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2419,8 +2476,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2457,8 +2517,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>11</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>11</v>
@@ -2475,11 +2535,11 @@
       <c r="T29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V29" s="3">
         <v>-97000</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>11</v>
@@ -2487,11 +2547,11 @@
       <c r="X29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z29" s="3">
         <v>1061000</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>11</v>
@@ -2505,8 +2565,11 @@
       <c r="AD29" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2591,8 +2654,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2677,180 +2743,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>52000</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>9000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>23000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-14000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>20000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>73000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>9000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>34000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>51000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>27000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-124000</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-17000</v>
       </c>
       <c r="P32" s="3">
         <v>-17000</v>
       </c>
       <c r="Q32" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="R32" s="3">
         <v>-22000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-8000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-20000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-9000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>6000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-11000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>5000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-14000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-30000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>40000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-290000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>56000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>777000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>150000</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-863000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-205000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1221000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>56000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-232000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-955000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-159000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>292000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>207000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>77000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>150000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4349000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>140000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>69000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>109000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-314000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-689000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-105000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2940000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-283000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-241000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1055000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-11600000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>530000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-6035000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>580000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-1038000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2935,185 +3010,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-863000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-205000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1221000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>56000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-232000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-955000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-159000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>292000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>207000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>77000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>150000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4349000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>140000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>69000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>109000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-314000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-689000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-105000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2940000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-283000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-241000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1055000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-11600000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>530000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-6035000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>580000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-1038000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3144,8 +3228,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3176,94 +3261,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2669000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2143000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2801000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2225000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2058000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2175000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2165000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2045000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2436000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1743000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2177000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1827000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2402000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1804000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1975000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1241000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2165000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1973000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1782000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1875000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1861000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1418000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>963000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>680000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>599000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>900000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>988000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>1557000</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3348,352 +3437,367 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3539000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3435000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3696000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3730000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4471000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4253000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4529000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4046000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4488000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4572000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4581000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4385000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4545000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5189000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5676000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5254000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5260000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5108000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5822000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5665000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>6061000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>6289000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>7128000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>7424000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>7320000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>7264000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>7523000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>8071000</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4109000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4118000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3833000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3859000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4049000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4012000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3818000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4167000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4362000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4406000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4403000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4516000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4361000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4290000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4422000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4636000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4850000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4782000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4731000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>4866000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>4971000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>5113000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>4924000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>5060000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>5132000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>4999000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>4954000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>5349000</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1771000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1805000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1721000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1639000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1586000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2011000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2061000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1896000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1536000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1680000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1844000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1432000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1473000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1601000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1391000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1411000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1530000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1568000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1459000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1475000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1818000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1867000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>2367000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>3062000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1544000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1672000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>3763000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>2409000</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12088000</v>
+      </c>
+      <c r="E46" s="3">
         <v>11501000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>12051000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>11453000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>12164000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>12451000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>12573000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>12154000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>12822000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>12401000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>13005000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>12160000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>12781000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>12884000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>13464000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>12542000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>13805000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>13431000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>13794000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>13881000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>14711000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>14687000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>15382000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>16226000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>14595000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>14835000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>17228000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>17386000</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3778,180 +3882,189 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6130000</v>
+      </c>
+      <c r="E48" s="3">
         <v>6171000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6158000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5990000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6181000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6396000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6477000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6547000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6658000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6641000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6855000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6709000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6611000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6710000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6950000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>7111000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>7232000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>7302000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>6868000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>7101000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>7213000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>7420000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>7673000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>8001000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>8043000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>8160000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>8073000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>8379000</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>22856000</v>
+      </c>
+      <c r="E49" s="3">
         <v>23763000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>23903000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>24826000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>25537000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>27102000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>27506000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>28011000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>28541000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>28747000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>29547000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>29536000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>34556000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>34746000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>36078000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>36535000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>37348000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>38013000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>38922000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>42930000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>43860000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>45779000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>46054000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>60270000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>61699000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>66215000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>65896000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>69853000</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4036,8 +4149,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4122,8 +4238,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4131,85 +4250,88 @@
         <v>2021000</v>
       </c>
       <c r="E52" s="3">
+        <v>2021000</v>
+      </c>
+      <c r="F52" s="3">
         <v>1894000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1983000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2050000</v>
-      </c>
-      <c r="H52" s="3">
-        <v>1110000</v>
       </c>
       <c r="I52" s="3">
         <v>1110000</v>
       </c>
       <c r="J52" s="3">
+        <v>1110000</v>
+      </c>
+      <c r="K52" s="3">
         <v>1139000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1174000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1215000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1233000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1332000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1043000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>990000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>978000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1058000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1039000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1108000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1099000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1149000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1246000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1295000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1506000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1585000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>2018000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>2066000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>1860000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>3129000</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4294,94 +4416,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>43095000</v>
+      </c>
+      <c r="E54" s="3">
         <v>43456000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>44006000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>44252000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>45932000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>47059000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>47666000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>47851000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>49195000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>49004000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>50640000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>49737000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>54991000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>55330000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>57470000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>57246000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>59424000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>59854000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>60683000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>65061000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>67030000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>69181000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>70615000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>86082000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>86355000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>91276000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>93057000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>98747000</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4412,8 +4540,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4444,524 +4573,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2508000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2381000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1887000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1635000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1901000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1750000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1686000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1514000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1551000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1692000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1756000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1716000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1606000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1710000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1718000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1688000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1806000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1763000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1853000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1626000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1779000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1929000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2069000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2370000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>2278000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>2378000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>2157000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>4953000</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1980000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1023000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2109000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2769000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1719000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2077000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1426000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2709000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3530000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2697000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3188000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2106000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1649000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1630000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2345000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3130000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2771000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2790000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1700000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2673000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1272000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1302000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>3646000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>2731000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1246000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1942000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>3276000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>3676000</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7355000</v>
+      </c>
+      <c r="E59" s="3">
         <v>7007000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7473000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7130000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7376000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7786000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7915000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7602000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7610000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7700000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8220000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8281000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>8496000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>8982000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>9611000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>9289000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>9875000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>9475000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>10769000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>10531000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>11164000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>11525000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>12206000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>11842000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>11933000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>11583000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>13055000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>10657000</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11843000</v>
+      </c>
+      <c r="E60" s="3">
         <v>10411000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>11469000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>11534000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>10996000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>11613000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>11027000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>11825000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>12691000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12089000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>13164000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>12103000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>11751000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>12322000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>13674000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>14107000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>14452000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>14028000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>14322000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>14830000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>14215000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>14756000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>17921000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>16943000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>15457000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>15903000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>18488000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>19286000</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>18698000</v>
+      </c>
+      <c r="E61" s="3">
         <v>19668000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>19103000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>18497000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>20363000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>20840000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>21617000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>21037000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>21602000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>22288000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>22731000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>23515000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>24616000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>24473000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>24562000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>23812000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>25955000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>25828000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>26691000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>26792000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>28949000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>29434000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>28827000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>31970500</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>33806000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>32691000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>32522000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>33179000</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4846000</v>
+      </c>
+      <c r="E62" s="3">
         <v>4765000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4743000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4702000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4745000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4346000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3778000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3538000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3591000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3652000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3684000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3527000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3800000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3947000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4171000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4402000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3766000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4177000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3876000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>4305000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>4498000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>4889000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>5122000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>6873500</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>7484000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>6937000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>7054000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>9254000</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5046,8 +5194,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5132,8 +5283,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5218,94 +5372,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>36043000</v>
+      </c>
+      <c r="E66" s="3">
         <v>35595000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>36109000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>35484000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>36895000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>37715000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>37388000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>37384000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>38871000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>39004000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>40614000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>40144000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>41139000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>41799000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>43498000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>43455000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>45301000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>45122000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>45976000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>47331000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>49092000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>50560000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>53256000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>57411000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>58361000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>57253000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>59720000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>63618000</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5336,8 +5496,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5422,8 +5583,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5508,8 +5672,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5568,19 +5735,19 @@
         <v>0</v>
       </c>
       <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
         <v>3825000</v>
       </c>
-      <c r="W70" s="3">
+      <c r="X70" s="3">
         <v>3760000</v>
       </c>
-      <c r="X70" s="3">
+      <c r="Y70" s="3">
         <v>3696000</v>
       </c>
-      <c r="Y70" s="3">
+      <c r="Z70" s="3">
         <v>3631000</v>
-      </c>
-      <c r="Z70" s="3">
-        <v>3620000</v>
       </c>
       <c r="AA70" s="3">
         <v>3620000</v>
@@ -5594,8 +5761,11 @@
       <c r="AD70" s="3">
         <v>3620000</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>3620000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5680,94 +5850,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-13950000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-13086000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-12882000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-11660000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-11716000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-11484000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-10529000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-10370000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-10662000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-10869000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-10946000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-11096000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-6747000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-6887000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-6956000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-7066000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-6752000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-6063000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-5958000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-3072000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-2864000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-2688000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-3803000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>7873000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>7430000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>13809000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>13607000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>14991000</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5852,8 +6028,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5938,8 +6117,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6024,94 +6206,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7052000</v>
+      </c>
+      <c r="E76" s="3">
         <v>7861000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>7897000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8768000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>9037000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>9344000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10278000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10467000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10324000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10000000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10026000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9593000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>13852000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>13531000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>13972000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>13791000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>14123000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>14732000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>14707000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>13905000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>14178000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>14925000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>13728000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>25051000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>24374000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>30403000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>29717000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>31509000</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6196,185 +6384,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-863000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-205000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1221000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>56000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-232000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-955000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-159000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>292000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>207000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>77000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>150000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4349000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>140000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>69000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>109000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-314000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-689000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-105000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2940000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-283000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-241000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1055000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-11600000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>530000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-6035000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>580000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-1038000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6405,94 +6602,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>300000</v>
+      </c>
+      <c r="E83" s="3">
         <v>304000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>306000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>321000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>358000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>323000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>320000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>329000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>305000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>376000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>395000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>381000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>382000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>399000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>416000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>413000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>450000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>443000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>382000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>474000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>479000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>507000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>528000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>527000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>577000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>480000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>332000</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>577000</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6577,8 +6778,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6663,8 +6867,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6749,8 +6956,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6835,8 +7045,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6921,94 +7134,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>324000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-145000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>973000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>544000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>122000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-49000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>456000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>529000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>218000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-405000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>331000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>307000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>273000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>305000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>538000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>325000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-227000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>112000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>367000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>421000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>162000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1496000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1179000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1117000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>741000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>470000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>1425000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>1461000</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7039,94 +7258,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-119000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-139000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-142000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-122000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-127000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-157000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-153000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-146000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-113000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-150000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-176000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-143000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-131000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-128000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-119000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-169000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-112000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-125000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-213000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-139000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-136000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-163000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-267000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-212000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-193000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-202000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-333000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-221000</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7211,8 +7434,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7297,94 +7523,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>302000</v>
+      </c>
+      <c r="E94" s="3">
         <v>181000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>168000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>147000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>180000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>161000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>246000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>288000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>481000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>508000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>141000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>157000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>313000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>252000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>430000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>224000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>429000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>272000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>74000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>347000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>406000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>1039000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>1912000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>744000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-392000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>1182000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-797000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-32301000</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7415,8 +7647,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7481,28 +7714,31 @@
         <v>0</v>
       </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-12000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-87000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-123000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-345000</v>
-      </c>
-      <c r="AB96" s="3">
-        <v>-346000</v>
       </c>
       <c r="AC96" s="3">
         <v>-346000</v>
       </c>
       <c r="AD96" s="3">
+        <v>-346000</v>
+      </c>
+      <c r="AE96" s="3">
         <v>-340000</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7587,8 +7823,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7673,8 +7912,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7759,262 +8001,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-706000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-711000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-440000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-338000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-501000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1177000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-493000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-125000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1057000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-3000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-700000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-241000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1461000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-35000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-189000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-499000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-705000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-56000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-2091000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-2506000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-825000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-651000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-1768000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-701000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>25372000</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="E101" s="3">
         <v>12000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>146000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-84000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-123000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-62000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-48000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-31000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-5000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-44000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>3000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>18000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>15000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-28000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>7000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-12000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>25000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-4000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-35000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-49000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-69000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>11000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>18000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>7000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>1000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>28000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-496000</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>41000</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>494000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-658000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>576000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>167000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-159000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>52000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>153000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-391000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>693000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-434000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>350000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-575000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>598000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-171000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>734000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-924000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>192000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>191000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-93000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>14000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>443000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>455000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>283000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>81000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-301000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-88000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-569000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-5427000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TEVA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TEVA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>TEVA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,391 +665,403 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="15" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="16" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3850000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3878000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3661000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3884000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3595000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3786000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3661000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4100000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3887000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3910000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3982000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4453000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3978000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3870000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4357000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3991000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4093000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4177000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4149000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4559000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4529000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4701000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>5065000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>5398000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>5617000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>5720000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>5650000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>6492000</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>5563000</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1936000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1959000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2015000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1784000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1885000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1958000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1859000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1975000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1989000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1987000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2063000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2372000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2128000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2091000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2279000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2033000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2229000</v>
-      </c>
-      <c r="T9" s="3">
-        <v>2258000</v>
       </c>
       <c r="U9" s="3">
         <v>2258000</v>
       </c>
       <c r="V9" s="3">
+        <v>2258000</v>
+      </c>
+      <c r="W9" s="3">
         <v>2693000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2552000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2668000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2750000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3127000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>2967000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>2865000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>2811000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>3102000</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>2762000</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1914000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1919000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1646000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2100000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1710000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1828000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1802000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2125000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1898000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1923000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1919000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2081000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1850000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1779000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2078000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1958000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1864000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1919000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1891000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1866000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1977000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2033000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2315000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2271000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>2650000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>2855000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>2839000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>3390000</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>2801000</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1081,97 +1093,101 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>253000</v>
+      </c>
+      <c r="E12" s="3">
         <v>240000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>234000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>210000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>175000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>228000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>225000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>249000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>222000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>243000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>254000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>296000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>238000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>242000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>221000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>232000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>487000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>276000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>261000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>295000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>311000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>290000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>317000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>346000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>531000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>469000</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>432000</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>684000</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
         <v>663000</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1259,97 +1275,103 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>470000</v>
+      </c>
+      <c r="E14" s="3">
         <v>1448000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>561000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1854000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>321000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1683000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1502000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>893000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>183000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>247000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>360000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>374000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>5077000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>516000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>764000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>561000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>832000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1323000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>561000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>3804000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>1165000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>855000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>-417000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>13850000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>520000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>6842000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>205000</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>1508000</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>720000</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1362,44 +1384,44 @@
       <c r="F15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="3">
         <v>20000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>21000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>22000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>23000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>24000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>25000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>27000</v>
-      </c>
-      <c r="N15" s="3">
-        <v>31000</v>
       </c>
       <c r="O15" s="3">
         <v>31000</v>
       </c>
       <c r="P15" s="3">
+        <v>31000</v>
+      </c>
+      <c r="Q15" s="3">
         <v>30000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>35000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>34000</v>
-      </c>
-      <c r="S15" s="3">
-        <v>35000</v>
       </c>
       <c r="T15" s="3">
         <v>35000</v>
@@ -1408,28 +1430,28 @@
         <v>35000</v>
       </c>
       <c r="V15" s="3">
+        <v>35000</v>
+      </c>
+      <c r="W15" s="3">
         <v>24000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>51000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>41000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>46000</v>
       </c>
-      <c r="Z15" s="3">
-        <v>0</v>
-      </c>
       <c r="AA15" s="3">
         <v>0</v>
       </c>
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-      <c r="AC15" s="3" t="s">
-        <v>11</v>
+      <c r="AC15" s="3">
+        <v>0</v>
       </c>
       <c r="AD15" s="3" t="s">
         <v>11</v>
@@ -1437,8 +1459,11 @@
       <c r="AE15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1467,186 +1492,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3495000</v>
+      </c>
+      <c r="E17" s="3">
         <v>4524000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3659000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4739000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3176000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4735000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4374000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4022000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3264000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3328000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3548000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4048000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8320000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3697000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4166000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3843000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4174000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4821000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4015000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>7709000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4513000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4715000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3607000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>18415000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>5239000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>11462000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>4755000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>6629000</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>4798000</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>355000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-646000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-855000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>419000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-949000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-713000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>78000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>623000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>582000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>434000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>405000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-4342000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>173000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>191000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>148000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-81000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-644000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>134000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-3150000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>16000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-14000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1458000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-13017000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>378000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-5742000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>895000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-137000</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>765000</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1678,221 +1710,228 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-52000</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-9000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-23000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>14000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-20000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-73000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-9000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-34000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-51000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-27000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>124000</v>
-      </c>
-      <c r="P20" s="3">
-        <v>17000</v>
       </c>
       <c r="Q20" s="3">
         <v>17000</v>
       </c>
       <c r="R20" s="3">
+        <v>17000</v>
+      </c>
+      <c r="S20" s="3">
         <v>22000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>8000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>20000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>9000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-6000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>11000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-5000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>14000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>30000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-40000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>290000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-56000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-777000</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>-150000</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>605000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-398000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>306000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-558000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>717000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-577000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-410000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>325000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>943000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>853000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>759000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>773000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-3837000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>572000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>607000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>586000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>340000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-174000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>586000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-2774000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>501000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>460000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1979000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-12459000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>865000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-4875000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1319000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>-582000</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>1192000</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>247000</v>
+      </c>
+      <c r="E22" s="3">
         <v>216000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>260000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>237000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>230000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>225000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>238000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>180000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>232000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>240000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>239000</v>
-      </c>
-      <c r="N22" s="3">
-        <v>241000</v>
       </c>
       <c r="O22" s="3">
         <v>241000</v>
@@ -1904,227 +1943,236 @@
         <v>241000</v>
       </c>
       <c r="R22" s="3">
+        <v>241000</v>
+      </c>
+      <c r="S22" s="3">
         <v>209000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>219000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>226000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>227000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>231000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>240000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>231000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>218000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>221000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>219000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>526000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>151000</v>
-      </c>
-      <c r="AD22" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="AE22" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>75000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-914000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-258000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1101000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>166000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1160000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-971000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-175000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>382000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>308000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>144000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>137000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4459000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-51000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-33000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-39000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-292000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-850000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-84000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-3387000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-213000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-250000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1254000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-13208000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>119000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-5978000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>688000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-914000</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>615000</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-16000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-19000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>154000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>107000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-900000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-24000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>76000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>98000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>62000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-21000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>16000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-104000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-59000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-119000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>11000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-179000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>9000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-236000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-26000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-76000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>46000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-410000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-494000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-22000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>54000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>57000</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>207000</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2212,186 +2260,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>87000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-898000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-239000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1255000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>59000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-260000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-973000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-151000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>306000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>210000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>82000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>158000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4475000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>53000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>26000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>80000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-303000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-671000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-93000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-3151000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-187000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-174000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1208000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-12798000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>613000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-5956000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>634000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-971000</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>408000</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>80000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-863000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-205000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1221000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>56000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-232000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-955000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-159000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>292000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>207000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>77000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>150000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4349000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>140000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>69000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>109000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-314000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-689000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-105000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2843000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-283000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-241000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1055000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-12661000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>530000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-6035000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>580000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-1038000</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2479,8 +2536,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2520,8 +2580,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>11</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>11</v>
@@ -2538,11 +2598,11 @@
       <c r="U29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W29" s="3">
         <v>-97000</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>11</v>
@@ -2550,11 +2610,11 @@
       <c r="Y29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA29" s="3">
         <v>1061000</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>11</v>
@@ -2568,8 +2628,11 @@
       <c r="AE29" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2657,8 +2720,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2746,186 +2812,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E32" s="3">
         <v>52000</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>9000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>23000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-14000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>20000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>73000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>9000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>34000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>51000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>27000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-124000</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-17000</v>
       </c>
       <c r="Q32" s="3">
         <v>-17000</v>
       </c>
       <c r="R32" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="S32" s="3">
         <v>-22000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-8000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-20000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-9000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>6000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-11000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>5000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-14000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-30000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>40000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-290000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>56000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>777000</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>150000</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>80000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-863000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-205000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1221000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>56000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-232000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-955000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-159000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>292000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>207000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>77000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>150000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4349000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>140000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>69000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>109000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-314000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-689000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-105000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2940000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-283000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-241000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1055000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-11600000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>530000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-6035000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>580000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-1038000</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3013,191 +3088,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>80000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-863000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-205000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1221000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>56000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-232000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-955000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-159000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>292000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>207000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>77000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>150000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4349000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>140000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>69000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>109000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-314000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-689000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-105000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2940000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-283000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-241000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1055000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-11600000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>530000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-6035000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>580000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-1038000</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3229,8 +3313,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3262,97 +3347,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2249000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2669000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2143000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2801000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2225000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2058000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2175000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2165000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2045000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2436000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1743000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2177000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1827000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2402000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1804000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1975000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1241000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2165000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1973000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1782000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1875000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1861000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1418000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>963000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>680000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>599000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>900000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>988000</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>1557000</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3440,364 +3529,379 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3385000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3539000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3435000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3696000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3730000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4471000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4253000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4529000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4046000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4488000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4572000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4581000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4385000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4545000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5189000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5676000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5254000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5260000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5108000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5822000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>5665000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>6061000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>6289000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>7128000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>7424000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>7320000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>7264000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>7523000</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>8071000</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4051000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4109000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4118000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3833000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3859000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4049000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4012000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3818000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4167000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4362000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4406000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4403000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4516000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4361000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4290000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4422000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4636000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4850000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4782000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>4731000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>4866000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>4971000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>5113000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>4924000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>5060000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>5132000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>4999000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>4954000</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>5349000</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1740000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1771000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1805000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1721000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1639000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1586000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2011000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2061000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1896000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1536000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1680000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1844000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1432000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1473000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1601000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1391000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1411000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1530000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1568000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1459000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1475000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1818000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1867000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>2367000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>3062000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1544000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>1672000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>3763000</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>2409000</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>11425000</v>
+      </c>
+      <c r="E46" s="3">
         <v>12088000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>11501000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>12051000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>11453000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>12164000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>12451000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>12573000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>12154000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>12822000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>12401000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>13005000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>12160000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>12781000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>12884000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>13464000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>12542000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>13805000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>13431000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>13794000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>13881000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>14711000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>14687000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>15382000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>16226000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>14595000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>14835000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>17228000</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>17386000</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3885,186 +3989,195 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6028000</v>
+      </c>
+      <c r="E48" s="3">
         <v>6130000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6171000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6158000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5990000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6181000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6396000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6477000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6547000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6658000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6641000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6855000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6709000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6611000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6710000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6950000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>7111000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>7232000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>7302000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>6868000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>7101000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>7213000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>7420000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>7673000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>8001000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>8043000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>8160000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>8073000</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>8379000</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>22410000</v>
+      </c>
+      <c r="E49" s="3">
         <v>22856000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>23763000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>23903000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>24826000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>25537000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>27102000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>27506000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>28011000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>28541000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>28747000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>29547000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>29536000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>34556000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>34746000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>36078000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>36535000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>37348000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>38013000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>38922000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>42930000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>43860000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>45779000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>46054000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>60270000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>61699000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>66215000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>65896000</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>69853000</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4152,8 +4265,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4241,97 +4357,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2021000</v>
+        <v>2225000</v>
       </c>
       <c r="E52" s="3">
         <v>2021000</v>
       </c>
       <c r="F52" s="3">
+        <v>2021000</v>
+      </c>
+      <c r="G52" s="3">
         <v>1894000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1983000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2050000</v>
-      </c>
-      <c r="I52" s="3">
-        <v>1110000</v>
       </c>
       <c r="J52" s="3">
         <v>1110000</v>
       </c>
       <c r="K52" s="3">
+        <v>1110000</v>
+      </c>
+      <c r="L52" s="3">
         <v>1139000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1174000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1215000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1233000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1332000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1043000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>990000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>978000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1058000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1039000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1108000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1099000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1149000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1246000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1295000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1506000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1585000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>2018000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>2066000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>1860000</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>3129000</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4419,97 +4541,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>42088000</v>
+      </c>
+      <c r="E54" s="3">
         <v>43095000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>43456000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>44006000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>44252000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>45932000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>47059000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>47666000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>47851000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>49195000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>49004000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>50640000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>49737000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>54991000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>55330000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>57470000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>57246000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>59424000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>59854000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>60683000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>65061000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>67030000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>69181000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>70615000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>86082000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>86355000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>91276000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>93057000</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>98747000</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4541,8 +4669,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4574,542 +4703,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2280000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2508000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2381000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1887000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1635000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1901000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1750000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1686000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1514000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1551000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1692000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1756000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1716000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1606000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1710000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1718000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1688000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1806000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1763000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1853000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1626000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1779000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1929000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2069000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>2370000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>2278000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>2378000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>2157000</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>4953000</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1479000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1980000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1023000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2109000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2769000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1719000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2077000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1426000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2709000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3530000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2697000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3188000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2106000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1649000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1630000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2345000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3130000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2771000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2790000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1700000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2673000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1272000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1302000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>3646000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>2731000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1246000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>1942000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>3276000</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>3676000</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7635000</v>
+      </c>
+      <c r="E59" s="3">
         <v>7355000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7007000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7473000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7130000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7376000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7786000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7915000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7602000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7610000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7700000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8220000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>8281000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>8496000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>8982000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>9611000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>9289000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>9875000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>9475000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>10769000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>10531000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>11164000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>11525000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>12206000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>11842000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>11933000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>11583000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>13055000</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>10657000</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11394000</v>
+      </c>
+      <c r="E60" s="3">
         <v>11843000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>10411000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>11469000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>11534000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>10996000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>11613000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>11027000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11825000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12691000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>12089000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>13164000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>12103000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>11751000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>12322000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>13674000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>14107000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>14452000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>14028000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>14322000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>14830000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>14215000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>14756000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>17921000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>16943000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>15457000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>15903000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>18488000</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>19286000</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>18495000</v>
+      </c>
+      <c r="E61" s="3">
         <v>18698000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>19668000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>19103000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>18497000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>20363000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>20840000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>21617000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>21037000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>21602000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>22288000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>22731000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>23515000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>24616000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>24473000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>24562000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>23812000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>25955000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>25828000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>26691000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>26792000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>28949000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>29434000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>28827000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>31970500</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>33806000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>32691000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>32522000</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>33179000</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4687000</v>
+      </c>
+      <c r="E62" s="3">
         <v>4846000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4765000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4743000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4702000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4745000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4346000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3778000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3538000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3591000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3652000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3684000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3527000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3800000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3947000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4171000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4402000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3766000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4177000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>3876000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>4305000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>4498000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>4889000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>5122000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>6873500</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>7484000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>6937000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>7054000</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>9254000</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5197,8 +5345,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5286,8 +5437,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5375,97 +5529,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>35158000</v>
+      </c>
+      <c r="E66" s="3">
         <v>36043000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>35595000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>36109000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>35484000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>36895000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>37715000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>37388000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>37384000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>38871000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>39004000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>40614000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>40144000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>41139000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>41799000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>43498000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>43455000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>45301000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>45122000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>45976000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>47331000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>49092000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>50560000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>53256000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>57411000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>58361000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>57253000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>59720000</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>63618000</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5497,8 +5657,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5586,8 +5747,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5675,8 +5839,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5738,19 +5905,19 @@
         <v>0</v>
       </c>
       <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
         <v>3825000</v>
       </c>
-      <c r="X70" s="3">
+      <c r="Y70" s="3">
         <v>3760000</v>
       </c>
-      <c r="Y70" s="3">
+      <c r="Z70" s="3">
         <v>3696000</v>
       </c>
-      <c r="Z70" s="3">
+      <c r="AA70" s="3">
         <v>3631000</v>
-      </c>
-      <c r="AA70" s="3">
-        <v>3620000</v>
       </c>
       <c r="AB70" s="3">
         <v>3620000</v>
@@ -5764,8 +5931,11 @@
       <c r="AE70" s="3">
         <v>3620000</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>3620000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5853,97 +6023,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-13870000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-13950000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-13086000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-12882000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-11660000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-11716000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-11484000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-10529000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-10370000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-10662000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-10869000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-10946000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-11096000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-6747000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-6887000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-6956000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-7066000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-6752000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-6063000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-5958000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-3072000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-2864000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-2688000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-3803000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>7873000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>7430000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>13809000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>13607000</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>14991000</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6031,8 +6207,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6120,8 +6299,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6209,97 +6391,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6930000</v>
+      </c>
+      <c r="E76" s="3">
         <v>7052000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>7861000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7897000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8768000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>9037000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9344000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10278000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10467000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10324000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10000000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10026000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9593000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>13852000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>13531000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>13972000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>13791000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>14123000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>14732000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>14707000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>13905000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>14178000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>14925000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>13728000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>25051000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>24374000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>30403000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>29717000</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>31509000</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6387,191 +6575,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>80000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-863000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-205000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1221000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>56000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-232000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-955000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-159000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>292000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>207000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>77000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>150000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4349000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>140000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>69000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>109000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-314000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-689000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-105000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2940000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-283000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-241000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1055000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-11600000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>530000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-6035000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>580000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-1038000</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6603,97 +6800,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>283000</v>
+      </c>
+      <c r="E83" s="3">
         <v>300000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>304000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>306000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>321000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>358000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>323000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>320000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>329000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>305000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>376000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>395000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>381000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>382000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>399000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>416000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>413000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>450000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>443000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>382000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>474000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>479000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>507000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>528000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>527000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>577000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>480000</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>332000</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>577000</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6781,8 +6982,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6870,8 +7074,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6959,8 +7166,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7048,8 +7258,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7137,97 +7350,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E89" s="3">
         <v>324000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-145000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>973000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>544000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>122000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-49000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>456000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>529000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>218000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-405000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>331000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>307000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>273000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>305000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>538000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>325000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-227000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>112000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>367000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>421000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>162000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1496000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1179000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1117000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>741000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>470000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>1425000</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>1461000</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7259,97 +7478,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-149000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-119000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-139000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-142000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-122000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-127000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-157000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-153000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-146000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-113000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-150000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-176000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-143000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-131000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-128000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-119000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-169000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-112000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-125000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-213000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-139000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-136000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-163000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-267000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-212000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-193000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-202000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-333000</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-221000</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7437,8 +7660,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7526,97 +7752,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>184000</v>
+      </c>
+      <c r="E94" s="3">
         <v>302000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>181000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>168000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>147000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>180000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>161000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>246000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>288000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>481000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>508000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>141000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>157000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>313000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>252000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>430000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>224000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>429000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>272000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>74000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>347000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>406000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>1039000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>1912000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>744000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-392000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>1182000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-797000</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-32301000</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7648,8 +7880,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7717,28 +7950,31 @@
         <v>0</v>
       </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-12000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-87000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-123000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-345000</v>
-      </c>
-      <c r="AC96" s="3">
-        <v>-346000</v>
       </c>
       <c r="AD96" s="3">
         <v>-346000</v>
       </c>
       <c r="AE96" s="3">
+        <v>-346000</v>
+      </c>
+      <c r="AF96" s="3">
         <v>-340000</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7826,8 +8062,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7915,8 +8154,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8004,271 +8246,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-576000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-55000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-706000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-711000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-440000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-338000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-501000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1177000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-493000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-125000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1057000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-700000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-241000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1461000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-35000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-189000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-499000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-705000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-56000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-2091000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-2506000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-825000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-651000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-1768000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-701000</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>25372000</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-77000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>12000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>146000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-84000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-123000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-62000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-48000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-31000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-5000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-44000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>3000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>18000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>15000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-28000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>7000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-12000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>25000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-4000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-35000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-49000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-69000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>11000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>18000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>7000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>1000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>28000</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-496000</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>41000</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-420000</v>
+      </c>
+      <c r="E102" s="3">
         <v>494000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-658000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>576000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>167000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-159000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>52000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>153000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-391000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>693000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-434000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>350000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-575000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>598000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-171000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>734000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-924000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>192000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>191000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-93000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>14000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>443000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>455000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>283000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>81000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-301000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-88000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-569000</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-5427000</v>
       </c>
     </row>
